--- a/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
+++ b/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE937AA3-65A9-604B-ACFA-9BF758BB5A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9167A7-09D7-724F-8054-23A7D42CB3A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34260" yWindow="360" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="-1740" windowWidth="33540" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investment" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <definedName name="LastMonthly2">Investment!$F$20</definedName>
     <definedName name="Monthly1">Investment!$B$19</definedName>
     <definedName name="Monthly2">Investment!$F$19</definedName>
+    <definedName name="MonthsCounter">(Investment!$B$21)*12</definedName>
+    <definedName name="October_30__2020">Investment!$A$30</definedName>
     <definedName name="PayOutPeriod1">Investment!$B$21</definedName>
     <definedName name="PayOutPeriod2">Investment!$F$21</definedName>
     <definedName name="rate">Investment!$D$23</definedName>
@@ -50,22 +52,11 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="33">
   <si>
     <t>Payout Amount</t>
   </si>
@@ -299,6 +290,9 @@
   <si>
     <t>Question Requirements</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -907,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1019,7 +1013,9 @@
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="I8" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
@@ -1173,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>3</v>
@@ -1306,6 +1302,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
+        <f>IF(ROW($A1) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A1)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44134</v>
       </c>
       <c r="B30" s="9">
@@ -1314,6 +1311,10 @@
       <c r="C30" s="9">
         <v>19920.236573710612</v>
       </c>
+      <c r="D30">
+        <f>MonthsCounter</f>
+        <v>84</v>
+      </c>
       <c r="E30" s="7">
         <v>44134</v>
       </c>
@@ -1335,6 +1336,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
+        <f>IF(ROW($A2) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A2)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44165</v>
       </c>
       <c r="B31" s="9">
@@ -1364,6 +1366,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
+        <f>IF(ROW($A3) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A3)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44196</v>
       </c>
       <c r="B32" s="9">
@@ -1393,6 +1396,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
+        <f>IF(ROW($A4) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A4)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44225</v>
       </c>
       <c r="B33" s="9">
@@ -1422,6 +1426,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
+        <f>IF(ROW($A5) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A5)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44253</v>
       </c>
       <c r="B34" s="9">
@@ -1451,6 +1456,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
+        <f>IF(ROW($A6) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A6)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44286</v>
       </c>
       <c r="B35" s="9">
@@ -1480,6 +1486,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
+        <f>IF(ROW($A7) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A7)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44316</v>
       </c>
       <c r="B36" s="9">
@@ -1509,6 +1516,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
+        <f>IF(ROW($A8) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A8)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44347</v>
       </c>
       <c r="B37" s="9">
@@ -1538,6 +1546,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
+        <f>IF(ROW($A9) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A9)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44377</v>
       </c>
       <c r="B38" s="9">
@@ -1567,6 +1576,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
+        <f>IF(ROW($A10) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A10)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44407</v>
       </c>
       <c r="B39" s="9">
@@ -1596,6 +1606,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
+        <f>IF(ROW($A11) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A11)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44439</v>
       </c>
       <c r="B40" s="9">
@@ -1625,6 +1636,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
+        <f>IF(ROW($A12) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A12)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44469</v>
       </c>
       <c r="B41" s="9">
@@ -1654,6 +1666,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
+        <f>IF(ROW($A13) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A13)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44498</v>
       </c>
       <c r="B42" s="9">
@@ -1684,6 +1697,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
+        <f>IF(ROW($A14) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A14)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44530</v>
       </c>
       <c r="B43" s="9">
@@ -1713,6 +1727,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
+        <f>IF(ROW($A15) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A15)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44561</v>
       </c>
       <c r="B44" s="9">
@@ -1742,6 +1757,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
+        <f>IF(ROW($A16) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A16)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44592</v>
       </c>
       <c r="B45" s="9">
@@ -1771,6 +1787,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
+        <f>IF(ROW($A17) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A17)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44620</v>
       </c>
       <c r="B46" s="9">
@@ -1800,6 +1817,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
+        <f>IF(ROW($A18) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A18)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44651</v>
       </c>
       <c r="B47" s="9">
@@ -1829,6 +1847,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
+        <f>IF(ROW($A19) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A19)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44680</v>
       </c>
       <c r="B48" s="9">
@@ -1858,6 +1877,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
+        <f>IF(ROW($A20) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A20)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44712</v>
       </c>
       <c r="B49" s="9">
@@ -1887,6 +1907,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
+        <f>IF(ROW($A21) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A21)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44742</v>
       </c>
       <c r="B50" s="9">
@@ -1916,6 +1937,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
+        <f>IF(ROW($A22) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A22)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44771</v>
       </c>
       <c r="B51" s="9">
@@ -1945,6 +1967,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
+        <f>IF(ROW($A23) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A23)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44804</v>
       </c>
       <c r="B52" s="9">
@@ -1974,6 +1997,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
+        <f>IF(ROW($A24) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A24)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44834</v>
       </c>
       <c r="B53" s="9">
@@ -2003,6 +2027,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
+        <f>IF(ROW($A25) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A25)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44865</v>
       </c>
       <c r="B54" s="9">
@@ -2032,6 +2057,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
+        <f>IF(ROW($A26) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A26)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44895</v>
       </c>
       <c r="B55" s="9">
@@ -2061,6 +2087,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
+        <f>IF(ROW($A27) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A27)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44925</v>
       </c>
       <c r="B56" s="9">
@@ -2090,6 +2117,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
+        <f>IF(ROW($A28) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A28)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44957</v>
       </c>
       <c r="B57" s="9">
@@ -2119,6 +2147,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
+        <f>IF(ROW($A29) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A29)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>44985</v>
       </c>
       <c r="B58" s="9">
@@ -2148,6 +2177,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
+        <f>IF(ROW($A30) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A30)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45016</v>
       </c>
       <c r="B59" s="9">
@@ -2177,6 +2207,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
+        <f>IF(ROW($A31) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A31)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45044</v>
       </c>
       <c r="B60" s="9">
@@ -2206,6 +2237,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
+        <f>IF(ROW($A32) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A32)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45077</v>
       </c>
       <c r="B61" s="9">
@@ -2235,6 +2267,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
+        <f>IF(ROW($A33) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A33)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45107</v>
       </c>
       <c r="B62" s="9">
@@ -2264,6 +2297,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
+        <f>IF(ROW($A34) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A34)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45138</v>
       </c>
       <c r="B63" s="9">
@@ -2284,6 +2318,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
+        <f>IF(ROW($A35) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A35)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45169</v>
       </c>
       <c r="B64" s="9">
@@ -2304,6 +2339,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
+        <f>IF(ROW($A36) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A36)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45198</v>
       </c>
       <c r="B65" s="9">
@@ -2324,6 +2360,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
+        <f>IF(ROW($A37) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A37)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45230</v>
       </c>
       <c r="B66" s="9">
@@ -2344,6 +2381,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
+        <f>IF(ROW($A38) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A38)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45260</v>
       </c>
       <c r="B67" s="9">
@@ -2364,6 +2402,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
+        <f>IF(ROW($A39) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A39)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45289</v>
       </c>
       <c r="B68" s="9">
@@ -2384,6 +2423,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
+        <f>IF(ROW($A40) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A40)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45322</v>
       </c>
       <c r="B69" s="9">
@@ -2404,6 +2444,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
+        <f>IF(ROW($A41) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A41)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45351</v>
       </c>
       <c r="B70" s="9">
@@ -2424,6 +2465,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
+        <f>IF(ROW($A42) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A42)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45379</v>
       </c>
       <c r="B71" s="9">
@@ -2444,6 +2486,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
+        <f>IF(ROW($A43) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A43)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45412</v>
       </c>
       <c r="B72" s="9">
@@ -2464,6 +2507,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
+        <f>IF(ROW($A44) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A44)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45443</v>
       </c>
       <c r="B73" s="9">
@@ -2484,6 +2528,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
+        <f>IF(ROW($A45) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A45)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45471</v>
       </c>
       <c r="B74" s="9">
@@ -2504,6 +2549,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
+        <f>IF(ROW($A46) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A46)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45504</v>
       </c>
       <c r="B75" s="9">
@@ -2524,6 +2570,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
+        <f>IF(ROW($A47) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A47)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45534</v>
       </c>
       <c r="B76" s="9">
@@ -2544,6 +2591,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
+        <f>IF(ROW($A48) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A48)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45565</v>
       </c>
       <c r="B77" s="9">
@@ -2564,6 +2612,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
+        <f>IF(ROW($A49) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A49)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45596</v>
       </c>
       <c r="B78" s="9">
@@ -2584,6 +2633,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
+        <f>IF(ROW($A50) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A50)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45625</v>
       </c>
       <c r="B79" s="9">
@@ -2604,6 +2654,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
+        <f>IF(ROW($A51) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A51)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45657</v>
       </c>
       <c r="B80" s="9">
@@ -2624,6 +2675,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
+        <f>IF(ROW($A52) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A52)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45685</v>
       </c>
       <c r="B81" s="9">
@@ -2644,6 +2696,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
+        <f>IF(ROW($A53) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A53)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45716</v>
       </c>
       <c r="B82" s="9">
@@ -2664,6 +2717,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
+        <f>IF(ROW($A54) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A54)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45747</v>
       </c>
       <c r="B83" s="9">
@@ -2684,6 +2738,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
+        <f>IF(ROW($A55) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A55)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45777</v>
       </c>
       <c r="B84" s="9">
@@ -2704,6 +2759,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
+        <f>IF(ROW($A56) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A56)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45807</v>
       </c>
       <c r="B85" s="9">
@@ -2724,6 +2780,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
+        <f>IF(ROW($A57) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A57)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45838</v>
       </c>
       <c r="B86" s="9">
@@ -2744,6 +2801,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
+        <f>IF(ROW($A58) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A58)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45869</v>
       </c>
       <c r="B87" s="9">
@@ -2764,6 +2822,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
+        <f>IF(ROW($A59) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A59)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45898</v>
       </c>
       <c r="B88" s="9">
@@ -2784,6 +2843,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
+        <f>IF(ROW($A60) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A60)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
         <v>45930</v>
       </c>
       <c r="B89" s="9">
@@ -2803,8 +2863,9 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
-        <v>18</v>
+      <c r="A90" s="7">
+        <f>IF(ROW($A61) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A61)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>45961</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>18</v>
@@ -2823,8 +2884,9 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
-        <v>18</v>
+      <c r="A91" s="7">
+        <f>IF(ROW($A62) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A62)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>45989</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>18</v>
@@ -2843,8 +2905,9 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
-        <v>18</v>
+      <c r="A92" s="7">
+        <f>IF(ROW($A63) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A63)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46022</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>18</v>
@@ -2863,8 +2926,9 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
-        <v>18</v>
+      <c r="A93" s="7">
+        <f>IF(ROW($A64) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A64)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46052</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>18</v>
@@ -2883,8 +2947,9 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
-        <v>18</v>
+      <c r="A94" s="7">
+        <f>IF(ROW($A65) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A65)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46080</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>18</v>
@@ -2903,8 +2968,9 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
-        <v>18</v>
+      <c r="A95" s="7">
+        <f>IF(ROW($A66) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A66)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46112</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>18</v>
@@ -2923,8 +2989,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
-        <v>18</v>
+      <c r="A96" s="7">
+        <f>IF(ROW($A67) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A67)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46142</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>18</v>
@@ -2943,8 +3010,9 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
-        <v>18</v>
+      <c r="A97" s="7">
+        <f>IF(ROW($A68) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A68)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46171</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>18</v>
@@ -2963,8 +3031,9 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
-        <v>18</v>
+      <c r="A98" s="7">
+        <f>IF(ROW($A69) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A69)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46203</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>18</v>
@@ -2983,8 +3052,9 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
-        <v>18</v>
+      <c r="A99" s="7">
+        <f>IF(ROW($A70) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A70)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46234</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>18</v>
@@ -3003,8 +3073,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
-        <v>18</v>
+      <c r="A100" s="7">
+        <f>IF(ROW($A71) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A71)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46265</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>18</v>
@@ -3023,8 +3094,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
-        <v>18</v>
+      <c r="A101" s="7">
+        <f>IF(ROW($A72) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A72)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46295</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>18</v>
@@ -3043,8 +3115,9 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
-        <v>18</v>
+      <c r="A102" s="7">
+        <f>IF(ROW($A73) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A73)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46325</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>18</v>
@@ -3063,8 +3136,9 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
-        <v>18</v>
+      <c r="A103" s="7">
+        <f>IF(ROW($A74) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A74)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46356</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>18</v>
@@ -3083,8 +3157,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
-        <v>18</v>
+      <c r="A104" s="7">
+        <f>IF(ROW($A75) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A75)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46387</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>18</v>
@@ -3103,8 +3178,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
-        <v>18</v>
+      <c r="A105" s="7">
+        <f>IF(ROW($A76) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A76)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46416</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>18</v>
@@ -3123,8 +3199,9 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
-        <v>18</v>
+      <c r="A106" s="7">
+        <f>IF(ROW($A77) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A77)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46444</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>18</v>
@@ -3143,8 +3220,9 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
-        <v>18</v>
+      <c r="A107" s="7">
+        <f>IF(ROW($A78) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A78)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46477</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>18</v>
@@ -3163,8 +3241,9 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
-        <v>18</v>
+      <c r="A108" s="7">
+        <f>IF(ROW($A79) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A79)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46507</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>18</v>
@@ -3183,8 +3262,9 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
-        <v>18</v>
+      <c r="A109" s="7">
+        <f>IF(ROW($A80) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A80)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46538</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>18</v>
@@ -3203,8 +3283,9 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
-        <v>18</v>
+      <c r="A110" s="7">
+        <f>IF(ROW($A81) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A81)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46568</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>18</v>
@@ -3223,8 +3304,9 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
-        <v>18</v>
+      <c r="A111" s="7">
+        <f>IF(ROW($A82) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A82)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46598</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>18</v>
@@ -3243,8 +3325,9 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
-        <v>18</v>
+      <c r="A112" s="7">
+        <f>IF(ROW($A83) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A83)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46630</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>18</v>
@@ -3263,8 +3346,9 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
-        <v>18</v>
+      <c r="A113" s="7">
+        <f>IF(ROW($A84) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A84)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v>46660</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>18</v>
@@ -3283,8 +3367,9 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
-        <v>18</v>
+      <c r="A114" s="7" t="str">
+        <f>IF(ROW($A85) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A85)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B114" s="9" t="s">
         <v>18</v>
@@ -3303,8 +3388,9 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
-        <v>18</v>
+      <c r="A115" s="7" t="str">
+        <f>IF(ROW($A86) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A86)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B115" s="9" t="s">
         <v>18</v>
@@ -3323,8 +3409,9 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>18</v>
+      <c r="A116" s="7" t="str">
+        <f>IF(ROW($A87) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A87)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B116" s="9" t="s">
         <v>18</v>
@@ -3343,8 +3430,9 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
-        <v>18</v>
+      <c r="A117" s="7" t="str">
+        <f>IF(ROW($A88) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A88)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B117" s="9" t="s">
         <v>18</v>
@@ -3363,8 +3451,9 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
-        <v>18</v>
+      <c r="A118" s="7" t="str">
+        <f>IF(ROW($A89) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A89)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B118" s="9" t="s">
         <v>18</v>
@@ -3383,8 +3472,9 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>18</v>
+      <c r="A119" s="7" t="str">
+        <f>IF(ROW($A90) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A90)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B119" s="9" t="s">
         <v>18</v>
@@ -3403,8 +3493,9 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
-        <v>18</v>
+      <c r="A120" s="7" t="str">
+        <f>IF(ROW($A91) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A91)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B120" s="9" t="s">
         <v>18</v>
@@ -3423,8 +3514,9 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>18</v>
+      <c r="A121" s="7" t="str">
+        <f>IF(ROW($A92) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A92)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B121" s="9" t="s">
         <v>18</v>
@@ -3443,8 +3535,9 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
-        <v>18</v>
+      <c r="A122" s="7" t="str">
+        <f>IF(ROW($A93) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A93)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B122" s="9" t="s">
         <v>18</v>
@@ -3463,8 +3556,9 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>18</v>
+      <c r="A123" s="7" t="str">
+        <f>IF(ROW($A94) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A94)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B123" s="9" t="s">
         <v>18</v>
@@ -3483,8 +3577,9 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
-        <v>18</v>
+      <c r="A124" s="7" t="str">
+        <f>IF(ROW($A95) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A95)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B124" s="9" t="s">
         <v>18</v>
@@ -3503,8 +3598,9 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
-        <v>18</v>
+      <c r="A125" s="7" t="str">
+        <f>IF(ROW($A96) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A96)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B125" s="9" t="s">
         <v>18</v>
@@ -3523,8 +3619,9 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
-        <v>18</v>
+      <c r="A126" s="7" t="str">
+        <f>IF(ROW($A97) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A97)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B126" s="9" t="s">
         <v>18</v>
@@ -3543,8 +3640,9 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
-        <v>18</v>
+      <c r="A127" s="7" t="str">
+        <f>IF(ROW($A98) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A98)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B127" s="9" t="s">
         <v>18</v>
@@ -3563,8 +3661,9 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
-        <v>18</v>
+      <c r="A128" s="7" t="str">
+        <f>IF(ROW($A99) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A99)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B128" s="9" t="s">
         <v>18</v>
@@ -3583,8 +3682,9 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
-        <v>18</v>
+      <c r="A129" s="7" t="str">
+        <f>IF(ROW($A100) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A100)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B129" s="9" t="s">
         <v>18</v>
@@ -3603,8 +3703,9 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
-        <v>18</v>
+      <c r="A130" s="7" t="str">
+        <f>IF(ROW($A101) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A101)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B130" s="9" t="s">
         <v>18</v>
@@ -3623,8 +3724,9 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
-        <v>18</v>
+      <c r="A131" s="7" t="str">
+        <f>IF(ROW($A102) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A102)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B131" s="9" t="s">
         <v>18</v>
@@ -3643,8 +3745,9 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
-        <v>18</v>
+      <c r="A132" s="7" t="str">
+        <f>IF(ROW($A103) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A103)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B132" s="9" t="s">
         <v>18</v>
@@ -3663,8 +3766,9 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
-        <v>18</v>
+      <c r="A133" s="7" t="str">
+        <f>IF(ROW($A104) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A104)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B133" s="9" t="s">
         <v>18</v>
@@ -3683,8 +3787,9 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
-        <v>18</v>
+      <c r="A134" s="7" t="str">
+        <f>IF(ROW($A105) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A105)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B134" s="9" t="s">
         <v>18</v>
@@ -3703,8 +3808,9 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
-        <v>18</v>
+      <c r="A135" s="7" t="str">
+        <f>IF(ROW($A106) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A106)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B135" s="9" t="s">
         <v>18</v>
@@ -3723,8 +3829,9 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
-        <v>18</v>
+      <c r="A136" s="7" t="str">
+        <f>IF(ROW($A107) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A107)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B136" s="9" t="s">
         <v>18</v>
@@ -3743,8 +3850,9 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
-        <v>18</v>
+      <c r="A137" s="7" t="str">
+        <f>IF(ROW($A108) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A108)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B137" s="9" t="s">
         <v>18</v>
@@ -3763,8 +3871,9 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
-        <v>18</v>
+      <c r="A138" s="7" t="str">
+        <f>IF(ROW($A109) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A109)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B138" s="9" t="s">
         <v>18</v>
@@ -3783,8 +3892,9 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
-        <v>18</v>
+      <c r="A139" s="7" t="str">
+        <f>IF(ROW($A110) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A110)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B139" s="9" t="s">
         <v>18</v>
@@ -3803,8 +3913,9 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="7" t="s">
-        <v>18</v>
+      <c r="A140" s="7" t="str">
+        <f>IF(ROW($A111) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A111)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B140" s="9" t="s">
         <v>18</v>
@@ -3823,8 +3934,9 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
-        <v>18</v>
+      <c r="A141" s="7" t="str">
+        <f>IF(ROW($A112) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A112)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B141" s="9" t="s">
         <v>18</v>
@@ -3843,8 +3955,9 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="7" t="s">
-        <v>18</v>
+      <c r="A142" s="7" t="str">
+        <f>IF(ROW($A113) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A113)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B142" s="9" t="s">
         <v>18</v>
@@ -3863,8 +3976,9 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
-        <v>18</v>
+      <c r="A143" s="7" t="str">
+        <f>IF(ROW($A114) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A114)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B143" s="9" t="s">
         <v>18</v>
@@ -3883,8 +3997,9 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
-        <v>18</v>
+      <c r="A144" s="7" t="str">
+        <f>IF(ROW($A115) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A115)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B144" s="9" t="s">
         <v>18</v>
@@ -3903,8 +4018,9 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="7" t="s">
-        <v>18</v>
+      <c r="A145" s="7" t="str">
+        <f>IF(ROW($A116) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A116)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B145" s="9" t="s">
         <v>18</v>
@@ -3923,8 +4039,9 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
-        <v>18</v>
+      <c r="A146" s="7" t="str">
+        <f>IF(ROW($A117) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A117)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B146" s="9" t="s">
         <v>18</v>
@@ -3943,8 +4060,9 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
-        <v>18</v>
+      <c r="A147" s="7" t="str">
+        <f>IF(ROW($A118) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A118)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B147" s="9" t="s">
         <v>18</v>
@@ -3963,8 +4081,9 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
-        <v>18</v>
+      <c r="A148" s="7" t="str">
+        <f>IF(ROW($A119) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A119)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B148" s="9" t="s">
         <v>18</v>
@@ -3983,8 +4102,9 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="7" t="s">
-        <v>18</v>
+      <c r="A149" s="7" t="str">
+        <f>IF(ROW($A120) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A120)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <v/>
       </c>
       <c r="B149" s="9" t="s">
         <v>18</v>
@@ -4409,6 +4529,12 @@
     <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 F21" xr:uid="{72654645-AAA7-DC4F-8383-7B221AB2A222}">
+      <formula1>1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4418,7 +4544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B772"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A134" workbookViewId="0">
       <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>

--- a/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
+++ b/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9167A7-09D7-724F-8054-23A7D42CB3A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027226A8-64A9-AD4F-B056-597AE2D1122B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29940" yWindow="-1740" windowWidth="33540" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="34">
   <si>
     <t>Payout Amount</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
   </si>
 </sst>
 </file>
@@ -901,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -919,12 +922,18 @@
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>27</v>
       </c>
@@ -937,7 +946,7 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>28</v>
       </c>
@@ -950,7 +959,7 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>29</v>
       </c>
@@ -963,7 +972,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>30</v>
       </c>
@@ -976,7 +985,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>31</v>
       </c>
@@ -989,7 +998,7 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>16</v>
       </c>
@@ -1002,7 +1011,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>20</v>
       </c>
@@ -1017,7 +1026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>21</v>
       </c>
@@ -1028,9 +1037,11 @@
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="I9" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>22</v>
       </c>
@@ -1043,7 +1054,7 @@
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>23</v>
       </c>
@@ -1056,7 +1067,7 @@
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>24</v>
       </c>
@@ -1069,7 +1080,7 @@
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>25</v>
       </c>
@@ -1082,7 +1093,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>19</v>
       </c>
@@ -1095,7 +1106,7 @@
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>3</v>
@@ -1208,7 +1219,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="9">
-        <f>B26-F26</f>
+        <f ca="1">B26-F26</f>
         <v>1.6926787793636322E-7</v>
       </c>
       <c r="J24" s="16"/>
@@ -1227,6 +1238,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="9">
+        <f ca="1">SUM(C30:C149) - F16</f>
         <v>63151.115962365642</v>
       </c>
       <c r="E26" s="16" t="s">
@@ -1302,18 +1314,24 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <f>IF(ROW($A1) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A1)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A1) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A1)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A1))),
+  WORKDAY(EDATE(fpdate, ROW($A1)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A1)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44134</v>
       </c>
       <c r="B30" s="9">
+        <f>IF(ROW($B1) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C30" s="9">
+        <f ca="1">IF(ROW($C1) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>19920.236573710612</v>
       </c>
       <c r="D30">
         <f>MonthsCounter</f>
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E30" s="7">
         <v>44134</v>
@@ -1336,13 +1354,19 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <f>IF(ROW($A2) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A2)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A2) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A2)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A2))),
+  WORKDAY(EDATE(fpdate, ROW($A2)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A2)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44165</v>
       </c>
       <c r="B31" s="9">
+        <f>IF(ROW($B2) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C31" s="9">
+        <f ca="1">IF(ROW($C2) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>19838.148544168536</v>
       </c>
       <c r="E31" s="7">
@@ -1366,13 +1390,19 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <f>IF(ROW($A3) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A3)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A3) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A3)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A3))),
+  WORKDAY(EDATE(fpdate, ROW($A3)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A3)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44196</v>
       </c>
       <c r="B32" s="9">
+        <f>IF(ROW($B3) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C32" s="9">
+        <f ca="1">IF(ROW($C3) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>19756.398785940117</v>
       </c>
       <c r="E32" s="7">
@@ -1396,13 +1426,19 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <f>IF(ROW($A4) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A4)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A4) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A4)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A4))),
+  WORKDAY(EDATE(fpdate, ROW($A4)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A4)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44225</v>
       </c>
       <c r="B33" s="9">
+        <f>IF(ROW($B4) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C33" s="9">
+        <f ca="1">IF(ROW($C4) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>19680.228210135112</v>
       </c>
       <c r="E33" s="7">
@@ -1426,13 +1462,19 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <f>IF(ROW($A5) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A5)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A5) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A5)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A5))),
+  WORKDAY(EDATE(fpdate, ROW($A5)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A5)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44253</v>
       </c>
       <c r="B34" s="9">
+        <f>IF(ROW($B5) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C34" s="9">
+        <f ca="1">IF(ROW($C5) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>19606.962877601196</v>
       </c>
       <c r="E34" s="7">
@@ -1456,13 +1498,19 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <f>IF(ROW($A6) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A6)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A6) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A6)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A6))),
+  WORKDAY(EDATE(fpdate, ROW($A6)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A6)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44286</v>
       </c>
       <c r="B35" s="9">
+        <f>IF(ROW($B6) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C35" s="9">
+        <f ca="1">IF(ROW($C6) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>19520.964530789821</v>
       </c>
       <c r="E35" s="7">
@@ -1486,13 +1534,19 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <f>IF(ROW($A7) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A7)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A7) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A7)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A7))),
+  WORKDAY(EDATE(fpdate, ROW($A7)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A7)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44316</v>
       </c>
       <c r="B36" s="9">
+        <f>IF(ROW($B7) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C36" s="9">
+        <f ca="1">IF(ROW($C7) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>19443.111580017347</v>
       </c>
       <c r="E36" s="7">
@@ -1516,13 +1570,19 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <f>IF(ROW($A8) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A8)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A8) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A8)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A8))),
+  WORKDAY(EDATE(fpdate, ROW($A8)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A8)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44347</v>
       </c>
       <c r="B37" s="9">
+        <f>IF(ROW($B8) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C37" s="9">
+        <f ca="1">IF(ROW($C8) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>19362.989704362684</v>
       </c>
       <c r="E37" s="7">
@@ -1546,13 +1606,19 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
-        <f>IF(ROW($A9) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A9)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A9) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A9)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A9))),
+  WORKDAY(EDATE(fpdate, ROW($A9)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A9)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44377</v>
       </c>
       <c r="B38" s="9">
+        <f>IF(ROW($B9) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C38" s="9">
+        <f ca="1">IF(ROW($C9) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>19285.766784261377</v>
       </c>
       <c r="E38" s="7">
@@ -1576,13 +1642,19 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <f>IF(ROW($A10) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A10)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A10) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A10)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A10))),
+  WORKDAY(EDATE(fpdate, ROW($A10)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A10)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44407</v>
       </c>
       <c r="B39" s="9">
+        <f>IF(ROW($B10) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C39" s="9">
+        <f ca="1">IF(ROW($C10) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>19208.851842394837</v>
       </c>
       <c r="E39" s="7">
@@ -1606,13 +1678,19 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
-        <f>IF(ROW($A11) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A11)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A11) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A11)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A11))),
+  WORKDAY(EDATE(fpdate, ROW($A11)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A11)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44439</v>
       </c>
       <c r="B40" s="9">
+        <f>IF(ROW($B11) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C40" s="9">
+        <f ca="1">IF(ROW($C11) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>19127.147314372094</v>
       </c>
       <c r="E40" s="7">
@@ -1636,13 +1714,19 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
-        <f>IF(ROW($A12) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A12)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A12) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A12)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A12))),
+  WORKDAY(EDATE(fpdate, ROW($A12)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A12)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44469</v>
       </c>
       <c r="B41" s="9">
+        <f>IF(ROW($B12) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C41" s="9">
+        <f ca="1">IF(ROW($C12) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>19050.864974125281</v>
       </c>
       <c r="E41" s="7">
@@ -1666,13 +1750,19 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
-        <f>IF(ROW($A13) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A13)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A13) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A13)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A13))),
+  WORKDAY(EDATE(fpdate, ROW($A13)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A13)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44498</v>
       </c>
       <c r="B42" s="9">
+        <f>IF(ROW($B13) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C42" s="9">
+        <f ca="1">IF(ROW($C13) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>18977.414576085372</v>
       </c>
       <c r="D42" s="12"/>
@@ -1697,13 +1787,19 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <f>IF(ROW($A14) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A14)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A14) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A14)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A14))),
+  WORKDAY(EDATE(fpdate, ROW($A14)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A14)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44530</v>
       </c>
       <c r="B43" s="9">
+        <f>IF(ROW($B14) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C43" s="9">
+        <f ca="1">IF(ROW($C14) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>18896.694462579737</v>
       </c>
       <c r="E43" s="7">
@@ -1727,13 +1823,19 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
-        <f>IF(ROW($A15) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A15)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A15) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A15)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A15))),
+  WORKDAY(EDATE(fpdate, ROW($A15)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A15)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44561</v>
       </c>
       <c r="B44" s="9">
+        <f>IF(ROW($B15) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C44" s="9">
+        <f ca="1">IF(ROW($C15) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>18818.824282295889</v>
       </c>
       <c r="E44" s="7">
@@ -1757,13 +1859,19 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
-        <f>IF(ROW($A16) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A16)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A16) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A16)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A16))),
+  WORKDAY(EDATE(fpdate, ROW($A16)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A16)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44592</v>
       </c>
       <c r="B45" s="9">
+        <f>IF(ROW($B16) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C45" s="9">
+        <f ca="1">IF(ROW($C16) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>18741.2749922603</v>
       </c>
       <c r="E45" s="7">
@@ -1787,13 +1895,19 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
-        <f>IF(ROW($A17) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A17)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A17) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A17)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A17))),
+  WORKDAY(EDATE(fpdate, ROW($A17)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A17)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44620</v>
       </c>
       <c r="B46" s="9">
+        <f>IF(ROW($B17) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C46" s="9">
+        <f ca="1">IF(ROW($C17) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>18671.505184219641</v>
       </c>
       <c r="E46" s="7">
@@ -1817,13 +1931,19 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <f>IF(ROW($A18) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A18)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A18) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A18)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A18))),
+  WORKDAY(EDATE(fpdate, ROW($A18)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A18)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44651</v>
       </c>
       <c r="B47" s="9">
+        <f>IF(ROW($B18) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C47" s="9">
+        <f ca="1">IF(ROW($C18) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>18594.562972038286</v>
       </c>
       <c r="E47" s="7">
@@ -1847,13 +1967,19 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
-        <f>IF(ROW($A19) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A19)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A19) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A19)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A19))),
+  WORKDAY(EDATE(fpdate, ROW($A19)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A19)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44680</v>
       </c>
       <c r="B48" s="9">
+        <f>IF(ROW($B19) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C48" s="9">
+        <f ca="1">IF(ROW($C19) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>18522.871841292814</v>
       </c>
       <c r="E48" s="7">
@@ -1877,13 +2003,19 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <f>IF(ROW($A20) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A20)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A20) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A20)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A20))),
+  WORKDAY(EDATE(fpdate, ROW($A20)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A20)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44712</v>
       </c>
       <c r="B49" s="9">
+        <f>IF(ROW($B20) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C49" s="9">
+        <f ca="1">IF(ROW($C20) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>18444.085117659575</v>
       </c>
       <c r="E49" s="7">
@@ -1907,13 +2039,19 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
-        <f>IF(ROW($A21) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A21)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A21) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A21)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A21))),
+  WORKDAY(EDATE(fpdate, ROW($A21)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A21)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44742</v>
       </c>
       <c r="B50" s="9">
+        <f>IF(ROW($B21) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C50" s="9">
+        <f ca="1">IF(ROW($C21) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>18370.526946471691</v>
       </c>
       <c r="E50" s="7">
@@ -1937,13 +2075,19 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <f>IF(ROW($A22) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A22)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A22) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A22)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A22))),
+  WORKDAY(EDATE(fpdate, ROW($A22)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A22)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44771</v>
       </c>
       <c r="B51" s="9">
+        <f>IF(ROW($B22) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C51" s="9">
+        <f ca="1">IF(ROW($C22) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>18299.699584131246</v>
       </c>
       <c r="E51" s="7">
@@ -1967,13 +2111,19 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
-        <f>IF(ROW($A23) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A23)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A23) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A23)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A23))),
+  WORKDAY(EDATE(fpdate, ROW($A23)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A23)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44804</v>
       </c>
       <c r="B52" s="9">
+        <f>IF(ROW($B23) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C52" s="9">
+        <f ca="1">IF(ROW($C23) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>18219.43504131529</v>
       </c>
       <c r="E52" s="7">
@@ -1997,13 +2147,19 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <f>IF(ROW($A24) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A24)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A24) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A24)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A24))),
+  WORKDAY(EDATE(fpdate, ROW($A24)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A24)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44834</v>
       </c>
       <c r="B53" s="9">
+        <f>IF(ROW($B24) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C53" s="9">
+        <f ca="1">IF(ROW($C24) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>18146.772813117674</v>
       </c>
       <c r="E53" s="7">
@@ -2027,13 +2183,19 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
-        <f>IF(ROW($A25) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A25)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A25) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A25)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A25))),
+  WORKDAY(EDATE(fpdate, ROW($A25)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A25)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44865</v>
       </c>
       <c r="B54" s="9">
+        <f>IF(ROW($B25) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C54" s="9">
+        <f ca="1">IF(ROW($C25) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>18071.992937022103</v>
       </c>
       <c r="E54" s="7">
@@ -2057,13 +2219,19 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
-        <f>IF(ROW($A26) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A26)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A26) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A26)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A26))),
+  WORKDAY(EDATE(fpdate, ROW($A26)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A26)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44895</v>
       </c>
       <c r="B55" s="9">
+        <f>IF(ROW($B26) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C55" s="9">
+        <f ca="1">IF(ROW($C26) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17999.918733195376</v>
       </c>
       <c r="E55" s="7">
@@ -2087,13 +2255,19 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
-        <f>IF(ROW($A27) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A27)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A27) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A27)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A27))),
+  WORKDAY(EDATE(fpdate, ROW($A27)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A27)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44925</v>
       </c>
       <c r="B56" s="9">
+        <f>IF(ROW($B27) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C56" s="9">
+        <f ca="1">IF(ROW($C27) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17928.131973640866</v>
       </c>
       <c r="E56" s="7">
@@ -2117,13 +2291,19 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
-        <f>IF(ROW($A28) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A28)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A28) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A28)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A28))),
+  WORKDAY(EDATE(fpdate, ROW($A28)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A28)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44957</v>
       </c>
       <c r="B57" s="9">
+        <f>IF(ROW($B28) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C57" s="9">
+        <f ca="1">IF(ROW($C28) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17851.874966025091</v>
       </c>
       <c r="E57" s="7">
@@ -2147,13 +2327,19 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
-        <f>IF(ROW($A29) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A29)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A29) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A29)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A29))),
+  WORKDAY(EDATE(fpdate, ROW($A29)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A29)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44985</v>
       </c>
       <c r="B58" s="9">
+        <f>IF(ROW($B29) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C58" s="9">
+        <f ca="1">IF(ROW($C29) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17785.416206412432</v>
       </c>
       <c r="E58" s="7">
@@ -2177,13 +2363,19 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
-        <f>IF(ROW($A30) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A30)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A30) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A30)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A30))),
+  WORKDAY(EDATE(fpdate, ROW($A30)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A30)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45016</v>
       </c>
       <c r="B59" s="9">
+        <f>IF(ROW($B30) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C59" s="9">
+        <f ca="1">IF(ROW($C30) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17712.125421658555</v>
       </c>
       <c r="E59" s="7">
@@ -2207,13 +2399,19 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
-        <f>IF(ROW($A31) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A31)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A31) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A31)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A31))),
+  WORKDAY(EDATE(fpdate, ROW($A31)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A31)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45044</v>
       </c>
       <c r="B60" s="9">
+        <f>IF(ROW($B31) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C60" s="9">
+        <f ca="1">IF(ROW($C31) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17646.186920080007</v>
       </c>
       <c r="E60" s="7">
@@ -2237,13 +2435,19 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
-        <f>IF(ROW($A32) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A32)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A32) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A32)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A32))),
+  WORKDAY(EDATE(fpdate, ROW($A32)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A32)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45077</v>
       </c>
       <c r="B61" s="9">
+        <f>IF(ROW($B32) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C61" s="9">
+        <f ca="1">IF(ROW($C32) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17568.78875739031</v>
       </c>
       <c r="E61" s="7">
@@ -2267,13 +2471,19 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
-        <f>IF(ROW($A33) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A33)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A33) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A33)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A33))),
+  WORKDAY(EDATE(fpdate, ROW($A33)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A33)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45107</v>
       </c>
       <c r="B62" s="9">
+        <f>IF(ROW($B33) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C62" s="9">
+        <f ca="1">IF(ROW($C33) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17498.721418038112</v>
       </c>
       <c r="E62" s="7">
@@ -2297,13 +2507,19 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
-        <f>IF(ROW($A34) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A34)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A34) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A34)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A34))),
+  WORKDAY(EDATE(fpdate, ROW($A34)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A34)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45138</v>
       </c>
       <c r="B63" s="9">
+        <f>IF(ROW($B34) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C63" s="9">
+        <f ca="1">IF(ROW($C34) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17426.612055511352</v>
       </c>
       <c r="E63" s="7">
@@ -2318,13 +2534,19 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
-        <f>IF(ROW($A35) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A35)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A35) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A35)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A35))),
+  WORKDAY(EDATE(fpdate, ROW($A35)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A35)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45169</v>
       </c>
       <c r="B64" s="9">
+        <f>IF(ROW($B35) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C64" s="9">
+        <f ca="1">IF(ROW($C35) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17354.79984384721</v>
       </c>
       <c r="E64" s="7">
@@ -2339,13 +2561,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
-        <f>IF(ROW($A36) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A36)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A36) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A36)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A36))),
+  WORKDAY(EDATE(fpdate, ROW($A36)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A36)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45198</v>
       </c>
       <c r="B65" s="9">
+        <f>IF(ROW($B36) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C65" s="9">
+        <f ca="1">IF(ROW($C36) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17287.888606054865</v>
       </c>
       <c r="E65" s="7">
@@ -2360,13 +2588,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
-        <f>IF(ROW($A37) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A37)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A37) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A37)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A37))),
+  WORKDAY(EDATE(fpdate, ROW($A37)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A37)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45230</v>
       </c>
       <c r="B66" s="9">
+        <f>IF(ROW($B37) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C66" s="9">
+        <f ca="1">IF(ROW($C37) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17214.354862827691</v>
       </c>
       <c r="E66" s="7">
@@ -2381,13 +2615,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <f>IF(ROW($A38) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A38)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A38) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A38)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A38))),
+  WORKDAY(EDATE(fpdate, ROW($A38)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A38)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45260</v>
       </c>
       <c r="B67" s="9">
+        <f>IF(ROW($B38) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C67" s="9">
+        <f ca="1">IF(ROW($C38) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17145.701066566668</v>
       </c>
       <c r="E67" s="7">
@@ -2402,13 +2642,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
-        <f>IF(ROW($A39) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A39)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A39) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A39)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A39))),
+  WORKDAY(EDATE(fpdate, ROW($A39)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A39)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45289</v>
       </c>
       <c r="B68" s="9">
+        <f>IF(ROW($B39) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C68" s="9">
+        <f ca="1">IF(ROW($C39) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17079.596006784701</v>
       </c>
       <c r="E68" s="7">
@@ -2423,13 +2669,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
-        <f>IF(ROW($A40) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A40)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A40) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A40)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A40))),
+  WORKDAY(EDATE(fpdate, ROW($A40)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A40)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45322</v>
       </c>
       <c r="B69" s="9">
+        <f>IF(ROW($B40) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C69" s="9">
+        <f ca="1">IF(ROW($C40) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>17004.682975635569</v>
       </c>
       <c r="E69" s="7">
@@ -2444,13 +2696,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
-        <f>IF(ROW($A41) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A41)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A41) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A41)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A41))),
+  WORKDAY(EDATE(fpdate, ROW($A41)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A41)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45351</v>
       </c>
       <c r="B70" s="9">
+        <f>IF(ROW($B41) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C70" s="9">
+        <f ca="1">IF(ROW($C41) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16939.121609534905</v>
       </c>
       <c r="E70" s="7">
@@ -2465,13 +2723,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
-        <f>IF(ROW($A42) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A42)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A42) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A42)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A42))),
+  WORKDAY(EDATE(fpdate, ROW($A42)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A42)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45379</v>
       </c>
       <c r="B71" s="9">
+        <f>IF(ROW($B42) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C71" s="9">
+        <f ca="1">IF(ROW($C42) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16876.060837865811</v>
       </c>
       <c r="E71" s="7">
@@ -2486,13 +2750,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
-        <f>IF(ROW($A43) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A43)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A43) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A43)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A43))),
+  WORKDAY(EDATE(fpdate, ROW($A43)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A43)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45412</v>
       </c>
       <c r="B72" s="9">
+        <f>IF(ROW($B43) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C72" s="9">
+        <f ca="1">IF(ROW($C43) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16802.040534884432</v>
       </c>
       <c r="E72" s="7">
@@ -2507,13 +2777,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
-        <f>IF(ROW($A44) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A44)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A44) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A44)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A44))),
+  WORKDAY(EDATE(fpdate, ROW($A44)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A44)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45443</v>
       </c>
       <c r="B73" s="9">
+        <f>IF(ROW($B44) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C73" s="9">
+        <f ca="1">IF(ROW($C44) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16732.802080075369</v>
       </c>
       <c r="E73" s="7">
@@ -2528,13 +2804,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
-        <f>IF(ROW($A45) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A45)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A45) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A45)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A45))),
+  WORKDAY(EDATE(fpdate, ROW($A45)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A45)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45471</v>
       </c>
       <c r="B74" s="9">
+        <f>IF(ROW($B45) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C74" s="9">
+        <f ca="1">IF(ROW($C45) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16670.509392433181</v>
       </c>
       <c r="E74" s="7">
@@ -2549,13 +2831,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
-        <f>IF(ROW($A46) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A46)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A46) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A46)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A46))),
+  WORKDAY(EDATE(fpdate, ROW($A46)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A46)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45504</v>
       </c>
       <c r="B75" s="9">
+        <f>IF(ROW($B46) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C75" s="9">
+        <f ca="1">IF(ROW($C46) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16597.390661235371</v>
       </c>
       <c r="E75" s="7">
@@ -2570,13 +2858,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
-        <f>IF(ROW($A47) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A47)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A47) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A47)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A47))),
+  WORKDAY(EDATE(fpdate, ROW($A47)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A47)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45534</v>
       </c>
       <c r="B76" s="9">
+        <f>IF(ROW($B47) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C76" s="9">
+        <f ca="1">IF(ROW($C47) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16531.197423905189</v>
       </c>
       <c r="E76" s="7">
@@ -2591,13 +2885,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
-        <f>IF(ROW($A48) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A48)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A48) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A48)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A48))),
+  WORKDAY(EDATE(fpdate, ROW($A48)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A48)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45565</v>
       </c>
       <c r="B77" s="9">
+        <f>IF(ROW($B48) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C77" s="9">
+        <f ca="1">IF(ROW($C48) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16463.075069159146</v>
       </c>
       <c r="E77" s="7">
@@ -2612,13 +2912,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
-        <f>IF(ROW($A49) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A49)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A49) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A49)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A49))),
+  WORKDAY(EDATE(fpdate, ROW($A49)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A49)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45596</v>
       </c>
       <c r="B78" s="9">
+        <f>IF(ROW($B49) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C78" s="9">
+        <f ca="1">IF(ROW($C49) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16395.233435470211</v>
       </c>
       <c r="E78" s="7">
@@ -2633,13 +2939,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
-        <f>IF(ROW($A50) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A50)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A50) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A50)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A50))),
+  WORKDAY(EDATE(fpdate, ROW($A50)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A50)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45625</v>
       </c>
       <c r="B79" s="9">
+        <f>IF(ROW($B50) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C79" s="9">
+        <f ca="1">IF(ROW($C50) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16332.021795293869</v>
       </c>
       <c r="E79" s="7">
@@ -2654,13 +2966,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
-        <f>IF(ROW($A51) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A51)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A51) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A51)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A51))),
+  WORKDAY(EDATE(fpdate, ROW($A51)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A51)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45657</v>
       </c>
       <c r="B80" s="9">
+        <f>IF(ROW($B51) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C80" s="9">
+        <f ca="1">IF(ROW($C51) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16262.553815458832</v>
       </c>
       <c r="E80" s="7">
@@ -2675,13 +2993,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
-        <f>IF(ROW($A52) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A52)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A52) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A52)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A52))),
+  WORKDAY(EDATE(fpdate, ROW($A52)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A52)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45685</v>
       </c>
       <c r="B81" s="9">
+        <f>IF(ROW($B52) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C81" s="9">
+        <f ca="1">IF(ROW($C52) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16202.011762774371</v>
       </c>
       <c r="E81" s="7">
@@ -2696,13 +3020,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
-        <f>IF(ROW($A53) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A53)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A53) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A53)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A53))),
+  WORKDAY(EDATE(fpdate, ROW($A53)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A53)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45716</v>
       </c>
       <c r="B82" s="9">
+        <f>IF(ROW($B53) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C82" s="9">
+        <f ca="1">IF(ROW($C53) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16135.245928176861</v>
       </c>
       <c r="E82" s="7">
@@ -2717,13 +3047,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
-        <f>IF(ROW($A54) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A54)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A54) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A54)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A54))),
+  WORKDAY(EDATE(fpdate, ROW($A54)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A54)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45747</v>
       </c>
       <c r="B83" s="9">
+        <f>IF(ROW($B54) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C83" s="9">
+        <f ca="1">IF(ROW($C54) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16068.755224639292</v>
       </c>
       <c r="E83" s="7">
@@ -2738,13 +3074,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
-        <f>IF(ROW($A55) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A55)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A55) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A55)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A55))),
+  WORKDAY(EDATE(fpdate, ROW($A55)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A55)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45777</v>
       </c>
       <c r="B84" s="9">
+        <f>IF(ROW($B55) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C84" s="9">
+        <f ca="1">IF(ROW($C55) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>16004.670275993152</v>
       </c>
       <c r="E84" s="7">
@@ -2759,13 +3101,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
-        <f>IF(ROW($A56) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A56)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A56) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A56)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A56))),
+  WORKDAY(EDATE(fpdate, ROW($A56)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A56)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45807</v>
       </c>
       <c r="B85" s="9">
+        <f>IF(ROW($B56) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C85" s="9">
+        <f ca="1">IF(ROW($C56) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>15940.840909100894</v>
       </c>
       <c r="E85" s="7">
@@ -2780,13 +3128,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
-        <f>IF(ROW($A57) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A57)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A57) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A57)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A57))),
+  WORKDAY(EDATE(fpdate, ROW($A57)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A57)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45838</v>
       </c>
       <c r="B86" s="9">
+        <f>IF(ROW($B57) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C86" s="9">
+        <f ca="1">IF(ROW($C57) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>15875.151316779551</v>
       </c>
       <c r="E86" s="7">
@@ -2801,13 +3155,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
-        <f>IF(ROW($A58) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A58)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A58) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A58)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A58))),
+  WORKDAY(EDATE(fpdate, ROW($A58)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A58)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45869</v>
       </c>
       <c r="B87" s="9">
+        <f>IF(ROW($B58) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C87" s="9">
+        <f ca="1">IF(ROW($C58) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>15809.732420500146</v>
       </c>
       <c r="E87" s="7">
@@ -2822,13 +3182,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
-        <f>IF(ROW($A59) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A59)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A59) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A59)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A59))),
+  WORKDAY(EDATE(fpdate, ROW($A59)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A59)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45898</v>
       </c>
       <c r="B88" s="9">
+        <f>IF(ROW($B59) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C88" s="9">
+        <f ca="1">IF(ROW($C59) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>15748.778172975568</v>
       </c>
       <c r="E88" s="7">
@@ -2843,13 +3209,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
-        <f>IF(ROW($A60) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A60)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
+        <f>IF(ROW($A60) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A60)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A60))),
+  WORKDAY(EDATE(fpdate, ROW($A60)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A60)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45930</v>
       </c>
       <c r="B89" s="9">
+        <f>IF(ROW($B60) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C89" s="9">
+        <f ca="1">IF(ROW($C60) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>15681.791010071955</v>
       </c>
       <c r="E89" s="7">
@@ -2863,15 +3235,21 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="7">
-        <f>IF(ROW($A61) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A61)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>45961</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>18</v>
+      <c r="A90" s="7" t="str">
+        <f>IF(ROW($A61) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A61)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A61))),
+  WORKDAY(EDATE(fpdate, ROW($A61)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A61)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B90" s="9" t="str">
+        <f>IF(ROW($B61) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C90" s="9" t="str">
+        <f ca="1">IF(ROW($A61) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E90" s="7">
         <v>45961</v>
@@ -2884,15 +3262,21 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
-        <f>IF(ROW($A62) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A62)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>45989</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>18</v>
+      <c r="A91" s="7" t="str">
+        <f>IF(ROW($A62) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A62)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A62))),
+  WORKDAY(EDATE(fpdate, ROW($A62)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A62)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B91" s="9" t="str">
+        <f>IF(ROW($B62) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C91" s="9" t="str">
+        <f ca="1">IF(ROW($A62) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E91" s="7">
         <v>45989</v>
@@ -2905,15 +3289,21 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="7">
-        <f>IF(ROW($A63) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A63)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46022</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>18</v>
+      <c r="A92" s="7" t="str">
+        <f>IF(ROW($A63) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A63)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A63))),
+  WORKDAY(EDATE(fpdate, ROW($A63)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A63)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B92" s="9" t="str">
+        <f>IF(ROW($B63) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C92" s="9" t="str">
+        <f ca="1">IF(ROW($A63) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E92" s="7">
         <v>46022</v>
@@ -2926,15 +3316,21 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="7">
-        <f>IF(ROW($A64) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A64)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46052</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>18</v>
+      <c r="A93" s="7" t="str">
+        <f>IF(ROW($A64) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A64)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A64))),
+  WORKDAY(EDATE(fpdate, ROW($A64)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A64)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B93" s="9" t="str">
+        <f>IF(ROW($B64) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C93" s="9" t="str">
+        <f ca="1">IF(ROW($A64) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E93" s="7">
         <v>46052</v>
@@ -2947,15 +3343,21 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="7">
-        <f>IF(ROW($A65) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A65)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46080</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>18</v>
+      <c r="A94" s="7" t="str">
+        <f>IF(ROW($A65) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A65)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A65))),
+  WORKDAY(EDATE(fpdate, ROW($A65)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A65)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B94" s="9" t="str">
+        <f>IF(ROW($B65) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C94" s="9" t="str">
+        <f ca="1">IF(ROW($A65) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E94" s="7">
         <v>46080</v>
@@ -2968,15 +3370,21 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="7">
-        <f>IF(ROW($A66) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A66)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46112</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>18</v>
+      <c r="A95" s="7" t="str">
+        <f>IF(ROW($A66) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A66)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A66))),
+  WORKDAY(EDATE(fpdate, ROW($A66)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A66)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B95" s="9" t="str">
+        <f>IF(ROW($B66) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C95" s="9" t="str">
+        <f ca="1">IF(ROW($A66) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E95" s="7">
         <v>46112</v>
@@ -2989,15 +3397,21 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="7">
-        <f>IF(ROW($A67) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A67)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46142</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>18</v>
+      <c r="A96" s="7" t="str">
+        <f>IF(ROW($A67) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A67)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A67))),
+  WORKDAY(EDATE(fpdate, ROW($A67)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A67)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B96" s="9" t="str">
+        <f>IF(ROW($B67) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C96" s="9" t="str">
+        <f ca="1">IF(ROW($A67) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E96" s="7">
         <v>46142</v>
@@ -3010,15 +3424,21 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
-        <f>IF(ROW($A68) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A68)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46171</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>18</v>
+      <c r="A97" s="7" t="str">
+        <f>IF(ROW($A68) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A68)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A68))),
+  WORKDAY(EDATE(fpdate, ROW($A68)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A68)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B97" s="9" t="str">
+        <f>IF(ROW($B68) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C97" s="9" t="str">
+        <f ca="1">IF(ROW($A68) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E97" s="7">
         <v>46171</v>
@@ -3031,15 +3451,21 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="7">
-        <f>IF(ROW($A69) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A69)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46203</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>18</v>
+      <c r="A98" s="7" t="str">
+        <f>IF(ROW($A69) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A69)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A69))),
+  WORKDAY(EDATE(fpdate, ROW($A69)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A69)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B98" s="9" t="str">
+        <f>IF(ROW($B69) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C98" s="9" t="str">
+        <f ca="1">IF(ROW($A69) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E98" s="7">
         <v>46203</v>
@@ -3052,15 +3478,21 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
-        <f>IF(ROW($A70) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A70)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46234</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>18</v>
+      <c r="A99" s="7" t="str">
+        <f>IF(ROW($A70) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A70)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A70))),
+  WORKDAY(EDATE(fpdate, ROW($A70)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A70)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B99" s="9" t="str">
+        <f>IF(ROW($B70) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C99" s="9" t="str">
+        <f ca="1">IF(ROW($A70) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E99" s="7">
         <v>46234</v>
@@ -3073,15 +3505,21 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="7">
-        <f>IF(ROW($A71) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A71)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46265</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>18</v>
+      <c r="A100" s="7" t="str">
+        <f>IF(ROW($A71) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A71)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A71))),
+  WORKDAY(EDATE(fpdate, ROW($A71)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A71)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B100" s="9" t="str">
+        <f>IF(ROW($B71) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C100" s="9" t="str">
+        <f ca="1">IF(ROW($A71) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E100" s="7">
         <v>46265</v>
@@ -3094,15 +3532,21 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
-        <f>IF(ROW($A72) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A72)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46295</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>18</v>
+      <c r="A101" s="7" t="str">
+        <f>IF(ROW($A72) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A72)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A72))),
+  WORKDAY(EDATE(fpdate, ROW($A72)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A72)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B101" s="9" t="str">
+        <f>IF(ROW($B72) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C101" s="9" t="str">
+        <f ca="1">IF(ROW($A72) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E101" s="7">
         <v>46295</v>
@@ -3115,15 +3559,21 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="7">
-        <f>IF(ROW($A73) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A73)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46325</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>18</v>
+      <c r="A102" s="7" t="str">
+        <f>IF(ROW($A73) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A73)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A73))),
+  WORKDAY(EDATE(fpdate, ROW($A73)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A73)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B102" s="9" t="str">
+        <f>IF(ROW($B73) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C102" s="9" t="str">
+        <f ca="1">IF(ROW($A73) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E102" s="7">
         <v>46325</v>
@@ -3136,15 +3586,21 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="7">
-        <f>IF(ROW($A74) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A74)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46356</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>18</v>
+      <c r="A103" s="7" t="str">
+        <f>IF(ROW($A74) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A74)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A74))),
+  WORKDAY(EDATE(fpdate, ROW($A74)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A74)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B103" s="9" t="str">
+        <f>IF(ROW($B74) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C103" s="9" t="str">
+        <f ca="1">IF(ROW($A74) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E103" s="7">
         <v>46356</v>
@@ -3157,15 +3613,21 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="7">
-        <f>IF(ROW($A75) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A75)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46387</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>18</v>
+      <c r="A104" s="7" t="str">
+        <f>IF(ROW($A75) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A75)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A75))),
+  WORKDAY(EDATE(fpdate, ROW($A75)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A75)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B104" s="9" t="str">
+        <f>IF(ROW($B75) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C104" s="9" t="str">
+        <f ca="1">IF(ROW($A75) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E104" s="7">
         <v>46387</v>
@@ -3178,15 +3640,21 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="7">
-        <f>IF(ROW($A76) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A76)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46416</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>18</v>
+      <c r="A105" s="7" t="str">
+        <f>IF(ROW($A76) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A76)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A76))),
+  WORKDAY(EDATE(fpdate, ROW($A76)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A76)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B105" s="9" t="str">
+        <f>IF(ROW($B76) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C105" s="9" t="str">
+        <f ca="1">IF(ROW($A76) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E105" s="7">
         <v>46416</v>
@@ -3199,15 +3667,21 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="7">
-        <f>IF(ROW($A77) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A77)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46444</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>18</v>
+      <c r="A106" s="7" t="str">
+        <f>IF(ROW($A77) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A77)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A77))),
+  WORKDAY(EDATE(fpdate, ROW($A77)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A77)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B106" s="9" t="str">
+        <f>IF(ROW($B77) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C106" s="9" t="str">
+        <f ca="1">IF(ROW($A77) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E106" s="7">
         <v>46444</v>
@@ -3220,15 +3694,21 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="7">
-        <f>IF(ROW($A78) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A78)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46477</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>18</v>
+      <c r="A107" s="7" t="str">
+        <f>IF(ROW($A78) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A78)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A78))),
+  WORKDAY(EDATE(fpdate, ROW($A78)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A78)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B107" s="9" t="str">
+        <f>IF(ROW($B78) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C107" s="9" t="str">
+        <f ca="1">IF(ROW($A78) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E107" s="7">
         <v>46477</v>
@@ -3241,15 +3721,21 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="7">
-        <f>IF(ROW($A79) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A79)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46507</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>18</v>
+      <c r="A108" s="7" t="str">
+        <f>IF(ROW($A79) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A79)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A79))),
+  WORKDAY(EDATE(fpdate, ROW($A79)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A79)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B108" s="9" t="str">
+        <f>IF(ROW($B79) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C108" s="9" t="str">
+        <f ca="1">IF(ROW($A79) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E108" s="7">
         <v>46507</v>
@@ -3262,15 +3748,21 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="7">
-        <f>IF(ROW($A80) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A80)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46538</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>18</v>
+      <c r="A109" s="7" t="str">
+        <f>IF(ROW($A80) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A80)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A80))),
+  WORKDAY(EDATE(fpdate, ROW($A80)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A80)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B109" s="9" t="str">
+        <f>IF(ROW($B80) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C109" s="9" t="str">
+        <f ca="1">IF(ROW($A80) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E109" s="7">
         <v>46538</v>
@@ -3283,15 +3775,21 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="7">
-        <f>IF(ROW($A81) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A81)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46568</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>18</v>
+      <c r="A110" s="7" t="str">
+        <f>IF(ROW($A81) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A81)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A81))),
+  WORKDAY(EDATE(fpdate, ROW($A81)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A81)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B110" s="9" t="str">
+        <f>IF(ROW($B81) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C110" s="9" t="str">
+        <f ca="1">IF(ROW($A81) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E110" s="7">
         <v>46568</v>
@@ -3304,15 +3802,21 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="7">
-        <f>IF(ROW($A82) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A82)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46598</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>18</v>
+      <c r="A111" s="7" t="str">
+        <f>IF(ROW($A82) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A82)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A82))),
+  WORKDAY(EDATE(fpdate, ROW($A82)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A82)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B111" s="9" t="str">
+        <f>IF(ROW($B82) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C111" s="9" t="str">
+        <f ca="1">IF(ROW($A82) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E111" s="7">
         <v>46598</v>
@@ -3325,15 +3829,21 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="7">
-        <f>IF(ROW($A83) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A83)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46630</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>18</v>
+      <c r="A112" s="7" t="str">
+        <f>IF(ROW($A83) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A83)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A83))),
+  WORKDAY(EDATE(fpdate, ROW($A83)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A83)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B112" s="9" t="str">
+        <f>IF(ROW($B83) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C112" s="9" t="str">
+        <f ca="1">IF(ROW($A83) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E112" s="7">
         <v>46630</v>
@@ -3346,15 +3856,21 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="7">
-        <f>IF(ROW($A84) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A84)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v>46660</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>18</v>
+      <c r="A113" s="7" t="str">
+        <f>IF(ROW($A84) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A84)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A84))),
+  WORKDAY(EDATE(fpdate, ROW($A84)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A84)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B113" s="9" t="str">
+        <f>IF(ROW($B84) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C113" s="9" t="str">
+        <f ca="1">IF(ROW($A84) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E113" s="7">
         <v>46660</v>
@@ -3368,14 +3884,20 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="str">
-        <f>IF(ROW($A85) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A85)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A85) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A85)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A85))),
+  WORKDAY(EDATE(fpdate, ROW($A85)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A85)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B114" s="9" t="str">
+        <f>IF(ROW($B85) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C114" s="9" t="str">
+        <f ca="1">IF(ROW($C85) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E114" s="7" t="s">
         <v>18</v>
@@ -3389,14 +3911,20 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="str">
-        <f>IF(ROW($A86) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A86)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A86) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A86)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A86))),
+  WORKDAY(EDATE(fpdate, ROW($A86)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A86)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B115" s="9" t="str">
+        <f>IF(ROW($B86) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C115" s="9" t="str">
+        <f ca="1">IF(ROW($C86) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E115" s="7" t="s">
         <v>18</v>
@@ -3410,14 +3938,20 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="str">
-        <f>IF(ROW($A87) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A87)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A87) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A87)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A87))),
+  WORKDAY(EDATE(fpdate, ROW($A87)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A87)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B116" s="9" t="str">
+        <f>IF(ROW($B87) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C116" s="9" t="str">
+        <f ca="1">IF(ROW($C87) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E116" s="7" t="s">
         <v>18</v>
@@ -3431,14 +3965,20 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="str">
-        <f>IF(ROW($A88) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A88)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A88) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A88)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A88))),
+  WORKDAY(EDATE(fpdate, ROW($A88)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A88)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B117" s="9" t="str">
+        <f>IF(ROW($B88) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C117" s="9" t="str">
+        <f ca="1">IF(ROW($C88) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E117" s="7" t="s">
         <v>18</v>
@@ -3452,14 +3992,20 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="str">
-        <f>IF(ROW($A89) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A89)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A89) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A89)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A89))),
+  WORKDAY(EDATE(fpdate, ROW($A89)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A89)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B118" s="9" t="str">
+        <f>IF(ROW($B89) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C118" s="9" t="str">
+        <f ca="1">IF(ROW($C89) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E118" s="7" t="s">
         <v>18</v>
@@ -3473,14 +4019,20 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="str">
-        <f>IF(ROW($A90) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A90)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A90) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A90)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A90))),
+  WORKDAY(EDATE(fpdate, ROW($A90)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A90)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B119" s="9" t="str">
+        <f>IF(ROW($B90) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C119" s="9" t="str">
+        <f ca="1">IF(ROW($C90) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E119" s="7" t="s">
         <v>18</v>
@@ -3494,14 +4046,20 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="str">
-        <f>IF(ROW($A91) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A91)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A91) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A91)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A91))),
+  WORKDAY(EDATE(fpdate, ROW($A91)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A91)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B120" s="9" t="str">
+        <f>IF(ROW($B91) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C120" s="9" t="str">
+        <f ca="1">IF(ROW($C91) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E120" s="7" t="s">
         <v>18</v>
@@ -3515,14 +4073,20 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="str">
-        <f>IF(ROW($A92) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A92)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A92) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A92)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A92))),
+  WORKDAY(EDATE(fpdate, ROW($A92)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A92)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B121" s="9" t="str">
+        <f>IF(ROW($B92) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C121" s="9" t="str">
+        <f ca="1">IF(ROW($C92) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E121" s="7" t="s">
         <v>18</v>
@@ -3536,14 +4100,20 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="str">
-        <f>IF(ROW($A93) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A93)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A93) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A93)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A93))),
+  WORKDAY(EDATE(fpdate, ROW($A93)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A93)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B122" s="9" t="str">
+        <f>IF(ROW($B93) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C122" s="9" t="str">
+        <f ca="1">IF(ROW($C93) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E122" s="7" t="s">
         <v>18</v>
@@ -3557,14 +4127,20 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="str">
-        <f>IF(ROW($A94) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A94)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A94) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A94)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A94))),
+  WORKDAY(EDATE(fpdate, ROW($A94)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A94)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B123" s="9" t="str">
+        <f>IF(ROW($B94) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C123" s="9" t="str">
+        <f ca="1">IF(ROW($C94) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E123" s="7" t="s">
         <v>18</v>
@@ -3578,14 +4154,20 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="str">
-        <f>IF(ROW($A95) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A95)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A95) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A95)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A95))),
+  WORKDAY(EDATE(fpdate, ROW($A95)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A95)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B124" s="9" t="str">
+        <f>IF(ROW($B95) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C124" s="9" t="str">
+        <f ca="1">IF(ROW($C95) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E124" s="7" t="s">
         <v>18</v>
@@ -3599,14 +4181,20 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="str">
-        <f>IF(ROW($A96) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A96)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A96) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A96)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A96))),
+  WORKDAY(EDATE(fpdate, ROW($A96)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A96)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B125" s="9" t="str">
+        <f>IF(ROW($B96) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C125" s="9" t="str">
+        <f ca="1">IF(ROW($C96) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E125" s="7" t="s">
         <v>18</v>
@@ -3620,14 +4208,20 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="str">
-        <f>IF(ROW($A97) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A97)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A97) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A97)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A97))),
+  WORKDAY(EDATE(fpdate, ROW($A97)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A97)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B126" s="9" t="str">
+        <f>IF(ROW($B97) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C126" s="9" t="str">
+        <f ca="1">IF(ROW($C97) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E126" s="7" t="s">
         <v>18</v>
@@ -3641,14 +4235,20 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="str">
-        <f>IF(ROW($A98) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A98)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A98) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A98)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A98))),
+  WORKDAY(EDATE(fpdate, ROW($A98)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A98)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B127" s="9" t="str">
+        <f>IF(ROW($B98) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C127" s="9" t="str">
+        <f ca="1">IF(ROW($C98) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E127" s="7" t="s">
         <v>18</v>
@@ -3662,14 +4262,20 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="str">
-        <f>IF(ROW($A99) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A99)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A99) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A99)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A99))),
+  WORKDAY(EDATE(fpdate, ROW($A99)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A99)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B128" s="9" t="str">
+        <f>IF(ROW($B99) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C128" s="9" t="str">
+        <f ca="1">IF(ROW($C99) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E128" s="7" t="s">
         <v>18</v>
@@ -3683,14 +4289,20 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="str">
-        <f>IF(ROW($A100) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A100)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A100) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A100)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A100))),
+  WORKDAY(EDATE(fpdate, ROW($A100)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A100)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B129" s="9" t="str">
+        <f>IF(ROW($B100) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C129" s="9" t="str">
+        <f ca="1">IF(ROW($C100) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E129" s="7" t="s">
         <v>18</v>
@@ -3704,14 +4316,20 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="str">
-        <f>IF(ROW($A101) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A101)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A101) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A101)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A101))),
+  WORKDAY(EDATE(fpdate, ROW($A101)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A101)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B130" s="9" t="str">
+        <f>IF(ROW($B101) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C130" s="9" t="str">
+        <f ca="1">IF(ROW($C101) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E130" s="7" t="s">
         <v>18</v>
@@ -3725,14 +4343,20 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="str">
-        <f>IF(ROW($A102) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A102)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A102) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A102)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A102))),
+  WORKDAY(EDATE(fpdate, ROW($A102)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A102)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B131" s="9" t="str">
+        <f>IF(ROW($B102) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C131" s="9" t="str">
+        <f ca="1">IF(ROW($C102) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E131" s="7" t="s">
         <v>18</v>
@@ -3746,14 +4370,20 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="str">
-        <f>IF(ROW($A103) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A103)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A103) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A103)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A103))),
+  WORKDAY(EDATE(fpdate, ROW($A103)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A103)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B132" s="9" t="str">
+        <f>IF(ROW($B103) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C132" s="9" t="str">
+        <f ca="1">IF(ROW($C103) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E132" s="7" t="s">
         <v>18</v>
@@ -3767,14 +4397,20 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="str">
-        <f>IF(ROW($A104) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A104)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A104) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A104)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A104))),
+  WORKDAY(EDATE(fpdate, ROW($A104)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A104)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B133" s="9" t="str">
+        <f>IF(ROW($B104) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C133" s="9" t="str">
+        <f ca="1">IF(ROW($C104) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E133" s="7" t="s">
         <v>18</v>
@@ -3788,14 +4424,20 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="str">
-        <f>IF(ROW($A105) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A105)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A105) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A105)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A105))),
+  WORKDAY(EDATE(fpdate, ROW($A105)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A105)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B134" s="9" t="str">
+        <f>IF(ROW($B105) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C134" s="9" t="str">
+        <f ca="1">IF(ROW($C105) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E134" s="7" t="s">
         <v>18</v>
@@ -3809,14 +4451,20 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="str">
-        <f>IF(ROW($A106) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A106)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A106) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A106)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A106))),
+  WORKDAY(EDATE(fpdate, ROW($A106)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A106)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B135" s="9" t="str">
+        <f>IF(ROW($B106) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C135" s="9" t="str">
+        <f ca="1">IF(ROW($C106) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E135" s="7" t="s">
         <v>18</v>
@@ -3830,14 +4478,20 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="str">
-        <f>IF(ROW($A107) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A107)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A107) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A107)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A107))),
+  WORKDAY(EDATE(fpdate, ROW($A107)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A107)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B136" s="9" t="str">
+        <f>IF(ROW($B107) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C136" s="9" t="str">
+        <f ca="1">IF(ROW($C107) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E136" s="7" t="s">
         <v>18</v>
@@ -3851,14 +4505,20 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="str">
-        <f>IF(ROW($A108) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A108)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A108) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A108)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A108))),
+  WORKDAY(EDATE(fpdate, ROW($A108)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A108)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B137" s="9" t="str">
+        <f>IF(ROW($B108) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C137" s="9" t="str">
+        <f ca="1">IF(ROW($C108) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E137" s="7" t="s">
         <v>18</v>
@@ -3872,14 +4532,20 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="str">
-        <f>IF(ROW($A109) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A109)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A109) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A109)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A109))),
+  WORKDAY(EDATE(fpdate, ROW($A109)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A109)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B138" s="9" t="str">
+        <f>IF(ROW($B109) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C138" s="9" t="str">
+        <f ca="1">IF(ROW($C109) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E138" s="7" t="s">
         <v>18</v>
@@ -3893,14 +4559,20 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="str">
-        <f>IF(ROW($A110) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A110)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A110) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A110)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A110))),
+  WORKDAY(EDATE(fpdate, ROW($A110)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A110)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B139" s="9" t="str">
+        <f>IF(ROW($B110) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C139" s="9" t="str">
+        <f ca="1">IF(ROW($C110) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E139" s="7" t="s">
         <v>18</v>
@@ -3914,14 +4586,20 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="str">
-        <f>IF(ROW($A111) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A111)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A111) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A111)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A111))),
+  WORKDAY(EDATE(fpdate, ROW($A111)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A111)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B140" s="9" t="str">
+        <f>IF(ROW($B111) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C140" s="9" t="str">
+        <f ca="1">IF(ROW($C111) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E140" s="7" t="s">
         <v>18</v>
@@ -3935,14 +4613,20 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="str">
-        <f>IF(ROW($A112) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A112)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A112) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A112)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A112))),
+  WORKDAY(EDATE(fpdate, ROW($A112)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A112)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B141" s="9" t="str">
+        <f>IF(ROW($B112) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C141" s="9" t="str">
+        <f ca="1">IF(ROW($C112) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E141" s="7" t="s">
         <v>18</v>
@@ -3956,14 +4640,20 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="str">
-        <f>IF(ROW($A113) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A113)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A113) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A113)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A113))),
+  WORKDAY(EDATE(fpdate, ROW($A113)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A113)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B142" s="9" t="str">
+        <f>IF(ROW($B113) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C142" s="9" t="str">
+        <f ca="1">IF(ROW($C113) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E142" s="7" t="s">
         <v>18</v>
@@ -3977,14 +4667,20 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="str">
-        <f>IF(ROW($A114) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A114)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A114) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A114)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A114))),
+  WORKDAY(EDATE(fpdate, ROW($A114)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A114)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B143" s="9" t="str">
+        <f>IF(ROW($B114) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C143" s="9" t="str">
+        <f ca="1">IF(ROW($C114) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E143" s="7" t="s">
         <v>18</v>
@@ -3998,14 +4694,20 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="str">
-        <f>IF(ROW($A115) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A115)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A115) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A115)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A115))),
+  WORKDAY(EDATE(fpdate, ROW($A115)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A115)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B144" s="9" t="str">
+        <f>IF(ROW($B115) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C144" s="9" t="str">
+        <f ca="1">IF(ROW($C115) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E144" s="7" t="s">
         <v>18</v>
@@ -4019,14 +4721,20 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="str">
-        <f>IF(ROW($A116) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A116)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A116) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A116)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A116))),
+  WORKDAY(EDATE(fpdate, ROW($A116)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A116)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B145" s="9" t="str">
+        <f>IF(ROW($B116) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C145" s="9" t="str">
+        <f ca="1">IF(ROW($C116) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E145" s="7" t="s">
         <v>18</v>
@@ -4040,14 +4748,20 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="str">
-        <f>IF(ROW($A117) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A117)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A117) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A117)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A117))),
+  WORKDAY(EDATE(fpdate, ROW($A117)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A117)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B146" s="9" t="str">
+        <f>IF(ROW($B117) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C146" s="9" t="str">
+        <f ca="1">IF(ROW($C117) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E146" s="7" t="s">
         <v>18</v>
@@ -4061,14 +4775,20 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="str">
-        <f>IF(ROW($A118) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A118)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A118) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A118)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A118))),
+  WORKDAY(EDATE(fpdate, ROW($A118)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A118)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B147" s="9" t="str">
+        <f>IF(ROW($B118) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C147" s="9" t="str">
+        <f ca="1">IF(ROW($C118) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E147" s="7" t="s">
         <v>18</v>
@@ -4082,14 +4802,20 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="str">
-        <f>IF(ROW($A119) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A119)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A119) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A119)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A119))),
+  WORKDAY(EDATE(fpdate, ROW($A119)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A119)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B148" s="9" t="str">
+        <f>IF(ROW($B119) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C148" s="9" t="str">
+        <f ca="1">IF(ROW($C119) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E148" s="7" t="s">
         <v>18</v>
@@ -4103,14 +4829,20 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="str">
-        <f>IF(ROW($A120) &lt;= MonthsCounter,  WORKDAY(EOMONTH(EDATE(fpdate, ROW($A120)), 0) +1, -1, Holiday!$A$1:$A$197), "")</f>
-        <v/>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>18</v>
+        <f>IF(ROW($A120) &lt;= MonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A120)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A120))),
+  WORKDAY(EDATE(fpdate, ROW($A120)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A120)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
+      </c>
+      <c r="B149" s="9" t="str">
+        <f>IF(ROW($B120) &lt;= MonthsCounter, Monthly1, "")</f>
+        <v/>
+      </c>
+      <c r="C149" s="9" t="str">
+        <f ca="1">IF(ROW($C120) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
       <c r="E149" s="7" t="s">
         <v>18</v>
@@ -4544,7 +5276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B772"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>

--- a/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
+++ b/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027226A8-64A9-AD4F-B056-597AE2D1122B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6065D7B4-324D-244B-941D-4F832F6D06CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29940" yWindow="-1740" windowWidth="33540" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
+++ b/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6065D7B4-324D-244B-941D-4F832F6D06CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C3BEE7-7764-E648-B559-2D1FD7FE73DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29940" yWindow="-1740" windowWidth="33540" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,6 +52,16 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -904,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1210,7 +1220,7 @@
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="18">
-        <v>4.9821098788103674E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -1220,7 +1230,7 @@
       </c>
       <c r="D24" s="9">
         <f ca="1">B26-F26</f>
-        <v>1.6926787793636322E-7</v>
+        <v>-441.86778471735306</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
@@ -1239,7 +1249,7 @@
       </c>
       <c r="B26" s="9">
         <f ca="1">SUM(C30:C149) - F16</f>
-        <v>63151.115962365642</v>
+        <v>62709.248177479021</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>15</v>
@@ -1251,9 +1261,11 @@
         <v>13</v>
       </c>
       <c r="J26" s="10">
-        <v>63151.115962365642</v>
+        <f ca="1">B26</f>
+        <v>62709.248177479021</v>
       </c>
       <c r="K26" s="10">
+        <f>F26</f>
         <v>63151.115962196374</v>
       </c>
     </row>
@@ -1262,10 +1274,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="9">
+        <f t="dataTable" ref="J27:K62" dt2D="0" dtr="0" r1="D23" ca="1"/>
         <v>200000</v>
       </c>
       <c r="K27" s="9">
-        <v>415000</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1278,7 +1291,7 @@
         <v>193927.86938671139</v>
       </c>
       <c r="K28" s="9">
-        <v>398217.30830456223</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1309,7 +1322,7 @@
         <v>187908.33866143064</v>
       </c>
       <c r="K29" s="9">
-        <v>381687.09724572627</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1322,12 +1335,12 @@
         <v>44134</v>
       </c>
       <c r="B30" s="9">
-        <f>IF(ROW($B1) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" ref="B30:B61" si="0">IF(ROW($B1) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C30" s="9">
-        <f ca="1">IF(ROW($C1) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>19920.236573710612</v>
+        <f t="shared" ref="C30:C61" ca="1" si="1">IF(ROW($C1) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v>19919.957588728907</v>
       </c>
       <c r="D30">
         <f>MonthsCounter</f>
@@ -1349,7 +1362,7 @@
         <v>181940.81520699663</v>
       </c>
       <c r="K30" s="9">
-        <v>365404.9947186464</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1362,12 +1375,12 @@
         <v>44165</v>
       </c>
       <c r="B31" s="9">
-        <f>IF(ROW($B2) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C31" s="9">
-        <f ca="1">IF(ROW($C2) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>19838.148544168536</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19837.58361641804</v>
       </c>
       <c r="E31" s="7">
         <v>44165</v>
@@ -1385,7 +1398,7 @@
         <v>176024.71446540649</v>
       </c>
       <c r="K31" s="9">
-        <v>349366.71344400477</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1398,12 +1411,12 @@
         <v>44196</v>
       </c>
       <c r="B32" s="9">
-        <f>IF(ROW($B3) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C32" s="9">
-        <f ca="1">IF(ROW($C3) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>19756.398785940117</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19755.550280942571</v>
       </c>
       <c r="E32" s="7">
         <v>44196</v>
@@ -1421,7 +1434,7 @@
         <v>170159.45981047861</v>
       </c>
       <c r="K32" s="9">
-        <v>333568.0491516809</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1434,12 +1447,12 @@
         <v>44225</v>
       </c>
       <c r="B33" s="9">
-        <f>IF(ROW($B4) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C33" s="9">
-        <f ca="1">IF(ROW($C4) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>19680.228210135112</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19679.116551734962</v>
       </c>
       <c r="E33" s="7">
         <v>44225</v>
@@ -1457,7 +1470,7 @@
         <v>164344.48242281238</v>
       </c>
       <c r="K33" s="9">
-        <v>318004.87880690349</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1470,12 +1483,12 @@
         <v>44253</v>
       </c>
       <c r="B34" s="9">
-        <f>IF(ROW($B5) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C34" s="9">
-        <f ca="1">IF(ROW($C5) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>19606.962877601196</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19605.599080980035</v>
       </c>
       <c r="E34" s="7">
         <v>44253</v>
@@ -1493,7 +1506,7 @@
         <v>158579.22116697649</v>
       </c>
       <c r="K34" s="9">
-        <v>302673.15887779277</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1506,12 +1519,12 @@
         <v>44286</v>
       </c>
       <c r="B35" s="9">
-        <f>IF(ROW($B6) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C35" s="9">
-        <f ca="1">IF(ROW($C6) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>19520.964530789821</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19519.306004613929</v>
       </c>
       <c r="E35" s="7">
         <v>44286</v>
@@ -1529,7 +1542,7 @@
         <v>152863.12247089134</v>
       </c>
       <c r="K35" s="9">
-        <v>287568.92364326259</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1542,12 +1555,12 @@
         <v>44316</v>
       </c>
       <c r="B36" s="9">
-        <f>IF(ROW($B7) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C36" s="9">
-        <f ca="1">IF(ROW($C7) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>19443.111580017347</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19441.187388666553</v>
       </c>
       <c r="E36" s="7">
         <v>44316</v>
@@ -1565,7 +1578,7 @@
         <v>147195.64020735538</v>
       </c>
       <c r="K36" s="9">
-        <v>272688.28354025143</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1578,12 +1591,12 @@
         <v>44347</v>
       </c>
       <c r="B37" s="9">
-        <f>IF(ROW($B8) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C37" s="9">
-        <f ca="1">IF(ROW($C8) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>19362.989704362684</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19360.793250048981</v>
       </c>
       <c r="E37" s="7">
         <v>44347</v>
@@ -1601,7 +1614,7 @@
         <v>141576.23557768366</v>
       </c>
       <c r="K37" s="9">
-        <v>258027.42354929773</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1614,12 +1627,12 @@
         <v>44377</v>
       </c>
       <c r="B38" s="9">
-        <f>IF(ROW($B9) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C38" s="9">
-        <f ca="1">IF(ROW($C9) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>19285.766784261377</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19283.309021256231</v>
       </c>
       <c r="E38" s="7">
         <v>44377</v>
@@ -1637,7 +1650,7 @@
         <v>136004.3769974045</v>
       </c>
       <c r="K38" s="9">
-        <v>243582.60161749762</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1650,12 +1663,12 @@
         <v>44407</v>
       </c>
       <c r="B39" s="9">
-        <f>IF(ROW($B10) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C39" s="9">
-        <f ca="1">IF(ROW($C10) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>19208.851842394837</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19206.134893688883</v>
       </c>
       <c r="E39" s="7">
         <v>44407</v>
@@ -1673,7 +1686,7 @@
         <v>130479.53998397873</v>
       </c>
       <c r="K39" s="9">
-        <v>229350.1471178988</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1686,12 +1699,12 @@
         <v>44439</v>
       </c>
       <c r="B40" s="9">
-        <f>IF(ROW($B11) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C40" s="9">
-        <f ca="1">IF(ROW($C11) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>19127.147314372094</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19124.156226513809</v>
       </c>
       <c r="E40" s="7">
         <v>44439</v>
@@ -1709,7 +1722,7 @@
         <v>125001.20704650669</v>
       </c>
       <c r="K40" s="9">
-        <v>215326.45934443153</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1722,12 +1735,12 @@
         <v>44469</v>
       </c>
       <c r="B41" s="9">
-        <f>IF(ROW($B12) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C41" s="9">
-        <f ca="1">IF(ROW($C12) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>19050.864974125281</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19047.619047619046</v>
       </c>
       <c r="E41" s="7">
         <v>44469</v>
@@ -1745,7 +1758,7 @@
         <v>119568.86757737421</v>
       </c>
       <c r="K41" s="9">
-        <v>201508.00604147511</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -1758,12 +1771,12 @@
         <v>44498</v>
       </c>
       <c r="B42" s="9">
-        <f>IF(ROW($B13) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C42" s="9">
-        <f ca="1">IF(ROW($C13) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>18977.414576085372</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18973.924286621183</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="7">
@@ -1782,7 +1795,7 @@
         <v>114182.01774580544</v>
       </c>
       <c r="K42" s="9">
-        <v>187891.32196720643</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1795,12 +1808,12 @@
         <v>44530</v>
       </c>
       <c r="B43" s="9">
-        <f>IF(ROW($B14) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C43" s="9">
-        <f ca="1">IF(ROW($C14) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>18896.694462579737</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18892.936777540988</v>
       </c>
       <c r="E43" s="7">
         <v>44530</v>
@@ -1818,7 +1831,7 @@
         <v>108840.160393283</v>
       </c>
       <c r="K43" s="9">
-        <v>174473.00748988288</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -1831,12 +1844,12 @@
         <v>44561</v>
       </c>
       <c r="B44" s="9">
-        <f>IF(ROW($B15) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C44" s="9">
-        <f ca="1">IF(ROW($C15) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>18818.824282295889</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18814.809791373875</v>
       </c>
       <c r="E44" s="7">
         <v>44561</v>
@@ -1854,7 +1867,7 @@
         <v>103542.80493080406</v>
       </c>
       <c r="K44" s="9">
-        <v>161249.72721624677</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -1867,12 +1880,12 @@
         <v>44592</v>
       </c>
       <c r="B45" s="9">
-        <f>IF(ROW($B16) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C45" s="9">
-        <f ca="1">IF(ROW($C16) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>18741.2749922603</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18737.005879699595</v>
       </c>
       <c r="E45" s="7">
         <v>44592</v>
@@ -1890,7 +1903,7 @@
         <v>98289.467237923294</v>
       </c>
       <c r="K45" s="9">
-        <v>148218.20865125232</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -1903,12 +1916,12 @@
         <v>44620</v>
       </c>
       <c r="B46" s="9">
-        <f>IF(ROW($B17) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C46" s="9">
-        <f ca="1">IF(ROW($C17) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>18671.505184219641</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18667.007956867314</v>
       </c>
       <c r="E46" s="7">
         <v>44620</v>
@@ -1926,7 +1939,7 @@
         <v>93079.669563569129</v>
       </c>
       <c r="K46" s="9">
-        <v>135375.240888339</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -1939,12 +1952,12 @@
         <v>44651</v>
       </c>
       <c r="B47" s="9">
-        <f>IF(ROW($B18) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C47" s="9">
-        <f ca="1">IF(ROW($C18) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>18594.562972038286</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18589.815242489458</v>
       </c>
       <c r="E47" s="7">
         <v>44651</v>
@@ -1962,7 +1975,7 @@
         <v>87912.940428571543</v>
       </c>
       <c r="K47" s="9">
-        <v>122717.67332949885</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -1975,12 +1988,12 @@
         <v>44680</v>
       </c>
       <c r="B48" s="9">
-        <f>IF(ROW($B19) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C48" s="9">
-        <f ca="1">IF(ROW($C19) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>18522.871841292814</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18517.891712946752</v>
       </c>
       <c r="E48" s="7">
         <v>44680</v>
@@ -1998,7 +2011,7 @@
         <v>82788.814529896015</v>
       </c>
       <c r="K48" s="9">
-        <v>110242.41443440551</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -2011,12 +2024,12 @@
         <v>44712</v>
       </c>
       <c r="B49" s="9">
-        <f>IF(ROW($B20) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C49" s="9">
-        <f ca="1">IF(ROW($C20) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>18444.085117659575</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18438.850714332362</v>
       </c>
       <c r="E49" s="7">
         <v>44712</v>
@@ -2034,7 +2047,7 @@
         <v>77706.832646529423</v>
       </c>
       <c r="K49" s="9">
-        <v>97946.430497882422</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2047,12 +2060,12 @@
         <v>44742</v>
       </c>
       <c r="B50" s="9">
-        <f>IF(ROW($B21) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C50" s="9">
-        <f ca="1">IF(ROW($C21) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>18370.526946471691</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18365.05621072022</v>
       </c>
       <c r="E50" s="7">
         <v>44742</v>
@@ -2070,7 +2083,7 @@
         <v>72666.541546997614</v>
       </c>
       <c r="K50" s="9">
-        <v>85826.744455023902</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2083,12 +2096,12 @@
         <v>44771</v>
       </c>
       <c r="B51" s="9">
-        <f>IF(ROW($B22) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C51" s="9">
-        <f ca="1">IF(ROW($C22) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>18299.699584131246</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18294.002268241748</v>
       </c>
       <c r="E51" s="7">
         <v>44771</v>
@@ -2106,7 +2119,7 @@
         <v>67667.493898478104</v>
       </c>
       <c r="K51" s="9">
-        <v>73880.434713285184</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -2119,12 +2132,12 @@
         <v>44804</v>
       </c>
       <c r="B52" s="9">
-        <f>IF(ROW($B23) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C52" s="9">
-        <f ca="1">IF(ROW($C23) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>18219.43504131529</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18213.482120489338</v>
       </c>
       <c r="E52" s="7">
         <v>44804</v>
@@ -2142,7 +2155,7 @@
         <v>62709.248177479021</v>
       </c>
       <c r="K52" s="9">
-        <v>62104.63401088235</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -2155,12 +2168,12 @@
         <v>44834</v>
       </c>
       <c r="B53" s="9">
-        <f>IF(ROW($B24) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C53" s="9">
-        <f ca="1">IF(ROW($C24) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>18146.772813117674</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18140.589569160999</v>
       </c>
       <c r="E53" s="7">
         <v>44834</v>
@@ -2178,7 +2191,7 @@
         <v>57791.368582051946</v>
       </c>
       <c r="K53" s="9">
-        <v>50496.528300863458</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -2191,12 +2204,12 @@
         <v>44865</v>
       </c>
       <c r="B54" s="9">
-        <f>IF(ROW($B25) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C54" s="9">
-        <f ca="1">IF(ROW($C25) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>18071.992937022103</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18065.573725567112</v>
       </c>
       <c r="E54" s="7">
         <v>44865</v>
@@ -2214,7 +2227,7 @@
         <v>52913.424945514882</v>
       </c>
       <c r="K54" s="9">
-        <v>39053.355660220608</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -2227,12 +2240,12 @@
         <v>44895</v>
       </c>
       <c r="B55" s="9">
-        <f>IF(ROW($B26) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C55" s="9">
-        <f ca="1">IF(ROW($C26) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17999.918733195376</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17993.27312146761</v>
       </c>
       <c r="E55" s="7">
         <v>44895</v>
@@ -2250,7 +2263,7 @@
         <v>48074.992651649867</v>
       </c>
       <c r="K55" s="9">
-        <v>27772.405223438749</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -2263,12 +2276,12 @@
         <v>44925</v>
       </c>
       <c r="B56" s="9">
-        <f>IF(ROW($B27) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C56" s="9">
-        <f ca="1">IF(ROW($C27) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17928.131973640866</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17921.261873102532</v>
       </c>
       <c r="E56" s="7">
         <v>44925</v>
@@ -2286,7 +2299,7 @@
         <v>43275.652551348321</v>
       </c>
       <c r="K56" s="9">
-        <v>16651.016139884247</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -2299,12 +2312,12 @@
         <v>44957</v>
       </c>
       <c r="B57" s="9">
-        <f>IF(ROW($B28) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C57" s="9">
-        <f ca="1">IF(ROW($C28) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17851.874966025091</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17844.7675044758</v>
       </c>
       <c r="E57" s="7">
         <v>44957</v>
@@ -2322,7 +2335,7 @@
         <v>38514.990880681667</v>
       </c>
       <c r="K57" s="9">
-        <v>5686.5765544563765</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -2335,12 +2348,12 @@
         <v>44985</v>
       </c>
       <c r="B58" s="9">
-        <f>IF(ROW($B29) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C58" s="9">
-        <f ca="1">IF(ROW($C29) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17785.416206412432</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17778.102816064107</v>
       </c>
       <c r="E58" s="7">
         <v>44985</v>
@@ -2358,7 +2371,7 @@
         <v>33792.59918036242</v>
       </c>
       <c r="K58" s="9">
-        <v>-5123.4773890585639</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -2371,12 +2384,12 @@
         <v>45016</v>
       </c>
       <c r="B59" s="9">
-        <f>IF(ROW($B30) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C59" s="9">
-        <f ca="1">IF(ROW($C30) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17712.125421658555</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17704.585945228053</v>
       </c>
       <c r="E59" s="7">
         <v>45016</v>
@@ -2394,7 +2407,7 @@
         <v>29108.074216575711</v>
       </c>
       <c r="K59" s="9">
-        <v>-15781.662522480125</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -2407,12 +2420,12 @@
         <v>45044</v>
       </c>
       <c r="B60" s="9">
-        <f>IF(ROW($B31) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C60" s="9">
-        <f ca="1">IF(ROW($C31) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17646.186920080007</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17638.444948703407</v>
       </c>
       <c r="E60" s="7">
         <v>45044</v>
@@ -2430,7 +2443,7 @@
         <v>24461.017903155065</v>
       </c>
       <c r="K60" s="9">
-        <v>-26290.449606106151</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -2443,12 +2456,12 @@
         <v>45077</v>
       </c>
       <c r="B61" s="9">
-        <f>IF(ROW($B32) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C61" s="9">
-        <f ca="1">IF(ROW($C32) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17568.78875739031</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17560.810204126057</v>
       </c>
       <c r="E61" s="7">
         <v>45077</v>
@@ -2466,7 +2479,7 @@
         <v>19851.037225064822</v>
       </c>
       <c r="K61" s="9">
-        <v>-36652.264260489494</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -2479,12 +2492,12 @@
         <v>45107</v>
       </c>
       <c r="B62" s="9">
-        <f>IF(ROW($B33) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" ref="B62:B93" si="2">IF(ROW($B33) &lt;= MonthsCounter, Monthly1, "")</f>
         <v>20000</v>
       </c>
       <c r="C62" s="9">
-        <f ca="1">IF(ROW($C33) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17498.721418038112</v>
+        <f t="shared" ref="C62:C93" ca="1" si="3">IF(ROW($C33) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v>17490.529724495449</v>
       </c>
       <c r="E62" s="7">
         <v>45107</v>
@@ -2502,7 +2515,7 @@
         <v>15277.744163188851</v>
       </c>
       <c r="K62" s="9">
-        <v>-46869.487877615262</v>
+        <v>63151.115962196374</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -2515,12 +2528,12 @@
         <v>45138</v>
       </c>
       <c r="B63" s="9">
-        <f>IF(ROW($B34) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C63" s="9">
-        <f ca="1">IF(ROW($C34) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17426.612055511352</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17418.202039819895</v>
       </c>
       <c r="E63" s="7">
         <v>45138</v>
@@ -2542,12 +2555,12 @@
         <v>45169</v>
       </c>
       <c r="B64" s="9">
-        <f>IF(ROW($B35) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C64" s="9">
-        <f ca="1">IF(ROW($C35) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17354.79984384721</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17346.173448085083</v>
       </c>
       <c r="E64" s="7">
         <v>45169</v>
@@ -2569,12 +2582,12 @@
         <v>45198</v>
       </c>
       <c r="B65" s="9">
-        <f>IF(ROW($B36) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C65" s="9">
-        <f ca="1">IF(ROW($C36) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17287.888606054865</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17279.061537494668</v>
       </c>
       <c r="E65" s="7">
         <v>45198</v>
@@ -2596,12 +2609,12 @@
         <v>45230</v>
       </c>
       <c r="B66" s="9">
-        <f>IF(ROW($B37) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C66" s="9">
-        <f ca="1">IF(ROW($C37) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17214.354862827691</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17205.308310063916</v>
       </c>
       <c r="E66" s="7">
         <v>45230</v>
@@ -2623,12 +2636,12 @@
         <v>45260</v>
       </c>
       <c r="B67" s="9">
-        <f>IF(ROW($B38) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C67" s="9">
-        <f ca="1">IF(ROW($C38) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17145.701066566668</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17136.450591873912</v>
       </c>
       <c r="E67" s="7">
         <v>45260</v>
@@ -2650,12 +2663,12 @@
         <v>45289</v>
       </c>
       <c r="B68" s="9">
-        <f>IF(ROW($B39) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C68" s="9">
-        <f ca="1">IF(ROW($C39) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17079.596006784701</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17070.150093761124</v>
       </c>
       <c r="E68" s="7">
         <v>45289</v>
@@ -2677,12 +2690,12 @@
         <v>45322</v>
       </c>
       <c r="B69" s="9">
-        <f>IF(ROW($B40) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C69" s="9">
-        <f ca="1">IF(ROW($C40) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17004.682975635569</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16995.016670929337</v>
       </c>
       <c r="E69" s="7">
         <v>45322</v>
@@ -2704,12 +2717,12 @@
         <v>45351</v>
       </c>
       <c r="B70" s="9">
-        <f>IF(ROW($B41) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C70" s="9">
-        <f ca="1">IF(ROW($C41) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16939.121609534905</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16929.263377114097</v>
       </c>
       <c r="E70" s="7">
         <v>45351</v>
@@ -2731,12 +2744,12 @@
         <v>45379</v>
       </c>
       <c r="B71" s="9">
-        <f>IF(ROW($B42) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C71" s="9">
-        <f ca="1">IF(ROW($C42) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16876.060837865811</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16866.01883958836</v>
       </c>
       <c r="E71" s="7">
         <v>45379</v>
@@ -2758,12 +2771,12 @@
         <v>45412</v>
       </c>
       <c r="B72" s="9">
-        <f>IF(ROW($B43) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C72" s="9">
-        <f ca="1">IF(ROW($C43) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16802.040534884432</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16791.783890393228</v>
       </c>
       <c r="E72" s="7">
         <v>45412</v>
@@ -2785,12 +2798,12 @@
         <v>45443</v>
       </c>
       <c r="B73" s="9">
-        <f>IF(ROW($B44) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C73" s="9">
-        <f ca="1">IF(ROW($C44) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16732.802080075369</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16722.345693294857</v>
       </c>
       <c r="E73" s="7">
         <v>45443</v>
@@ -2812,12 +2825,12 @@
         <v>45471</v>
       </c>
       <c r="B74" s="9">
-        <f>IF(ROW($B45) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C74" s="9">
-        <f ca="1">IF(ROW($C45) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16670.509392433181</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16659.874161240627</v>
       </c>
       <c r="E74" s="7">
         <v>45471</v>
@@ -2839,12 +2852,12 @@
         <v>45504</v>
       </c>
       <c r="B75" s="9">
-        <f>IF(ROW($B46) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C75" s="9">
-        <f ca="1">IF(ROW($C46) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16597.390661235371</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16586.546547669244</v>
       </c>
       <c r="E75" s="7">
         <v>45504</v>
@@ -2866,12 +2879,12 @@
         <v>45534</v>
       </c>
       <c r="B76" s="9">
-        <f>IF(ROW($B47) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C76" s="9">
-        <f ca="1">IF(ROW($C47) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16531.197423905189</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16520.165188652463</v>
       </c>
       <c r="E76" s="7">
         <v>45534</v>
@@ -2893,12 +2906,12 @@
         <v>45565</v>
       </c>
       <c r="B77" s="9">
-        <f>IF(ROW($B48) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C77" s="9">
-        <f ca="1">IF(ROW($C48) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16463.075069159146</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16451.850202349931</v>
       </c>
       <c r="E77" s="7">
         <v>45565</v>
@@ -2920,12 +2933,12 @@
         <v>45596</v>
       </c>
       <c r="B78" s="9">
-        <f>IF(ROW($B49) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C78" s="9">
-        <f ca="1">IF(ROW($C49) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16395.233435470211</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16383.817715483707</v>
       </c>
       <c r="E78" s="7">
         <v>45596</v>
@@ -2947,12 +2960,12 @@
         <v>45625</v>
       </c>
       <c r="B79" s="9">
-        <f>IF(ROW($B50) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C79" s="9">
-        <f ca="1">IF(ROW($C50) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16332.021795293869</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16320.429135118013</v>
       </c>
       <c r="E79" s="7">
         <v>45625</v>
@@ -2974,12 +2987,12 @@
         <v>45657</v>
       </c>
       <c r="B80" s="9">
-        <f>IF(ROW($B51) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C80" s="9">
-        <f ca="1">IF(ROW($C51) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16262.553815458832</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16250.76769435296</v>
       </c>
       <c r="E80" s="7">
         <v>45657</v>
@@ -3001,12 +3014,12 @@
         <v>45685</v>
       </c>
       <c r="B81" s="9">
-        <f>IF(ROW($B52) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C81" s="9">
-        <f ca="1">IF(ROW($C52) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16202.011762774371</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16190.057888830241</v>
       </c>
       <c r="E81" s="7">
         <v>45685</v>
@@ -3028,12 +3041,12 @@
         <v>45716</v>
       </c>
       <c r="B82" s="9">
-        <f>IF(ROW($B53) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C82" s="9">
-        <f ca="1">IF(ROW($C53) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16135.245928176861</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16123.107978203901</v>
       </c>
       <c r="E82" s="7">
         <v>45716</v>
@@ -3055,12 +3068,12 @@
         <v>45747</v>
       </c>
       <c r="B83" s="9">
-        <f>IF(ROW($B54) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C83" s="9">
-        <f ca="1">IF(ROW($C54) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16068.755224639292</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16056.434922086895</v>
       </c>
       <c r="E83" s="7">
         <v>45747</v>
@@ -3082,12 +3095,12 @@
         <v>45777</v>
       </c>
       <c r="B84" s="9">
-        <f>IF(ROW($B55) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C84" s="9">
-        <f ca="1">IF(ROW($C55) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>16004.670275993152</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>15992.175133707833</v>
       </c>
       <c r="E84" s="7">
         <v>45777</v>
@@ -3109,12 +3122,12 @@
         <v>45807</v>
       </c>
       <c r="B85" s="9">
-        <f>IF(ROW($B56) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C85" s="9">
-        <f ca="1">IF(ROW($C56) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>15940.840909100894</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>15928.172520749258</v>
       </c>
       <c r="E85" s="7">
         <v>45807</v>
@@ -3136,12 +3149,12 @@
         <v>45838</v>
       </c>
       <c r="B86" s="9">
-        <f>IF(ROW($B57) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C86" s="9">
-        <f ca="1">IF(ROW($C57) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>15875.151316779551</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>15862.305571166526</v>
       </c>
       <c r="E86" s="7">
         <v>45838</v>
@@ -3163,12 +3176,12 @@
         <v>45869</v>
       </c>
       <c r="B87" s="9">
-        <f>IF(ROW($B58) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C87" s="9">
-        <f ca="1">IF(ROW($C58) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>15809.732420500146</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>15796.710997780228</v>
       </c>
       <c r="E87" s="7">
         <v>45869</v>
@@ -3190,12 +3203,12 @@
         <v>45898</v>
       </c>
       <c r="B88" s="9">
-        <f>IF(ROW($B59) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C88" s="9">
-        <f ca="1">IF(ROW($C59) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>15748.778172975568</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>15735.59391859971</v>
       </c>
       <c r="E88" s="7">
         <v>45898</v>
@@ -3217,12 +3230,12 @@
         <v>45930</v>
       </c>
       <c r="B89" s="9">
-        <f>IF(ROW($B60) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="C89" s="9">
-        <f ca="1">IF(ROW($C60) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>15681.791010071955</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>15668.428764142789</v>
       </c>
       <c r="E89" s="7">
         <v>45930</v>
@@ -3244,11 +3257,11 @@
         <v/>
       </c>
       <c r="B90" s="9" t="str">
-        <f>IF(ROW($B61) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C90" s="9" t="str">
-        <f ca="1">IF(ROW($A61) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ref="C90:C113" ca="1" si="4">IF(ROW($A61) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v/>
       </c>
       <c r="E90" s="7">
@@ -3271,11 +3284,11 @@
         <v/>
       </c>
       <c r="B91" s="9" t="str">
-        <f>IF(ROW($B62) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C91" s="9" t="str">
-        <f ca="1">IF(ROW($A62) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E91" s="7">
@@ -3298,11 +3311,11 @@
         <v/>
       </c>
       <c r="B92" s="9" t="str">
-        <f>IF(ROW($B63) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C92" s="9" t="str">
-        <f ca="1">IF(ROW($A63) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E92" s="7">
@@ -3325,11 +3338,11 @@
         <v/>
       </c>
       <c r="B93" s="9" t="str">
-        <f>IF(ROW($B64) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C93" s="9" t="str">
-        <f ca="1">IF(ROW($A64) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E93" s="7">
@@ -3352,11 +3365,11 @@
         <v/>
       </c>
       <c r="B94" s="9" t="str">
-        <f>IF(ROW($B65) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" ref="B94:B125" si="5">IF(ROW($B65) &lt;= MonthsCounter, Monthly1, "")</f>
         <v/>
       </c>
       <c r="C94" s="9" t="str">
-        <f ca="1">IF(ROW($A65) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E94" s="7">
@@ -3379,11 +3392,11 @@
         <v/>
       </c>
       <c r="B95" s="9" t="str">
-        <f>IF(ROW($B66) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C95" s="9" t="str">
-        <f ca="1">IF(ROW($A66) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E95" s="7">
@@ -3406,11 +3419,11 @@
         <v/>
       </c>
       <c r="B96" s="9" t="str">
-        <f>IF(ROW($B67) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C96" s="9" t="str">
-        <f ca="1">IF(ROW($A67) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E96" s="7">
@@ -3433,11 +3446,11 @@
         <v/>
       </c>
       <c r="B97" s="9" t="str">
-        <f>IF(ROW($B68) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C97" s="9" t="str">
-        <f ca="1">IF(ROW($A68) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E97" s="7">
@@ -3460,11 +3473,11 @@
         <v/>
       </c>
       <c r="B98" s="9" t="str">
-        <f>IF(ROW($B69) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C98" s="9" t="str">
-        <f ca="1">IF(ROW($A69) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E98" s="7">
@@ -3487,11 +3500,11 @@
         <v/>
       </c>
       <c r="B99" s="9" t="str">
-        <f>IF(ROW($B70) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C99" s="9" t="str">
-        <f ca="1">IF(ROW($A70) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E99" s="7">
@@ -3514,11 +3527,11 @@
         <v/>
       </c>
       <c r="B100" s="9" t="str">
-        <f>IF(ROW($B71) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C100" s="9" t="str">
-        <f ca="1">IF(ROW($A71) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E100" s="7">
@@ -3541,11 +3554,11 @@
         <v/>
       </c>
       <c r="B101" s="9" t="str">
-        <f>IF(ROW($B72) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C101" s="9" t="str">
-        <f ca="1">IF(ROW($A72) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E101" s="7">
@@ -3568,11 +3581,11 @@
         <v/>
       </c>
       <c r="B102" s="9" t="str">
-        <f>IF(ROW($B73) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C102" s="9" t="str">
-        <f ca="1">IF(ROW($A73) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E102" s="7">
@@ -3595,11 +3608,11 @@
         <v/>
       </c>
       <c r="B103" s="9" t="str">
-        <f>IF(ROW($B74) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C103" s="9" t="str">
-        <f ca="1">IF(ROW($A74) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E103" s="7">
@@ -3622,11 +3635,11 @@
         <v/>
       </c>
       <c r="B104" s="9" t="str">
-        <f>IF(ROW($B75) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C104" s="9" t="str">
-        <f ca="1">IF(ROW($A75) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E104" s="7">
@@ -3649,11 +3662,11 @@
         <v/>
       </c>
       <c r="B105" s="9" t="str">
-        <f>IF(ROW($B76) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C105" s="9" t="str">
-        <f ca="1">IF(ROW($A76) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E105" s="7">
@@ -3676,11 +3689,11 @@
         <v/>
       </c>
       <c r="B106" s="9" t="str">
-        <f>IF(ROW($B77) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C106" s="9" t="str">
-        <f ca="1">IF(ROW($A77) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E106" s="7">
@@ -3703,11 +3716,11 @@
         <v/>
       </c>
       <c r="B107" s="9" t="str">
-        <f>IF(ROW($B78) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C107" s="9" t="str">
-        <f ca="1">IF(ROW($A78) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E107" s="7">
@@ -3730,11 +3743,11 @@
         <v/>
       </c>
       <c r="B108" s="9" t="str">
-        <f>IF(ROW($B79) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C108" s="9" t="str">
-        <f ca="1">IF(ROW($A79) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E108" s="7">
@@ -3757,11 +3770,11 @@
         <v/>
       </c>
       <c r="B109" s="9" t="str">
-        <f>IF(ROW($B80) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C109" s="9" t="str">
-        <f ca="1">IF(ROW($A80) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E109" s="7">
@@ -3784,11 +3797,11 @@
         <v/>
       </c>
       <c r="B110" s="9" t="str">
-        <f>IF(ROW($B81) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C110" s="9" t="str">
-        <f ca="1">IF(ROW($A81) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E110" s="7">
@@ -3811,11 +3824,11 @@
         <v/>
       </c>
       <c r="B111" s="9" t="str">
-        <f>IF(ROW($B82) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C111" s="9" t="str">
-        <f ca="1">IF(ROW($A82) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E111" s="7">
@@ -3838,11 +3851,11 @@
         <v/>
       </c>
       <c r="B112" s="9" t="str">
-        <f>IF(ROW($B83) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C112" s="9" t="str">
-        <f ca="1">IF(ROW($A83) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E112" s="7">
@@ -3865,11 +3878,11 @@
         <v/>
       </c>
       <c r="B113" s="9" t="str">
-        <f>IF(ROW($B84) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C113" s="9" t="str">
-        <f ca="1">IF(ROW($A84) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E113" s="7">
@@ -3892,11 +3905,11 @@
         <v/>
       </c>
       <c r="B114" s="9" t="str">
-        <f>IF(ROW($B85) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C114" s="9" t="str">
-        <f ca="1">IF(ROW($C85) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ref="C114:C149" ca="1" si="6">IF(ROW($C85) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v/>
       </c>
       <c r="E114" s="7" t="s">
@@ -3919,11 +3932,11 @@
         <v/>
       </c>
       <c r="B115" s="9" t="str">
-        <f>IF(ROW($B86) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C115" s="9" t="str">
-        <f ca="1">IF(ROW($C86) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E115" s="7" t="s">
@@ -3946,11 +3959,11 @@
         <v/>
       </c>
       <c r="B116" s="9" t="str">
-        <f>IF(ROW($B87) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C116" s="9" t="str">
-        <f ca="1">IF(ROW($C87) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E116" s="7" t="s">
@@ -3973,11 +3986,11 @@
         <v/>
       </c>
       <c r="B117" s="9" t="str">
-        <f>IF(ROW($B88) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C117" s="9" t="str">
-        <f ca="1">IF(ROW($C88) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E117" s="7" t="s">
@@ -4000,11 +4013,11 @@
         <v/>
       </c>
       <c r="B118" s="9" t="str">
-        <f>IF(ROW($B89) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C118" s="9" t="str">
-        <f ca="1">IF(ROW($C89) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E118" s="7" t="s">
@@ -4027,11 +4040,11 @@
         <v/>
       </c>
       <c r="B119" s="9" t="str">
-        <f>IF(ROW($B90) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C119" s="9" t="str">
-        <f ca="1">IF(ROW($C90) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E119" s="7" t="s">
@@ -4054,11 +4067,11 @@
         <v/>
       </c>
       <c r="B120" s="9" t="str">
-        <f>IF(ROW($B91) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C120" s="9" t="str">
-        <f ca="1">IF(ROW($C91) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E120" s="7" t="s">
@@ -4081,11 +4094,11 @@
         <v/>
       </c>
       <c r="B121" s="9" t="str">
-        <f>IF(ROW($B92) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C121" s="9" t="str">
-        <f ca="1">IF(ROW($C92) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E121" s="7" t="s">
@@ -4108,11 +4121,11 @@
         <v/>
       </c>
       <c r="B122" s="9" t="str">
-        <f>IF(ROW($B93) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C122" s="9" t="str">
-        <f ca="1">IF(ROW($C93) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E122" s="7" t="s">
@@ -4135,11 +4148,11 @@
         <v/>
       </c>
       <c r="B123" s="9" t="str">
-        <f>IF(ROW($B94) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C123" s="9" t="str">
-        <f ca="1">IF(ROW($C94) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E123" s="7" t="s">
@@ -4162,11 +4175,11 @@
         <v/>
       </c>
       <c r="B124" s="9" t="str">
-        <f>IF(ROW($B95) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C124" s="9" t="str">
-        <f ca="1">IF(ROW($C95) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E124" s="7" t="s">
@@ -4189,11 +4202,11 @@
         <v/>
       </c>
       <c r="B125" s="9" t="str">
-        <f>IF(ROW($B96) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C125" s="9" t="str">
-        <f ca="1">IF(ROW($C96) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E125" s="7" t="s">
@@ -4216,11 +4229,11 @@
         <v/>
       </c>
       <c r="B126" s="9" t="str">
-        <f>IF(ROW($B97) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" ref="B126:B157" si="7">IF(ROW($B97) &lt;= MonthsCounter, Monthly1, "")</f>
         <v/>
       </c>
       <c r="C126" s="9" t="str">
-        <f ca="1">IF(ROW($C97) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E126" s="7" t="s">
@@ -4243,11 +4256,11 @@
         <v/>
       </c>
       <c r="B127" s="9" t="str">
-        <f>IF(ROW($B98) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C127" s="9" t="str">
-        <f ca="1">IF(ROW($C98) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E127" s="7" t="s">
@@ -4270,11 +4283,11 @@
         <v/>
       </c>
       <c r="B128" s="9" t="str">
-        <f>IF(ROW($B99) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C128" s="9" t="str">
-        <f ca="1">IF(ROW($C99) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E128" s="7" t="s">
@@ -4297,11 +4310,11 @@
         <v/>
       </c>
       <c r="B129" s="9" t="str">
-        <f>IF(ROW($B100) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C129" s="9" t="str">
-        <f ca="1">IF(ROW($C100) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E129" s="7" t="s">
@@ -4324,11 +4337,11 @@
         <v/>
       </c>
       <c r="B130" s="9" t="str">
-        <f>IF(ROW($B101) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C130" s="9" t="str">
-        <f ca="1">IF(ROW($C101) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E130" s="7" t="s">
@@ -4351,11 +4364,11 @@
         <v/>
       </c>
       <c r="B131" s="9" t="str">
-        <f>IF(ROW($B102) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C131" s="9" t="str">
-        <f ca="1">IF(ROW($C102) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E131" s="7" t="s">
@@ -4378,11 +4391,11 @@
         <v/>
       </c>
       <c r="B132" s="9" t="str">
-        <f>IF(ROW($B103) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C132" s="9" t="str">
-        <f ca="1">IF(ROW($C103) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E132" s="7" t="s">
@@ -4405,11 +4418,11 @@
         <v/>
       </c>
       <c r="B133" s="9" t="str">
-        <f>IF(ROW($B104) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C133" s="9" t="str">
-        <f ca="1">IF(ROW($C104) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E133" s="7" t="s">
@@ -4432,11 +4445,11 @@
         <v/>
       </c>
       <c r="B134" s="9" t="str">
-        <f>IF(ROW($B105) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C134" s="9" t="str">
-        <f ca="1">IF(ROW($C105) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E134" s="7" t="s">
@@ -4459,11 +4472,11 @@
         <v/>
       </c>
       <c r="B135" s="9" t="str">
-        <f>IF(ROW($B106) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C135" s="9" t="str">
-        <f ca="1">IF(ROW($C106) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E135" s="7" t="s">
@@ -4486,11 +4499,11 @@
         <v/>
       </c>
       <c r="B136" s="9" t="str">
-        <f>IF(ROW($B107) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C136" s="9" t="str">
-        <f ca="1">IF(ROW($C107) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E136" s="7" t="s">
@@ -4513,11 +4526,11 @@
         <v/>
       </c>
       <c r="B137" s="9" t="str">
-        <f>IF(ROW($B108) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C137" s="9" t="str">
-        <f ca="1">IF(ROW($C108) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E137" s="7" t="s">
@@ -4540,11 +4553,11 @@
         <v/>
       </c>
       <c r="B138" s="9" t="str">
-        <f>IF(ROW($B109) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C138" s="9" t="str">
-        <f ca="1">IF(ROW($C109) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E138" s="7" t="s">
@@ -4567,11 +4580,11 @@
         <v/>
       </c>
       <c r="B139" s="9" t="str">
-        <f>IF(ROW($B110) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C139" s="9" t="str">
-        <f ca="1">IF(ROW($C110) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E139" s="7" t="s">
@@ -4594,11 +4607,11 @@
         <v/>
       </c>
       <c r="B140" s="9" t="str">
-        <f>IF(ROW($B111) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C140" s="9" t="str">
-        <f ca="1">IF(ROW($C111) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E140" s="7" t="s">
@@ -4621,11 +4634,11 @@
         <v/>
       </c>
       <c r="B141" s="9" t="str">
-        <f>IF(ROW($B112) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C141" s="9" t="str">
-        <f ca="1">IF(ROW($C112) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E141" s="7" t="s">
@@ -4648,11 +4661,11 @@
         <v/>
       </c>
       <c r="B142" s="9" t="str">
-        <f>IF(ROW($B113) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C142" s="9" t="str">
-        <f ca="1">IF(ROW($C113) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E142" s="7" t="s">
@@ -4675,11 +4688,11 @@
         <v/>
       </c>
       <c r="B143" s="9" t="str">
-        <f>IF(ROW($B114) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C143" s="9" t="str">
-        <f ca="1">IF(ROW($C114) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E143" s="7" t="s">
@@ -4702,11 +4715,11 @@
         <v/>
       </c>
       <c r="B144" s="9" t="str">
-        <f>IF(ROW($B115) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C144" s="9" t="str">
-        <f ca="1">IF(ROW($C115) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E144" s="7" t="s">
@@ -4729,11 +4742,11 @@
         <v/>
       </c>
       <c r="B145" s="9" t="str">
-        <f>IF(ROW($B116) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C145" s="9" t="str">
-        <f ca="1">IF(ROW($C116) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E145" s="7" t="s">
@@ -4756,11 +4769,11 @@
         <v/>
       </c>
       <c r="B146" s="9" t="str">
-        <f>IF(ROW($B117) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C146" s="9" t="str">
-        <f ca="1">IF(ROW($C117) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E146" s="7" t="s">
@@ -4783,11 +4796,11 @@
         <v/>
       </c>
       <c r="B147" s="9" t="str">
-        <f>IF(ROW($B118) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C147" s="9" t="str">
-        <f ca="1">IF(ROW($C118) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E147" s="7" t="s">
@@ -4810,11 +4823,11 @@
         <v/>
       </c>
       <c r="B148" s="9" t="str">
-        <f>IF(ROW($B119) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C148" s="9" t="str">
-        <f ca="1">IF(ROW($C119) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E148" s="7" t="s">
@@ -4837,11 +4850,11 @@
         <v/>
       </c>
       <c r="B149" s="9" t="str">
-        <f>IF(ROW($B120) &lt;= MonthsCounter, Monthly1, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C149" s="9" t="str">
-        <f ca="1">IF(ROW($C120) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="E149" s="7" t="s">

--- a/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
+++ b/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C3BEE7-7764-E648-B559-2D1FD7FE73DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C5D95-79B5-4C40-A135-F6733D93AF53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29940" yWindow="-1740" windowWidth="33540" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <definedName name="PayOutPeriod1">Investment!$B$21</definedName>
     <definedName name="PayOutPeriod2">Investment!$F$21</definedName>
     <definedName name="rate">Investment!$D$23</definedName>
+    <definedName name="SecondMonthsCounter">(Investment!$F$21)*12</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -65,8 +66,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
   <si>
     <t>Payout Amount</t>
   </si>
@@ -547,15 +570,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
+      <xdr:colOff>294639</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>318469</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>186242</xdr:rowOff>
+      <xdr:colOff>617979</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>118682</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -578,8 +601,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14430375" y="4445001"/>
-          <a:ext cx="4596782" cy="3615241"/>
+          <a:off x="16753839" y="5646738"/>
+          <a:ext cx="5017260" cy="3666744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -914,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1035,6 +1058,9 @@
       <c r="I8" s="27" t="s">
         <v>32</v>
       </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
@@ -1050,6 +1076,9 @@
       <c r="I9" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
@@ -1062,7 +1091,12 @@
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="I10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
@@ -1075,7 +1109,12 @@
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="I11" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
@@ -1220,7 +1259,7 @@
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="18">
-        <v>0.05</v>
+        <v>4.9821098788103702E-2</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -1230,7 +1269,7 @@
       </c>
       <c r="D24" s="9">
         <f ca="1">B26-F26</f>
-        <v>-441.86778471735306</v>
+        <v>1.6926787793636322E-7</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
@@ -1249,12 +1288,13 @@
       </c>
       <c r="B26" s="9">
         <f ca="1">SUM(C30:C149) - F16</f>
-        <v>62709.248177479021</v>
+        <v>63151.115962365642</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="9">
+        <f ca="1">SUM(G30:G149) - F16</f>
         <v>63151.115962196374</v>
       </c>
       <c r="I26" s="16" t="s">
@@ -1262,10 +1302,10 @@
       </c>
       <c r="J26" s="10">
         <f ca="1">B26</f>
-        <v>62709.248177479021</v>
+        <v>63151.115962365642</v>
       </c>
       <c r="K26" s="10">
-        <f>F26</f>
+        <f ca="1">F26</f>
         <v>63151.115962196374</v>
       </c>
     </row>
@@ -1278,7 +1318,7 @@
         <v>200000</v>
       </c>
       <c r="K27" s="9">
-        <v>63151.115962196374</v>
+        <v>415000</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1291,7 +1331,7 @@
         <v>193927.86938671139</v>
       </c>
       <c r="K28" s="9">
-        <v>63151.115962196374</v>
+        <v>398217.30830456223</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1322,7 +1362,7 @@
         <v>187908.33866143064</v>
       </c>
       <c r="K29" s="9">
-        <v>63151.115962196374</v>
+        <v>381687.09724572627</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1334,26 +1374,37 @@
 "")</f>
         <v>44134</v>
       </c>
-      <c r="B30" s="9">
-        <f t="shared" ref="B30:B61" si="0">IF(ROW($B1) &lt;= MonthsCounter, Monthly1, "")</f>
+      <c r="B30" s="9" cm="1">
+        <f t="array" ref="B30">IF(ROW($B1)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B1)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C30" s="9">
-        <f t="shared" ref="C30:C61" ca="1" si="1">IF(ROW($C1) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>19919.957588728907</v>
+        <f ca="1">IF(ROW($C1) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v>19920.236573710612</v>
       </c>
       <c r="D30">
         <f>MonthsCounter</f>
         <v>60</v>
       </c>
       <c r="E30" s="7">
+        <f>IF(ROW($A1) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A1)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A1))),
+  WORKDAY(EDATE(fpdate, ROW($A1)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A1)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44134</v>
       </c>
       <c r="F30" s="9">
+        <f>IF(ROW($C1)&lt;=SecondMonthsCounter,IF(ROW($C1)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G30" s="9">
+        <f ca="1">IF(ROW($G1) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4980.059143427653</v>
+      </c>
+      <c r="H30" cm="1">
+        <f t="array" ref="H30">SecondMonthsCounter</f>
+        <v>84</v>
       </c>
       <c r="I30" s="20">
         <v>6.0000000000000001E-3</v>
@@ -1362,7 +1413,7 @@
         <v>181940.81520699663</v>
       </c>
       <c r="K30" s="9">
-        <v>63151.115962196374</v>
+        <v>365404.9947186464</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1374,21 +1425,28 @@
 "")</f>
         <v>44165</v>
       </c>
-      <c r="B31" s="9">
-        <f t="shared" si="0"/>
+      <c r="B31" s="9" cm="1">
+        <f t="array" ref="B31">IF(ROW($B2)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B2)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C31" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>19837.58361641804</v>
+        <f t="shared" ref="C30:C61" ca="1" si="0">IF(ROW($C2) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v>19838.148544168536</v>
       </c>
       <c r="E31" s="7">
+        <f>IF(ROW($A2) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A2)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A2))),
+  WORKDAY(EDATE(fpdate, ROW($A2)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A2)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44165</v>
       </c>
       <c r="F31" s="9">
+        <f>IF(ROW($C2)&lt;=SecondMonthsCounter,IF(ROW($C2)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G31" s="9">
+        <f ca="1">IF(ROW($G2) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4959.5371360421341</v>
       </c>
       <c r="I31" s="20">
@@ -1398,7 +1456,7 @@
         <v>176024.71446540649</v>
       </c>
       <c r="K31" s="9">
-        <v>63151.115962196374</v>
+        <v>349366.71344400477</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1410,21 +1468,28 @@
 "")</f>
         <v>44196</v>
       </c>
-      <c r="B32" s="9">
-        <f t="shared" si="0"/>
+      <c r="B32" s="9" cm="1">
+        <f t="array" ref="B32">IF(ROW($B3)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B3)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C32" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>19755.550280942571</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19756.398785940117</v>
       </c>
       <c r="E32" s="7">
+        <f>IF(ROW($A3) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A3)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A3))),
+  WORKDAY(EDATE(fpdate, ROW($A3)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A3)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44196</v>
       </c>
       <c r="F32" s="9">
+        <f>IF(ROW($C3)&lt;=SecondMonthsCounter,IF(ROW($C3)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G32" s="9">
+        <f ca="1">IF(ROW($G3) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4939.0996964850292</v>
       </c>
       <c r="I32" s="20">
@@ -1434,7 +1499,7 @@
         <v>170159.45981047861</v>
       </c>
       <c r="K32" s="9">
-        <v>63151.115962196374</v>
+        <v>333568.0491516809</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1446,21 +1511,28 @@
 "")</f>
         <v>44225</v>
       </c>
-      <c r="B33" s="9">
-        <f t="shared" si="0"/>
+      <c r="B33" s="9" cm="1">
+        <f t="array" ref="B33">IF(ROW($B4)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B4)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C33" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>19679.116551734962</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19680.228210135112</v>
       </c>
       <c r="E33" s="7">
+        <f>IF(ROW($A4) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A4)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A4))),
+  WORKDAY(EDATE(fpdate, ROW($A4)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A4)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44225</v>
       </c>
       <c r="F33" s="9">
+        <f>IF(ROW($C4)&lt;=SecondMonthsCounter,IF(ROW($C4)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G33" s="9">
+        <f ca="1">IF(ROW($G4) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4920.057052533778</v>
       </c>
       <c r="I33" s="20">
@@ -1470,7 +1542,7 @@
         <v>164344.48242281238</v>
       </c>
       <c r="K33" s="9">
-        <v>63151.115962196374</v>
+        <v>318004.87880690349</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1482,21 +1554,28 @@
 "")</f>
         <v>44253</v>
       </c>
-      <c r="B34" s="9">
-        <f t="shared" si="0"/>
+      <c r="B34" s="9" cm="1">
+        <f t="array" ref="B34">IF(ROW($B5)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B5)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C34" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>19605.599080980035</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19606.962877601196</v>
       </c>
       <c r="E34" s="7">
+        <f>IF(ROW($A5) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A5)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A5))),
+  WORKDAY(EDATE(fpdate, ROW($A5)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A5)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44253</v>
       </c>
       <c r="F34" s="9">
+        <f>IF(ROW($C5)&lt;=SecondMonthsCounter,IF(ROW($C5)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G34" s="9">
+        <f ca="1">IF(ROW($G5) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4901.740719400299</v>
       </c>
       <c r="I34" s="20">
@@ -1506,7 +1585,7 @@
         <v>158579.22116697649</v>
       </c>
       <c r="K34" s="9">
-        <v>63151.115962196374</v>
+        <v>302673.15887779277</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1518,21 +1597,28 @@
 "")</f>
         <v>44286</v>
       </c>
-      <c r="B35" s="9">
-        <f t="shared" si="0"/>
+      <c r="B35" s="9" cm="1">
+        <f t="array" ref="B35">IF(ROW($B6)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B6)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C35" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>19519.306004613929</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19520.964530789821</v>
       </c>
       <c r="E35" s="7">
+        <f>IF(ROW($A6) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A6)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A6))),
+  WORKDAY(EDATE(fpdate, ROW($A6)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A6)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44286</v>
       </c>
       <c r="F35" s="9">
+        <f>IF(ROW($C6)&lt;=SecondMonthsCounter,IF(ROW($C6)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G35" s="9">
+        <f ca="1">IF(ROW($G6) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4880.2411326974552</v>
       </c>
       <c r="I35" s="20">
@@ -1542,7 +1628,7 @@
         <v>152863.12247089134</v>
       </c>
       <c r="K35" s="9">
-        <v>63151.115962196374</v>
+        <v>287568.92364326259</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1554,21 +1640,28 @@
 "")</f>
         <v>44316</v>
       </c>
-      <c r="B36" s="9">
-        <f t="shared" si="0"/>
+      <c r="B36" s="9" cm="1">
+        <f t="array" ref="B36">IF(ROW($B7)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B7)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C36" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>19441.187388666553</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19443.111580017347</v>
       </c>
       <c r="E36" s="7">
+        <f>IF(ROW($A7) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A7)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A7))),
+  WORKDAY(EDATE(fpdate, ROW($A7)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A7)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44316</v>
       </c>
       <c r="F36" s="9">
+        <f>IF(ROW($C7)&lt;=SecondMonthsCounter,IF(ROW($C7)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G36" s="9">
+        <f ca="1">IF(ROW($G7) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4860.7778950043366</v>
       </c>
       <c r="I36" s="20">
@@ -1578,7 +1671,7 @@
         <v>147195.64020735538</v>
       </c>
       <c r="K36" s="9">
-        <v>63151.115962196374</v>
+        <v>272688.28354025143</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1590,21 +1683,28 @@
 "")</f>
         <v>44347</v>
       </c>
-      <c r="B37" s="9">
-        <f t="shared" si="0"/>
+      <c r="B37" s="9" cm="1">
+        <f t="array" ref="B37">IF(ROW($B8)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B8)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C37" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>19360.793250048981</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19362.989704362684</v>
       </c>
       <c r="E37" s="7">
+        <f>IF(ROW($A8) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A8)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A8))),
+  WORKDAY(EDATE(fpdate, ROW($A8)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A8)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44347</v>
       </c>
       <c r="F37" s="9">
+        <f>IF(ROW($C8)&lt;=SecondMonthsCounter,IF(ROW($C8)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G37" s="9">
+        <f ca="1">IF(ROW($G8) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4840.7474260906711</v>
       </c>
       <c r="I37" s="20">
@@ -1614,7 +1714,7 @@
         <v>141576.23557768366</v>
       </c>
       <c r="K37" s="9">
-        <v>63151.115962196374</v>
+        <v>258027.42354929773</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1626,21 +1726,28 @@
 "")</f>
         <v>44377</v>
       </c>
-      <c r="B38" s="9">
-        <f t="shared" si="0"/>
+      <c r="B38" s="9" cm="1">
+        <f t="array" ref="B38">IF(ROW($B9)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B9)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C38" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>19283.309021256231</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19285.766784261377</v>
       </c>
       <c r="E38" s="7">
+        <f>IF(ROW($A9) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A9)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A9))),
+  WORKDAY(EDATE(fpdate, ROW($A9)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A9)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44377</v>
       </c>
       <c r="F38" s="9">
+        <f>IF(ROW($C9)&lt;=SecondMonthsCounter,IF(ROW($C9)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G38" s="9">
+        <f ca="1">IF(ROW($G9) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4821.4416960653443</v>
       </c>
       <c r="I38" s="20">
@@ -1650,7 +1757,7 @@
         <v>136004.3769974045</v>
       </c>
       <c r="K38" s="9">
-        <v>63151.115962196374</v>
+        <v>243582.60161749762</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1662,21 +1769,28 @@
 "")</f>
         <v>44407</v>
       </c>
-      <c r="B39" s="9">
-        <f t="shared" si="0"/>
+      <c r="B39" s="9" cm="1">
+        <f t="array" ref="B39">IF(ROW($B10)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B10)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C39" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>19206.134893688883</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19208.851842394837</v>
       </c>
       <c r="E39" s="7">
+        <f>IF(ROW($A10) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A10)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A10))),
+  WORKDAY(EDATE(fpdate, ROW($A10)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A10)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44407</v>
       </c>
       <c r="F39" s="9">
+        <f>IF(ROW($C10)&lt;=SecondMonthsCounter,IF(ROW($C10)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G39" s="9">
+        <f ca="1">IF(ROW($G10) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4802.2129605987093</v>
       </c>
       <c r="I39" s="20">
@@ -1686,7 +1800,7 @@
         <v>130479.53998397873</v>
       </c>
       <c r="K39" s="9">
-        <v>63151.115962196374</v>
+        <v>229350.1471178988</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1698,21 +1812,28 @@
 "")</f>
         <v>44439</v>
       </c>
-      <c r="B40" s="9">
-        <f t="shared" si="0"/>
+      <c r="B40" s="9" cm="1">
+        <f t="array" ref="B40">IF(ROW($B11)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B11)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C40" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>19124.156226513809</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19127.147314372094</v>
       </c>
       <c r="E40" s="7">
+        <f>IF(ROW($A11) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A11)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A11))),
+  WORKDAY(EDATE(fpdate, ROW($A11)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A11)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44439</v>
       </c>
       <c r="F40" s="9">
+        <f>IF(ROW($C11)&lt;=SecondMonthsCounter,IF(ROW($C11)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G40" s="9">
+        <f ca="1">IF(ROW($G11) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4781.7868285930235</v>
       </c>
       <c r="I40" s="20">
@@ -1722,7 +1843,7 @@
         <v>125001.20704650669</v>
       </c>
       <c r="K40" s="9">
-        <v>63151.115962196374</v>
+        <v>215326.45934443153</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1734,21 +1855,28 @@
 "")</f>
         <v>44469</v>
       </c>
-      <c r="B41" s="9">
-        <f t="shared" si="0"/>
+      <c r="B41" s="9" cm="1">
+        <f t="array" ref="B41">IF(ROW($B12)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B12)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C41" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>19047.619047619046</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19050.864974125281</v>
       </c>
       <c r="E41" s="7">
+        <f>IF(ROW($A12) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A12)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A12))),
+  WORKDAY(EDATE(fpdate, ROW($A12)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A12)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44469</v>
       </c>
       <c r="F41" s="9">
+        <f>IF(ROW($C12)&lt;=SecondMonthsCounter,IF(ROW($C12)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G41" s="9">
+        <f ca="1">IF(ROW($G12) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4762.7162435313203</v>
       </c>
       <c r="I41" s="20">
@@ -1758,7 +1886,7 @@
         <v>119568.86757737421</v>
       </c>
       <c r="K41" s="9">
-        <v>63151.115962196374</v>
+        <v>201508.00604147511</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -1770,22 +1898,29 @@
 "")</f>
         <v>44498</v>
       </c>
-      <c r="B42" s="9">
-        <f t="shared" si="0"/>
+      <c r="B42" s="9" cm="1">
+        <f t="array" ref="B42">IF(ROW($B13)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B13)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18973.924286621183</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18977.414576085372</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="7">
+        <f>IF(ROW($A13) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A13)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A13))),
+  WORKDAY(EDATE(fpdate, ROW($A13)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A13)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44498</v>
       </c>
       <c r="F42" s="9">
+        <f>IF(ROW($C13)&lt;=SecondMonthsCounter,IF(ROW($C13)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G42" s="9">
+        <f ca="1">IF(ROW($G13) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4744.3536440213429</v>
       </c>
       <c r="I42" s="20">
@@ -1795,7 +1930,7 @@
         <v>114182.01774580544</v>
       </c>
       <c r="K42" s="9">
-        <v>63151.115962196374</v>
+        <v>187891.32196720643</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1807,21 +1942,28 @@
 "")</f>
         <v>44530</v>
       </c>
-      <c r="B43" s="9">
-        <f t="shared" si="0"/>
+      <c r="B43" s="9" cm="1">
+        <f t="array" ref="B43">IF(ROW($B14)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B14)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18892.936777540988</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18896.694462579737</v>
       </c>
       <c r="E43" s="7">
+        <f>IF(ROW($A14) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A14)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A14))),
+  WORKDAY(EDATE(fpdate, ROW($A14)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A14)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44530</v>
       </c>
       <c r="F43" s="9">
+        <f>IF(ROW($C14)&lt;=SecondMonthsCounter,IF(ROW($C14)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G43" s="9">
+        <f ca="1">IF(ROW($G14) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4724.1736156449342</v>
       </c>
       <c r="I43" s="20">
@@ -1831,7 +1973,7 @@
         <v>108840.160393283</v>
       </c>
       <c r="K43" s="9">
-        <v>63151.115962196374</v>
+        <v>174473.00748988288</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -1843,21 +1985,28 @@
 "")</f>
         <v>44561</v>
       </c>
-      <c r="B44" s="9">
-        <f t="shared" si="0"/>
+      <c r="B44" s="9" cm="1">
+        <f t="array" ref="B44">IF(ROW($B15)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B15)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18814.809791373875</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18818.824282295889</v>
       </c>
       <c r="E44" s="7">
+        <f>IF(ROW($A15) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A15)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A15))),
+  WORKDAY(EDATE(fpdate, ROW($A15)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A15)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44561</v>
       </c>
       <c r="F44" s="9">
+        <f>IF(ROW($C15)&lt;=SecondMonthsCounter,IF(ROW($C15)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G44" s="9">
+        <f ca="1">IF(ROW($G15) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4704.7060705739723</v>
       </c>
       <c r="I44" s="20">
@@ -1867,7 +2016,7 @@
         <v>103542.80493080406</v>
       </c>
       <c r="K44" s="9">
-        <v>63151.115962196374</v>
+        <v>161249.72721624677</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -1879,21 +2028,28 @@
 "")</f>
         <v>44592</v>
       </c>
-      <c r="B45" s="9">
-        <f t="shared" si="0"/>
+      <c r="B45" s="9" cm="1">
+        <f t="array" ref="B45">IF(ROW($B16)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B16)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C45" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18737.005879699595</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18741.2749922603</v>
       </c>
       <c r="E45" s="7">
+        <f>IF(ROW($A16) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A16)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A16))),
+  WORKDAY(EDATE(fpdate, ROW($A16)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A16)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44592</v>
       </c>
       <c r="F45" s="9">
+        <f>IF(ROW($C16)&lt;=SecondMonthsCounter,IF(ROW($C16)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G45" s="9">
+        <f ca="1">IF(ROW($G16) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4685.3187480650749</v>
       </c>
       <c r="I45" s="20">
@@ -1903,7 +2059,7 @@
         <v>98289.467237923294</v>
       </c>
       <c r="K45" s="9">
-        <v>63151.115962196374</v>
+        <v>148218.20865125232</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -1915,21 +2071,28 @@
 "")</f>
         <v>44620</v>
       </c>
-      <c r="B46" s="9">
-        <f t="shared" si="0"/>
+      <c r="B46" s="9" cm="1">
+        <f t="array" ref="B46">IF(ROW($B17)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B17)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C46" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18667.007956867314</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18671.505184219641</v>
       </c>
       <c r="E46" s="7">
+        <f>IF(ROW($A17) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A17)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A17))),
+  WORKDAY(EDATE(fpdate, ROW($A17)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A17)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44620</v>
       </c>
       <c r="F46" s="9">
+        <f>IF(ROW($C17)&lt;=SecondMonthsCounter,IF(ROW($C17)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G46" s="9">
+        <f ca="1">IF(ROW($G17) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4667.8762960549102</v>
       </c>
       <c r="I46" s="20">
@@ -1939,7 +2102,7 @@
         <v>93079.669563569129</v>
       </c>
       <c r="K46" s="9">
-        <v>63151.115962196374</v>
+        <v>135375.240888339</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -1951,21 +2114,28 @@
 "")</f>
         <v>44651</v>
       </c>
-      <c r="B47" s="9">
-        <f t="shared" si="0"/>
+      <c r="B47" s="9" cm="1">
+        <f t="array" ref="B47">IF(ROW($B18)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B18)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C47" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18589.815242489458</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18594.562972038286</v>
       </c>
       <c r="E47" s="7">
+        <f>IF(ROW($A18) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A18)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A18))),
+  WORKDAY(EDATE(fpdate, ROW($A18)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A18)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44651</v>
       </c>
       <c r="F47" s="9">
+        <f>IF(ROW($C18)&lt;=SecondMonthsCounter,IF(ROW($C18)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G47" s="9">
+        <f ca="1">IF(ROW($G18) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4648.6407430095715</v>
       </c>
       <c r="I47" s="20">
@@ -1975,7 +2145,7 @@
         <v>87912.940428571543</v>
       </c>
       <c r="K47" s="9">
-        <v>63151.115962196374</v>
+        <v>122717.67332949885</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -1987,21 +2157,28 @@
 "")</f>
         <v>44680</v>
       </c>
-      <c r="B48" s="9">
-        <f t="shared" si="0"/>
+      <c r="B48" s="9" cm="1">
+        <f t="array" ref="B48">IF(ROW($B19)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B19)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C48" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18517.891712946752</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18522.871841292814</v>
       </c>
       <c r="E48" s="7">
+        <f>IF(ROW($A19) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A19)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A19))),
+  WORKDAY(EDATE(fpdate, ROW($A19)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A19)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44680</v>
       </c>
       <c r="F48" s="9">
+        <f>IF(ROW($C19)&lt;=SecondMonthsCounter,IF(ROW($C19)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G48" s="9">
+        <f ca="1">IF(ROW($G19) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4630.7179603232034</v>
       </c>
       <c r="I48" s="20">
@@ -2011,7 +2188,7 @@
         <v>82788.814529896015</v>
       </c>
       <c r="K48" s="9">
-        <v>63151.115962196374</v>
+        <v>110242.41443440551</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -2023,21 +2200,28 @@
 "")</f>
         <v>44712</v>
       </c>
-      <c r="B49" s="9">
-        <f t="shared" si="0"/>
+      <c r="B49" s="9" cm="1">
+        <f t="array" ref="B49">IF(ROW($B20)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B20)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C49" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18438.850714332362</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18444.085117659575</v>
       </c>
       <c r="E49" s="7">
+        <f>IF(ROW($A20) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A20)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A20))),
+  WORKDAY(EDATE(fpdate, ROW($A20)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A20)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44712</v>
       </c>
       <c r="F49" s="9">
+        <f>IF(ROW($C20)&lt;=SecondMonthsCounter,IF(ROW($C20)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G49" s="9">
+        <f ca="1">IF(ROW($G20) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4611.0212794148938</v>
       </c>
       <c r="I49" s="20">
@@ -2047,7 +2231,7 @@
         <v>77706.832646529423</v>
       </c>
       <c r="K49" s="9">
-        <v>63151.115962196374</v>
+        <v>97946.430497882422</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2059,21 +2243,28 @@
 "")</f>
         <v>44742</v>
       </c>
-      <c r="B50" s="9">
-        <f t="shared" si="0"/>
+      <c r="B50" s="9" cm="1">
+        <f t="array" ref="B50">IF(ROW($B21)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B21)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C50" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18365.05621072022</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18370.526946471691</v>
       </c>
       <c r="E50" s="7">
+        <f>IF(ROW($A21) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A21)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A21))),
+  WORKDAY(EDATE(fpdate, ROW($A21)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A21)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44742</v>
       </c>
       <c r="F50" s="9">
+        <f>IF(ROW($C21)&lt;=SecondMonthsCounter,IF(ROW($C21)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G50" s="9">
+        <f ca="1">IF(ROW($G21) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4592.6317366179228</v>
       </c>
       <c r="I50" s="20">
@@ -2083,7 +2274,7 @@
         <v>72666.541546997614</v>
       </c>
       <c r="K50" s="9">
-        <v>63151.115962196374</v>
+        <v>85826.744455023902</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2095,21 +2286,28 @@
 "")</f>
         <v>44771</v>
       </c>
-      <c r="B51" s="9">
-        <f t="shared" si="0"/>
+      <c r="B51" s="9" cm="1">
+        <f t="array" ref="B51">IF(ROW($B22)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B22)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C51" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18294.002268241748</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18299.699584131246</v>
       </c>
       <c r="E51" s="7">
+        <f>IF(ROW($A22) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A22)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A22))),
+  WORKDAY(EDATE(fpdate, ROW($A22)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A22)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44771</v>
       </c>
       <c r="F51" s="9">
+        <f>IF(ROW($C22)&lt;=SecondMonthsCounter,IF(ROW($C22)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G51" s="9">
+        <f ca="1">IF(ROW($G22) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4574.9248960328114</v>
       </c>
       <c r="I51" s="20">
@@ -2119,7 +2317,7 @@
         <v>67667.493898478104</v>
       </c>
       <c r="K51" s="9">
-        <v>63151.115962196374</v>
+        <v>73880.434713285184</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -2131,21 +2329,28 @@
 "")</f>
         <v>44804</v>
       </c>
-      <c r="B52" s="9">
-        <f t="shared" si="0"/>
+      <c r="B52" s="9" cm="1">
+        <f t="array" ref="B52">IF(ROW($B23)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B23)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C52" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18213.482120489338</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18219.43504131529</v>
       </c>
       <c r="E52" s="7">
+        <f>IF(ROW($A23) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A23)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A23))),
+  WORKDAY(EDATE(fpdate, ROW($A23)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A23)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44804</v>
       </c>
       <c r="F52" s="9">
+        <f>IF(ROW($C23)&lt;=SecondMonthsCounter,IF(ROW($C23)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G52" s="9">
+        <f ca="1">IF(ROW($G23) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4554.8587603288224</v>
       </c>
       <c r="I52" s="20">
@@ -2155,7 +2360,7 @@
         <v>62709.248177479021</v>
       </c>
       <c r="K52" s="9">
-        <v>63151.115962196374</v>
+        <v>62104.63401088235</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -2167,21 +2372,28 @@
 "")</f>
         <v>44834</v>
       </c>
-      <c r="B53" s="9">
-        <f t="shared" si="0"/>
+      <c r="B53" s="9" cm="1">
+        <f t="array" ref="B53">IF(ROW($B24)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B24)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C53" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18140.589569160999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18146.772813117674</v>
       </c>
       <c r="E53" s="7">
+        <f>IF(ROW($A24) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A24)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A24))),
+  WORKDAY(EDATE(fpdate, ROW($A24)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A24)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44834</v>
       </c>
       <c r="F53" s="9">
+        <f>IF(ROW($C24)&lt;=SecondMonthsCounter,IF(ROW($C24)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G53" s="9">
+        <f ca="1">IF(ROW($G24) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4536.6932032794184</v>
       </c>
       <c r="I53" s="20">
@@ -2191,7 +2403,7 @@
         <v>57791.368582051946</v>
       </c>
       <c r="K53" s="9">
-        <v>63151.115962196374</v>
+        <v>50496.528300863458</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -2203,21 +2415,28 @@
 "")</f>
         <v>44865</v>
       </c>
-      <c r="B54" s="9">
-        <f t="shared" si="0"/>
+      <c r="B54" s="9" cm="1">
+        <f t="array" ref="B54">IF(ROW($B25)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B25)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C54" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18065.573725567112</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18071.992937022103</v>
       </c>
       <c r="E54" s="7">
+        <f>IF(ROW($A25) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A25)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A25))),
+  WORKDAY(EDATE(fpdate, ROW($A25)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A25)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44865</v>
       </c>
       <c r="F54" s="9">
+        <f>IF(ROW($C25)&lt;=SecondMonthsCounter,IF(ROW($C25)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G54" s="9">
+        <f ca="1">IF(ROW($G25) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4517.9982342555259</v>
       </c>
       <c r="I54" s="20">
@@ -2227,7 +2446,7 @@
         <v>52913.424945514882</v>
       </c>
       <c r="K54" s="9">
-        <v>63151.115962196374</v>
+        <v>39053.355660220608</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -2239,21 +2458,28 @@
 "")</f>
         <v>44895</v>
       </c>
-      <c r="B55" s="9">
-        <f t="shared" si="0"/>
+      <c r="B55" s="9" cm="1">
+        <f t="array" ref="B55">IF(ROW($B26)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B26)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C55" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>17993.27312146761</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17999.918733195376</v>
       </c>
       <c r="E55" s="7">
+        <f>IF(ROW($A26) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A26)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A26))),
+  WORKDAY(EDATE(fpdate, ROW($A26)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A26)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44895</v>
       </c>
       <c r="F55" s="9">
+        <f>IF(ROW($C26)&lt;=SecondMonthsCounter,IF(ROW($C26)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G55" s="9">
+        <f ca="1">IF(ROW($G26) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4499.9796832988441</v>
       </c>
       <c r="I55" s="20">
@@ -2263,7 +2489,7 @@
         <v>48074.992651649867</v>
       </c>
       <c r="K55" s="9">
-        <v>63151.115962196374</v>
+        <v>27772.405223438749</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -2275,21 +2501,28 @@
 "")</f>
         <v>44925</v>
       </c>
-      <c r="B56" s="9">
-        <f t="shared" si="0"/>
+      <c r="B56" s="9" cm="1">
+        <f t="array" ref="B56">IF(ROW($B27)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B27)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C56" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>17921.261873102532</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17928.131973640866</v>
       </c>
       <c r="E56" s="7">
+        <f>IF(ROW($A27) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A27)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A27))),
+  WORKDAY(EDATE(fpdate, ROW($A27)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A27)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44925</v>
       </c>
       <c r="F56" s="9">
+        <f>IF(ROW($C27)&lt;=SecondMonthsCounter,IF(ROW($C27)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G56" s="9">
+        <f ca="1">IF(ROW($G27) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4482.0329934102165</v>
       </c>
       <c r="I56" s="20">
@@ -2299,7 +2532,7 @@
         <v>43275.652551348321</v>
       </c>
       <c r="K56" s="9">
-        <v>63151.115962196374</v>
+        <v>16651.016139884247</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -2311,21 +2544,28 @@
 "")</f>
         <v>44957</v>
       </c>
-      <c r="B57" s="9">
-        <f t="shared" si="0"/>
+      <c r="B57" s="9" cm="1">
+        <f t="array" ref="B57">IF(ROW($B28)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B28)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>17844.7675044758</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17851.874966025091</v>
       </c>
       <c r="E57" s="7">
+        <f>IF(ROW($A28) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A28)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A28))),
+  WORKDAY(EDATE(fpdate, ROW($A28)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A28)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44957</v>
       </c>
       <c r="F57" s="9">
+        <f>IF(ROW($C28)&lt;=SecondMonthsCounter,IF(ROW($C28)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G57" s="9">
+        <f ca="1">IF(ROW($G28) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4462.9687415062726</v>
       </c>
       <c r="I57" s="20">
@@ -2335,7 +2575,7 @@
         <v>38514.990880681667</v>
       </c>
       <c r="K57" s="9">
-        <v>63151.115962196374</v>
+        <v>5686.5765544563765</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -2347,21 +2587,28 @@
 "")</f>
         <v>44985</v>
       </c>
-      <c r="B58" s="9">
-        <f t="shared" si="0"/>
+      <c r="B58" s="9" cm="1">
+        <f t="array" ref="B58">IF(ROW($B29)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B29)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C58" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>17778.102816064107</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17785.416206412432</v>
       </c>
       <c r="E58" s="7">
+        <f>IF(ROW($A29) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A29)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A29))),
+  WORKDAY(EDATE(fpdate, ROW($A29)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A29)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>44985</v>
       </c>
       <c r="F58" s="9">
+        <f>IF(ROW($C29)&lt;=SecondMonthsCounter,IF(ROW($C29)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G58" s="9">
+        <f ca="1">IF(ROW($G29) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4446.354051603108</v>
       </c>
       <c r="I58" s="20">
@@ -2371,7 +2618,7 @@
         <v>33792.59918036242</v>
       </c>
       <c r="K58" s="9">
-        <v>63151.115962196374</v>
+        <v>-5123.4773890585639</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -2383,21 +2630,28 @@
 "")</f>
         <v>45016</v>
       </c>
-      <c r="B59" s="9">
-        <f t="shared" si="0"/>
+      <c r="B59" s="9" cm="1">
+        <f t="array" ref="B59">IF(ROW($B30)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B30)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C59" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>17704.585945228053</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17712.125421658555</v>
       </c>
       <c r="E59" s="7">
+        <f>IF(ROW($A30) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A30)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A30))),
+  WORKDAY(EDATE(fpdate, ROW($A30)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A30)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45016</v>
       </c>
       <c r="F59" s="9">
+        <f>IF(ROW($C30)&lt;=SecondMonthsCounter,IF(ROW($C30)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G59" s="9">
+        <f ca="1">IF(ROW($G30) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4428.0313554146387</v>
       </c>
       <c r="I59" s="20">
@@ -2407,7 +2661,7 @@
         <v>29108.074216575711</v>
       </c>
       <c r="K59" s="9">
-        <v>63151.115962196374</v>
+        <v>-15781.662522480125</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -2419,21 +2673,28 @@
 "")</f>
         <v>45044</v>
       </c>
-      <c r="B60" s="9">
-        <f t="shared" si="0"/>
+      <c r="B60" s="9" cm="1">
+        <f t="array" ref="B60">IF(ROW($B31)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B31)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C60" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>17638.444948703407</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17646.186920080007</v>
       </c>
       <c r="E60" s="7">
+        <f>IF(ROW($A31) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A31)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A31))),
+  WORKDAY(EDATE(fpdate, ROW($A31)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A31)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45044</v>
       </c>
       <c r="F60" s="9">
+        <f>IF(ROW($C31)&lt;=SecondMonthsCounter,IF(ROW($C31)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G60" s="9">
+        <f ca="1">IF(ROW($G31) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4411.5467300200016</v>
       </c>
       <c r="I60" s="20">
@@ -2443,7 +2704,7 @@
         <v>24461.017903155065</v>
       </c>
       <c r="K60" s="9">
-        <v>63151.115962196374</v>
+        <v>-26290.449606106151</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -2455,21 +2716,28 @@
 "")</f>
         <v>45077</v>
       </c>
-      <c r="B61" s="9">
-        <f t="shared" si="0"/>
+      <c r="B61" s="9" cm="1">
+        <f t="array" ref="B61">IF(ROW($B32)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B32)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C61" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>17560.810204126057</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17568.78875739031</v>
       </c>
       <c r="E61" s="7">
+        <f>IF(ROW($A32) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A32)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A32))),
+  WORKDAY(EDATE(fpdate, ROW($A32)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A32)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45077</v>
       </c>
       <c r="F61" s="9">
+        <f>IF(ROW($C32)&lt;=SecondMonthsCounter,IF(ROW($C32)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G61" s="9">
+        <f ca="1">IF(ROW($G32) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4392.1971893475775</v>
       </c>
       <c r="I61" s="20">
@@ -2479,7 +2747,7 @@
         <v>19851.037225064822</v>
       </c>
       <c r="K61" s="9">
-        <v>63151.115962196374</v>
+        <v>-36652.264260489494</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -2491,21 +2759,28 @@
 "")</f>
         <v>45107</v>
       </c>
-      <c r="B62" s="9">
-        <f t="shared" ref="B62:B93" si="2">IF(ROW($B33) &lt;= MonthsCounter, Monthly1, "")</f>
+      <c r="B62" s="9" cm="1">
+        <f t="array" ref="B62">IF(ROW($B33)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B33)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C62" s="9">
-        <f t="shared" ref="C62:C93" ca="1" si="3">IF(ROW($C33) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v>17490.529724495449</v>
+        <f t="shared" ref="C62:C93" ca="1" si="1">IF(ROW($C33) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v>17498.721418038112</v>
       </c>
       <c r="E62" s="7">
+        <f>IF(ROW($A33) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A33)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A33))),
+  WORKDAY(EDATE(fpdate, ROW($A33)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A33)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45107</v>
       </c>
       <c r="F62" s="9">
+        <f>IF(ROW($C33)&lt;=SecondMonthsCounter,IF(ROW($C33)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G62" s="9">
+        <f ca="1">IF(ROW($G33) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4374.6803545095281</v>
       </c>
       <c r="I62" s="20">
@@ -2515,7 +2790,7 @@
         <v>15277.744163188851</v>
       </c>
       <c r="K62" s="9">
-        <v>63151.115962196374</v>
+        <v>-46869.487877615262</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -2527,21 +2802,28 @@
 "")</f>
         <v>45138</v>
       </c>
-      <c r="B63" s="9">
-        <f t="shared" si="2"/>
+      <c r="B63" s="9" cm="1">
+        <f t="array" ref="B63">IF(ROW($B34)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B34)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C63" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>17418.202039819895</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17426.612055511352</v>
       </c>
       <c r="E63" s="7">
+        <f>IF(ROW($A34) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A34)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A34))),
+  WORKDAY(EDATE(fpdate, ROW($A34)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A34)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45138</v>
       </c>
       <c r="F63" s="9">
+        <f>IF(ROW($C34)&lt;=SecondMonthsCounter,IF(ROW($C34)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G63" s="9">
+        <f ca="1">IF(ROW($G34) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4356.653013877838</v>
       </c>
     </row>
@@ -2554,21 +2836,28 @@
 "")</f>
         <v>45169</v>
       </c>
-      <c r="B64" s="9">
-        <f t="shared" si="2"/>
+      <c r="B64" s="9" cm="1">
+        <f t="array" ref="B64">IF(ROW($B35)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B35)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C64" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>17346.173448085083</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17354.79984384721</v>
       </c>
       <c r="E64" s="7">
+        <f>IF(ROW($A35) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A35)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A35))),
+  WORKDAY(EDATE(fpdate, ROW($A35)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A35)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45169</v>
       </c>
       <c r="F64" s="9">
+        <f>IF(ROW($C35)&lt;=SecondMonthsCounter,IF(ROW($C35)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G64" s="9">
+        <f ca="1">IF(ROW($G35) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4338.6999609618024</v>
       </c>
     </row>
@@ -2581,21 +2870,28 @@
 "")</f>
         <v>45198</v>
       </c>
-      <c r="B65" s="9">
-        <f t="shared" si="2"/>
+      <c r="B65" s="9" cm="1">
+        <f t="array" ref="B65">IF(ROW($B36)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B36)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C65" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>17279.061537494668</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17287.888606054865</v>
       </c>
       <c r="E65" s="7">
+        <f>IF(ROW($A36) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A36)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A36))),
+  WORKDAY(EDATE(fpdate, ROW($A36)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A36)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45198</v>
       </c>
       <c r="F65" s="9">
+        <f>IF(ROW($C36)&lt;=SecondMonthsCounter,IF(ROW($C36)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G65" s="9">
+        <f ca="1">IF(ROW($G36) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4321.9721515137162</v>
       </c>
     </row>
@@ -2608,21 +2904,28 @@
 "")</f>
         <v>45230</v>
       </c>
-      <c r="B66" s="9">
-        <f t="shared" si="2"/>
+      <c r="B66" s="9" cm="1">
+        <f t="array" ref="B66">IF(ROW($B37)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B37)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C66" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>17205.308310063916</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17214.354862827691</v>
       </c>
       <c r="E66" s="7">
+        <f>IF(ROW($A37) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A37)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A37))),
+  WORKDAY(EDATE(fpdate, ROW($A37)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A37)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45230</v>
       </c>
       <c r="F66" s="9">
+        <f>IF(ROW($C37)&lt;=SecondMonthsCounter,IF(ROW($C37)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G66" s="9">
+        <f ca="1">IF(ROW($G37) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4303.5887157069228</v>
       </c>
     </row>
@@ -2635,21 +2938,28 @@
 "")</f>
         <v>45260</v>
       </c>
-      <c r="B67" s="9">
-        <f t="shared" si="2"/>
+      <c r="B67" s="9" cm="1">
+        <f t="array" ref="B67">IF(ROW($B38)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B38)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C67" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>17136.450591873912</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17145.701066566668</v>
       </c>
       <c r="E67" s="7">
+        <f>IF(ROW($A38) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A38)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A38))),
+  WORKDAY(EDATE(fpdate, ROW($A38)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A38)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45260</v>
       </c>
       <c r="F67" s="9">
+        <f>IF(ROW($C38)&lt;=SecondMonthsCounter,IF(ROW($C38)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G67" s="9">
+        <f ca="1">IF(ROW($G38) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4286.4252666416669</v>
       </c>
     </row>
@@ -2662,21 +2972,28 @@
 "")</f>
         <v>45289</v>
       </c>
-      <c r="B68" s="9">
-        <f t="shared" si="2"/>
+      <c r="B68" s="9" cm="1">
+        <f t="array" ref="B68">IF(ROW($B39)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B39)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C68" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>17070.150093761124</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17079.596006784701</v>
       </c>
       <c r="E68" s="7">
+        <f>IF(ROW($A39) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A39)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A39))),
+  WORKDAY(EDATE(fpdate, ROW($A39)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A39)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45289</v>
       </c>
       <c r="F68" s="9">
+        <f>IF(ROW($C39)&lt;=SecondMonthsCounter,IF(ROW($C39)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G68" s="9">
+        <f ca="1">IF(ROW($G39) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4269.8990016961752</v>
       </c>
     </row>
@@ -2689,21 +3006,28 @@
 "")</f>
         <v>45322</v>
       </c>
-      <c r="B69" s="9">
-        <f t="shared" si="2"/>
+      <c r="B69" s="9" cm="1">
+        <f t="array" ref="B69">IF(ROW($B40)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B40)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C69" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16995.016670929337</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17004.682975635569</v>
       </c>
       <c r="E69" s="7">
+        <f>IF(ROW($A40) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A40)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A40))),
+  WORKDAY(EDATE(fpdate, ROW($A40)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A40)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45322</v>
       </c>
       <c r="F69" s="9">
+        <f>IF(ROW($C40)&lt;=SecondMonthsCounter,IF(ROW($C40)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G69" s="9">
+        <f ca="1">IF(ROW($G40) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4251.1707439088923</v>
       </c>
     </row>
@@ -2716,21 +3040,28 @@
 "")</f>
         <v>45351</v>
       </c>
-      <c r="B70" s="9">
-        <f t="shared" si="2"/>
+      <c r="B70" s="9" cm="1">
+        <f t="array" ref="B70">IF(ROW($B41)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B41)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C70" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16929.263377114097</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16939.121609534905</v>
       </c>
       <c r="E70" s="7">
+        <f>IF(ROW($A41) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A41)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A41))),
+  WORKDAY(EDATE(fpdate, ROW($A41)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A41)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45351</v>
       </c>
       <c r="F70" s="9">
+        <f>IF(ROW($C41)&lt;=SecondMonthsCounter,IF(ROW($C41)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G70" s="9">
+        <f ca="1">IF(ROW($G41) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4234.7804023837261</v>
       </c>
     </row>
@@ -2743,21 +3074,28 @@
 "")</f>
         <v>45379</v>
       </c>
-      <c r="B71" s="9">
-        <f t="shared" si="2"/>
+      <c r="B71" s="9" cm="1">
+        <f t="array" ref="B71">IF(ROW($B42)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B42)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C71" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16866.01883958836</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16876.060837865811</v>
       </c>
       <c r="E71" s="7">
+        <f>IF(ROW($A42) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A42)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A42))),
+  WORKDAY(EDATE(fpdate, ROW($A42)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A42)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45379</v>
       </c>
       <c r="F71" s="9">
+        <f>IF(ROW($C42)&lt;=SecondMonthsCounter,IF(ROW($C42)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G71" s="9">
+        <f ca="1">IF(ROW($G42) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4219.0152094664527</v>
       </c>
     </row>
@@ -2770,21 +3108,28 @@
 "")</f>
         <v>45412</v>
       </c>
-      <c r="B72" s="9">
-        <f t="shared" si="2"/>
+      <c r="B72" s="9" cm="1">
+        <f t="array" ref="B72">IF(ROW($B43)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B43)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C72" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16791.783890393228</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16802.040534884432</v>
       </c>
       <c r="E72" s="7">
+        <f>IF(ROW($A43) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A43)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A43))),
+  WORKDAY(EDATE(fpdate, ROW($A43)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A43)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45412</v>
       </c>
       <c r="F72" s="9">
+        <f>IF(ROW($C43)&lt;=SecondMonthsCounter,IF(ROW($C43)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G72" s="9">
+        <f ca="1">IF(ROW($G43) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4200.5101337211081</v>
       </c>
     </row>
@@ -2797,21 +3142,28 @@
 "")</f>
         <v>45443</v>
       </c>
-      <c r="B73" s="9">
-        <f t="shared" si="2"/>
+      <c r="B73" s="9" cm="1">
+        <f t="array" ref="B73">IF(ROW($B44)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B44)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C73" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16722.345693294857</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16732.802080075369</v>
       </c>
       <c r="E73" s="7">
+        <f>IF(ROW($A44) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A44)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A44))),
+  WORKDAY(EDATE(fpdate, ROW($A44)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A44)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45443</v>
       </c>
       <c r="F73" s="9">
+        <f>IF(ROW($C44)&lt;=SecondMonthsCounter,IF(ROW($C44)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G73" s="9">
+        <f ca="1">IF(ROW($G44) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4183.2005200188423</v>
       </c>
     </row>
@@ -2824,21 +3176,28 @@
 "")</f>
         <v>45471</v>
       </c>
-      <c r="B74" s="9">
-        <f t="shared" si="2"/>
+      <c r="B74" s="9" cm="1">
+        <f t="array" ref="B74">IF(ROW($B45)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B45)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C74" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16659.874161240627</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16670.509392433181</v>
       </c>
       <c r="E74" s="7">
+        <f>IF(ROW($A45) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A45)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A45))),
+  WORKDAY(EDATE(fpdate, ROW($A45)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A45)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45471</v>
       </c>
       <c r="F74" s="9">
+        <f>IF(ROW($C45)&lt;=SecondMonthsCounter,IF(ROW($C45)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G74" s="9">
+        <f ca="1">IF(ROW($G45) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4167.6273481082953</v>
       </c>
     </row>
@@ -2851,21 +3210,28 @@
 "")</f>
         <v>45504</v>
       </c>
-      <c r="B75" s="9">
-        <f t="shared" si="2"/>
+      <c r="B75" s="9" cm="1">
+        <f t="array" ref="B75">IF(ROW($B46)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B46)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C75" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16586.546547669244</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16597.390661235371</v>
       </c>
       <c r="E75" s="7">
+        <f>IF(ROW($A46) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A46)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A46))),
+  WORKDAY(EDATE(fpdate, ROW($A46)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A46)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45504</v>
       </c>
       <c r="F75" s="9">
+        <f>IF(ROW($C46)&lt;=SecondMonthsCounter,IF(ROW($C46)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G75" s="9">
+        <f ca="1">IF(ROW($G46) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4149.3476653088428</v>
       </c>
     </row>
@@ -2878,21 +3244,28 @@
 "")</f>
         <v>45534</v>
       </c>
-      <c r="B76" s="9">
-        <f t="shared" si="2"/>
+      <c r="B76" s="9" cm="1">
+        <f t="array" ref="B76">IF(ROW($B47)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B47)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C76" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16520.165188652463</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16531.197423905189</v>
       </c>
       <c r="E76" s="7">
+        <f>IF(ROW($A47) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A47)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A47))),
+  WORKDAY(EDATE(fpdate, ROW($A47)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A47)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45534</v>
       </c>
       <c r="F76" s="9">
+        <f>IF(ROW($C47)&lt;=SecondMonthsCounter,IF(ROW($C47)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G76" s="9">
+        <f ca="1">IF(ROW($G47) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4132.7993559762972</v>
       </c>
     </row>
@@ -2905,21 +3278,28 @@
 "")</f>
         <v>45565</v>
       </c>
-      <c r="B77" s="9">
-        <f t="shared" si="2"/>
+      <c r="B77" s="9" cm="1">
+        <f t="array" ref="B77">IF(ROW($B48)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B48)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C77" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16451.850202349931</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16463.075069159146</v>
       </c>
       <c r="E77" s="7">
+        <f>IF(ROW($A48) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A48)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A48))),
+  WORKDAY(EDATE(fpdate, ROW($A48)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A48)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45565</v>
       </c>
       <c r="F77" s="9">
+        <f>IF(ROW($C48)&lt;=SecondMonthsCounter,IF(ROW($C48)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G77" s="9">
+        <f ca="1">IF(ROW($G48) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4115.7687672897864</v>
       </c>
     </row>
@@ -2932,21 +3312,28 @@
 "")</f>
         <v>45596</v>
       </c>
-      <c r="B78" s="9">
-        <f t="shared" si="2"/>
+      <c r="B78" s="9" cm="1">
+        <f t="array" ref="B78">IF(ROW($B49)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B49)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C78" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16383.817715483707</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16395.233435470211</v>
       </c>
       <c r="E78" s="7">
+        <f>IF(ROW($A49) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A49)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A49))),
+  WORKDAY(EDATE(fpdate, ROW($A49)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A49)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45596</v>
       </c>
       <c r="F78" s="9">
+        <f>IF(ROW($C49)&lt;=SecondMonthsCounter,IF(ROW($C49)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G78" s="9">
+        <f ca="1">IF(ROW($G49) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4098.8083588675527</v>
       </c>
     </row>
@@ -2959,21 +3346,28 @@
 "")</f>
         <v>45625</v>
       </c>
-      <c r="B79" s="9">
-        <f t="shared" si="2"/>
+      <c r="B79" s="9" cm="1">
+        <f t="array" ref="B79">IF(ROW($B50)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B50)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C79" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16320.429135118013</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16332.021795293869</v>
       </c>
       <c r="E79" s="7">
+        <f>IF(ROW($A50) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A50)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A50))),
+  WORKDAY(EDATE(fpdate, ROW($A50)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A50)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45625</v>
       </c>
       <c r="F79" s="9">
+        <f>IF(ROW($C50)&lt;=SecondMonthsCounter,IF(ROW($C50)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G79" s="9">
+        <f ca="1">IF(ROW($G50) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4083.0054488234673</v>
       </c>
     </row>
@@ -2986,21 +3380,28 @@
 "")</f>
         <v>45657</v>
       </c>
-      <c r="B80" s="9">
-        <f t="shared" si="2"/>
+      <c r="B80" s="9" cm="1">
+        <f t="array" ref="B80">IF(ROW($B51)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B51)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C80" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16250.76769435296</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16262.553815458832</v>
       </c>
       <c r="E80" s="7">
+        <f>IF(ROW($A51) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A51)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A51))),
+  WORKDAY(EDATE(fpdate, ROW($A51)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A51)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45657</v>
       </c>
       <c r="F80" s="9">
+        <f>IF(ROW($C51)&lt;=SecondMonthsCounter,IF(ROW($C51)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G80" s="9">
+        <f ca="1">IF(ROW($G51) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4065.638453864708</v>
       </c>
     </row>
@@ -3013,21 +3414,28 @@
 "")</f>
         <v>45685</v>
       </c>
-      <c r="B81" s="9">
-        <f t="shared" si="2"/>
+      <c r="B81" s="9" cm="1">
+        <f t="array" ref="B81">IF(ROW($B52)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B52)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C81" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16190.057888830241</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16202.011762774371</v>
       </c>
       <c r="E81" s="7">
+        <f>IF(ROW($A52) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A52)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A52))),
+  WORKDAY(EDATE(fpdate, ROW($A52)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A52)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45685</v>
       </c>
       <c r="F81" s="9">
+        <f>IF(ROW($C52)&lt;=SecondMonthsCounter,IF(ROW($C52)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G81" s="9">
+        <f ca="1">IF(ROW($G52) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4050.5029406935928</v>
       </c>
     </row>
@@ -3040,21 +3448,28 @@
 "")</f>
         <v>45716</v>
       </c>
-      <c r="B82" s="9">
-        <f t="shared" si="2"/>
+      <c r="B82" s="9" cm="1">
+        <f t="array" ref="B82">IF(ROW($B53)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B53)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C82" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16123.107978203901</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16135.245928176861</v>
       </c>
       <c r="E82" s="7">
+        <f>IF(ROW($A53) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A53)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A53))),
+  WORKDAY(EDATE(fpdate, ROW($A53)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A53)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45716</v>
       </c>
       <c r="F82" s="9">
+        <f>IF(ROW($C53)&lt;=SecondMonthsCounter,IF(ROW($C53)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G82" s="9">
+        <f ca="1">IF(ROW($G53) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4033.8114820442152</v>
       </c>
     </row>
@@ -3067,21 +3482,28 @@
 "")</f>
         <v>45747</v>
       </c>
-      <c r="B83" s="9">
-        <f t="shared" si="2"/>
+      <c r="B83" s="9" cm="1">
+        <f t="array" ref="B83">IF(ROW($B54)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B54)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C83" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>16056.434922086895</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16068.755224639292</v>
       </c>
       <c r="E83" s="7">
+        <f>IF(ROW($A54) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A54)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A54))),
+  WORKDAY(EDATE(fpdate, ROW($A54)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A54)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45747</v>
       </c>
       <c r="F83" s="9">
+        <f>IF(ROW($C54)&lt;=SecondMonthsCounter,IF(ROW($C54)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G83" s="9">
+        <f ca="1">IF(ROW($G54) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4017.1888061598229</v>
       </c>
     </row>
@@ -3094,21 +3516,28 @@
 "")</f>
         <v>45777</v>
       </c>
-      <c r="B84" s="9">
-        <f t="shared" si="2"/>
+      <c r="B84" s="9" cm="1">
+        <f t="array" ref="B84">IF(ROW($B55)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B55)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C84" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>15992.175133707833</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16004.670275993152</v>
       </c>
       <c r="E84" s="7">
+        <f>IF(ROW($A55) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A55)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A55))),
+  WORKDAY(EDATE(fpdate, ROW($A55)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A55)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45777</v>
       </c>
       <c r="F84" s="9">
+        <f>IF(ROW($C55)&lt;=SecondMonthsCounter,IF(ROW($C55)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G84" s="9">
+        <f ca="1">IF(ROW($G55) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>4001.1675689982881</v>
       </c>
     </row>
@@ -3121,21 +3550,28 @@
 "")</f>
         <v>45807</v>
       </c>
-      <c r="B85" s="9">
-        <f t="shared" si="2"/>
+      <c r="B85" s="9" cm="1">
+        <f t="array" ref="B85">IF(ROW($B56)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B56)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C85" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>15928.172520749258</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15940.840909100894</v>
       </c>
       <c r="E85" s="7">
+        <f>IF(ROW($A56) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A56)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A56))),
+  WORKDAY(EDATE(fpdate, ROW($A56)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A56)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45807</v>
       </c>
       <c r="F85" s="9">
+        <f>IF(ROW($C56)&lt;=SecondMonthsCounter,IF(ROW($C56)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G85" s="9">
+        <f ca="1">IF(ROW($G56) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3985.2102272752236</v>
       </c>
     </row>
@@ -3148,21 +3584,28 @@
 "")</f>
         <v>45838</v>
       </c>
-      <c r="B86" s="9">
-        <f t="shared" si="2"/>
+      <c r="B86" s="9" cm="1">
+        <f t="array" ref="B86">IF(ROW($B57)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B57)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C86" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>15862.305571166526</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15875.151316779551</v>
       </c>
       <c r="E86" s="7">
+        <f>IF(ROW($A57) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A57)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A57))),
+  WORKDAY(EDATE(fpdate, ROW($A57)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A57)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45838</v>
       </c>
       <c r="F86" s="9">
+        <f>IF(ROW($C57)&lt;=SecondMonthsCounter,IF(ROW($C57)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G86" s="9">
+        <f ca="1">IF(ROW($G57) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3968.7878291948878</v>
       </c>
     </row>
@@ -3175,21 +3618,28 @@
 "")</f>
         <v>45869</v>
       </c>
-      <c r="B87" s="9">
-        <f t="shared" si="2"/>
+      <c r="B87" s="9" cm="1">
+        <f t="array" ref="B87">IF(ROW($B58)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B58)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C87" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>15796.710997780228</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15809.732420500146</v>
       </c>
       <c r="E87" s="7">
+        <f>IF(ROW($A58) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A58)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A58))),
+  WORKDAY(EDATE(fpdate, ROW($A58)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A58)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45869</v>
       </c>
       <c r="F87" s="9">
+        <f>IF(ROW($C58)&lt;=SecondMonthsCounter,IF(ROW($C58)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G87" s="9">
+        <f ca="1">IF(ROW($G58) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3952.4331051250365</v>
       </c>
     </row>
@@ -3202,21 +3652,28 @@
 "")</f>
         <v>45898</v>
       </c>
-      <c r="B88" s="9">
-        <f t="shared" si="2"/>
+      <c r="B88" s="9" cm="1">
+        <f t="array" ref="B88">IF(ROW($B59)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B59)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C88" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>15735.59391859971</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15748.778172975568</v>
       </c>
       <c r="E88" s="7">
+        <f>IF(ROW($A59) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A59)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A59))),
+  WORKDAY(EDATE(fpdate, ROW($A59)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A59)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45898</v>
       </c>
       <c r="F88" s="9">
+        <f>IF(ROW($C59)&lt;=SecondMonthsCounter,IF(ROW($C59)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G88" s="9">
+        <f ca="1">IF(ROW($G59) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3937.194543243892</v>
       </c>
     </row>
@@ -3229,21 +3686,28 @@
 "")</f>
         <v>45930</v>
       </c>
-      <c r="B89" s="9">
-        <f t="shared" si="2"/>
+      <c r="B89" s="9" cm="1">
+        <f t="array" ref="B89">IF(ROW($B60)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B60)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v>20000</v>
       </c>
       <c r="C89" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>15668.428764142789</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15681.791010071955</v>
       </c>
       <c r="E89" s="7">
+        <f>IF(ROW($A60) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A60)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A60))),
+  WORKDAY(EDATE(fpdate, ROW($A60)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A60)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45930</v>
       </c>
       <c r="F89" s="9">
+        <f>IF(ROW($C60)&lt;=SecondMonthsCounter,IF(ROW($C60)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G89" s="9">
+        <f ca="1">IF(ROW($G60) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3920.4477525179886</v>
       </c>
     </row>
@@ -3256,21 +3720,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B90" s="9" t="str">
-        <f t="shared" si="2"/>
+      <c r="B90" s="9" t="str" cm="1">
+        <f t="array" ref="B90">IF(ROW($B61)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B61)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C90" s="9" t="str">
-        <f t="shared" ref="C90:C113" ca="1" si="4">IF(ROW($A61) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <f t="shared" ref="C90:C113" ca="1" si="2">IF(ROW($A61) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v/>
       </c>
       <c r="E90" s="7">
+        <f>IF(ROW($A61) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A61)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A61))),
+  WORKDAY(EDATE(fpdate, ROW($A61)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A61)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45961</v>
       </c>
       <c r="F90" s="9">
+        <f>IF(ROW($C61)&lt;=SecondMonthsCounter,IF(ROW($C61)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G90" s="9">
+        <f ca="1">IF(ROW($G61) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3904.2922299800903</v>
       </c>
     </row>
@@ -3283,21 +3754,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B91" s="9" t="str">
-        <f t="shared" si="2"/>
+      <c r="B91" s="9" t="str" cm="1">
+        <f t="array" ref="B91">IF(ROW($B62)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B62)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C91" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E91" s="7">
+        <f>IF(ROW($A62) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A62)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A62))),
+  WORKDAY(EDATE(fpdate, ROW($A62)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A62)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>45989</v>
       </c>
       <c r="F91" s="9">
+        <f>IF(ROW($C62)&lt;=SecondMonthsCounter,IF(ROW($C62)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G91" s="9">
+        <f ca="1">IF(ROW($G62) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3889.757374719024</v>
       </c>
     </row>
@@ -3310,21 +3788,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B92" s="9" t="str">
-        <f t="shared" si="2"/>
+      <c r="B92" s="9" t="str" cm="1">
+        <f t="array" ref="B92">IF(ROW($B63)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B63)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C92" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E92" s="7">
+        <f>IF(ROW($A63) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A63)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A63))),
+  WORKDAY(EDATE(fpdate, ROW($A63)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A63)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46022</v>
       </c>
       <c r="F92" s="9">
+        <f>IF(ROW($C63)&lt;=SecondMonthsCounter,IF(ROW($C63)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G92" s="9">
+        <f ca="1">IF(ROW($G63) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3872.6964609094025</v>
       </c>
     </row>
@@ -3337,21 +3822,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B93" s="9" t="str">
-        <f t="shared" si="2"/>
+      <c r="B93" s="9" t="str" cm="1">
+        <f t="array" ref="B93">IF(ROW($B64)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B64)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C93" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E93" s="7">
+        <f>IF(ROW($A64) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A64)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A64))),
+  WORKDAY(EDATE(fpdate, ROW($A64)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A64)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46052</v>
       </c>
       <c r="F93" s="9">
+        <f>IF(ROW($C64)&lt;=SecondMonthsCounter,IF(ROW($C64)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G93" s="9">
+        <f ca="1">IF(ROW($G64) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3857.2514839743553</v>
       </c>
     </row>
@@ -3364,21 +3856,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B94" s="9" t="str">
-        <f t="shared" ref="B94:B125" si="5">IF(ROW($B65) &lt;= MonthsCounter, Monthly1, "")</f>
+      <c r="B94" s="9" t="str" cm="1">
+        <f t="array" ref="B94">IF(ROW($B65)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B65)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C94" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E94" s="7">
+        <f>IF(ROW($A65) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A65)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A65))),
+  WORKDAY(EDATE(fpdate, ROW($A65)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A65)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46080</v>
       </c>
       <c r="F94" s="9">
+        <f>IF(ROW($C65)&lt;=SecondMonthsCounter,IF(ROW($C65)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G94" s="9">
+        <f ca="1">IF(ROW($G65) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3842.8917514741615</v>
       </c>
     </row>
@@ -3391,21 +3890,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B95" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B95" s="9" t="str" cm="1">
+        <f t="array" ref="B95">IF(ROW($B66)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B66)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C95" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E95" s="7">
+        <f>IF(ROW($A66) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A66)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A66))),
+  WORKDAY(EDATE(fpdate, ROW($A66)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A66)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46112</v>
       </c>
       <c r="F95" s="9">
+        <f>IF(ROW($C66)&lt;=SecondMonthsCounter,IF(ROW($C66)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G95" s="9">
+        <f ca="1">IF(ROW($G66) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3826.546076085916</v>
       </c>
     </row>
@@ -3418,21 +3924,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B96" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B96" s="9" t="str" cm="1">
+        <f t="array" ref="B96">IF(ROW($B67)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B67)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C96" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E96" s="7">
+        <f>IF(ROW($A67) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A67)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A67))),
+  WORKDAY(EDATE(fpdate, ROW($A67)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A67)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46142</v>
       </c>
       <c r="F96" s="9">
+        <f>IF(ROW($C67)&lt;=SecondMonthsCounter,IF(ROW($C67)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G96" s="9">
+        <f ca="1">IF(ROW($G67) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3811.2851547917749</v>
       </c>
     </row>
@@ -3445,21 +3958,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B97" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B97" s="9" t="str" cm="1">
+        <f t="array" ref="B97">IF(ROW($B68)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B68)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C97" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E97" s="7">
+        <f>IF(ROW($A68) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A68)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A68))),
+  WORKDAY(EDATE(fpdate, ROW($A68)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A68)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46171</v>
       </c>
       <c r="F97" s="9">
+        <f>IF(ROW($C68)&lt;=SecondMonthsCounter,IF(ROW($C68)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G97" s="9">
+        <f ca="1">IF(ROW($G68) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3796.5907872634089</v>
       </c>
     </row>
@@ -3472,21 +3992,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B98" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B98" s="9" t="str" cm="1">
+        <f t="array" ref="B98">IF(ROW($B69)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B69)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C98" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E98" s="7">
+        <f>IF(ROW($A69) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A69)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A69))),
+  WORKDAY(EDATE(fpdate, ROW($A69)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A69)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46203</v>
       </c>
       <c r="F98" s="9">
+        <f>IF(ROW($C69)&lt;=SecondMonthsCounter,IF(ROW($C69)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G98" s="9">
+        <f ca="1">IF(ROW($G69) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3780.4420522471792</v>
       </c>
     </row>
@@ -3499,21 +4026,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B99" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B99" s="9" t="str" cm="1">
+        <f t="array" ref="B99">IF(ROW($B70)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B70)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C99" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E99" s="7">
+        <f>IF(ROW($A70) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A70)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A70))),
+  WORKDAY(EDATE(fpdate, ROW($A70)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A70)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46234</v>
       </c>
       <c r="F99" s="9">
+        <f>IF(ROW($C70)&lt;=SecondMonthsCounter,IF(ROW($C70)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G99" s="9">
+        <f ca="1">IF(ROW($G70) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3764.8634702499899</v>
       </c>
     </row>
@@ -3526,21 +4060,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B100" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B100" s="9" t="str" cm="1">
+        <f t="array" ref="B100">IF(ROW($B71)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B71)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C100" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E100" s="7">
+        <f>IF(ROW($A71) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A71)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A71))),
+  WORKDAY(EDATE(fpdate, ROW($A71)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A71)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46265</v>
       </c>
       <c r="F100" s="9">
+        <f>IF(ROW($C71)&lt;=SecondMonthsCounter,IF(ROW($C71)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G100" s="9">
+        <f ca="1">IF(ROW($G71) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3749.3490850355279</v>
       </c>
     </row>
@@ -3553,21 +4094,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B101" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B101" s="9" t="str" cm="1">
+        <f t="array" ref="B101">IF(ROW($B72)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B72)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C101" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E101" s="7">
+        <f>IF(ROW($A72) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A72)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A72))),
+  WORKDAY(EDATE(fpdate, ROW($A72)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A72)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46295</v>
       </c>
       <c r="F101" s="9">
+        <f>IF(ROW($C72)&lt;=SecondMonthsCounter,IF(ROW($C72)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G101" s="9">
+        <f ca="1">IF(ROW($G72) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3734.3960385666564</v>
       </c>
     </row>
@@ -3580,21 +4128,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B102" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B102" s="9" t="str" cm="1">
+        <f t="array" ref="B102">IF(ROW($B73)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B73)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C102" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E102" s="7">
+        <f>IF(ROW($A73) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A73)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A73))),
+  WORKDAY(EDATE(fpdate, ROW($A73)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A73)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46325</v>
       </c>
       <c r="F102" s="9">
+        <f>IF(ROW($C73)&lt;=SecondMonthsCounter,IF(ROW($C73)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G102" s="9">
+        <f ca="1">IF(ROW($G73) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3719.5026274087768</v>
       </c>
     </row>
@@ -3607,21 +4162,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B103" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B103" s="9" t="str" cm="1">
+        <f t="array" ref="B103">IF(ROW($B74)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B74)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C103" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E103" s="7">
+        <f>IF(ROW($A74) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A74)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A74))),
+  WORKDAY(EDATE(fpdate, ROW($A74)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A74)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46356</v>
       </c>
       <c r="F103" s="9">
+        <f>IF(ROW($C74)&lt;=SecondMonthsCounter,IF(ROW($C74)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G103" s="9">
+        <f ca="1">IF(ROW($G74) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3704.175166791993</v>
       </c>
     </row>
@@ -3634,21 +4196,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B104" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B104" s="9" t="str" cm="1">
+        <f t="array" ref="B104">IF(ROW($B75)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B75)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C104" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E104" s="7">
+        <f>IF(ROW($A75) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A75)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A75))),
+  WORKDAY(EDATE(fpdate, ROW($A75)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A75)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46387</v>
       </c>
       <c r="F104" s="9">
+        <f>IF(ROW($C75)&lt;=SecondMonthsCounter,IF(ROW($C75)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G104" s="9">
+        <f ca="1">IF(ROW($G75) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3688.9108681278935</v>
       </c>
     </row>
@@ -3661,21 +4230,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B105" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B105" s="9" t="str" cm="1">
+        <f t="array" ref="B105">IF(ROW($B76)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B76)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C105" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E105" s="7">
+        <f>IF(ROW($A76) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A76)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A76))),
+  WORKDAY(EDATE(fpdate, ROW($A76)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A76)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46416</v>
       </c>
       <c r="F105" s="9">
+        <f>IF(ROW($C76)&lt;=SecondMonthsCounter,IF(ROW($C76)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G105" s="9">
+        <f ca="1">IF(ROW($G76) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3674.6883133008159</v>
       </c>
     </row>
@@ -3688,21 +4264,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B106" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B106" s="9" t="str" cm="1">
+        <f t="array" ref="B106">IF(ROW($B77)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B77)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C106" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E106" s="7">
+        <f>IF(ROW($A77) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A77)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A77))),
+  WORKDAY(EDATE(fpdate, ROW($A77)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A77)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46444</v>
       </c>
       <c r="F106" s="9">
+        <f>IF(ROW($C77)&lt;=SecondMonthsCounter,IF(ROW($C77)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G106" s="9">
+        <f ca="1">IF(ROW($G77) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3661.0082249218704</v>
       </c>
     </row>
@@ -3715,21 +4298,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B107" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B107" s="9" t="str" cm="1">
+        <f t="array" ref="B107">IF(ROW($B78)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B78)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C107" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E107" s="7">
+        <f>IF(ROW($A78) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A78)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A78))),
+  WORKDAY(EDATE(fpdate, ROW($A78)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A78)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46477</v>
       </c>
       <c r="F107" s="9">
+        <f>IF(ROW($C78)&lt;=SecondMonthsCounter,IF(ROW($C78)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G107" s="9">
+        <f ca="1">IF(ROW($G78) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3644.9506306390858</v>
       </c>
     </row>
@@ -3742,21 +4332,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B108" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B108" s="9" t="str" cm="1">
+        <f t="array" ref="B108">IF(ROW($B79)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B79)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C108" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E108" s="7">
+        <f>IF(ROW($A79) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A79)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A79))),
+  WORKDAY(EDATE(fpdate, ROW($A79)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A79)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46507</v>
       </c>
       <c r="F108" s="9">
+        <f>IF(ROW($C79)&lt;=SecondMonthsCounter,IF(ROW($C79)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G108" s="9">
+        <f ca="1">IF(ROW($G79) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3630.4139430913133</v>
       </c>
     </row>
@@ -3769,21 +4366,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B109" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B109" s="9" t="str" cm="1">
+        <f t="array" ref="B109">IF(ROW($B80)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B80)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C109" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E109" s="7">
+        <f>IF(ROW($A80) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A80)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A80))),
+  WORKDAY(EDATE(fpdate, ROW($A80)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A80)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46538</v>
       </c>
       <c r="F109" s="9">
+        <f>IF(ROW($C80)&lt;=SecondMonthsCounter,IF(ROW($C80)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G109" s="9">
+        <f ca="1">IF(ROW($G80) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3615.4536023389483</v>
       </c>
     </row>
@@ -3796,21 +4400,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B110" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B110" s="9" t="str" cm="1">
+        <f t="array" ref="B110">IF(ROW($B81)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B81)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C110" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E110" s="7">
+        <f>IF(ROW($A81) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A81)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A81))),
+  WORKDAY(EDATE(fpdate, ROW($A81)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A81)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46568</v>
       </c>
       <c r="F110" s="9">
+        <f>IF(ROW($C81)&lt;=SecondMonthsCounter,IF(ROW($C81)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G110" s="9">
+        <f ca="1">IF(ROW($G81) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3601.0345539933046</v>
       </c>
     </row>
@@ -3823,21 +4434,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B111" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B111" s="9" t="str" cm="1">
+        <f t="array" ref="B111">IF(ROW($B82)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B82)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C111" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E111" s="7">
+        <f>IF(ROW($A82) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A82)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A82))),
+  WORKDAY(EDATE(fpdate, ROW($A82)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A82)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46598</v>
       </c>
       <c r="F111" s="9">
+        <f>IF(ROW($C82)&lt;=SecondMonthsCounter,IF(ROW($C82)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G111" s="9">
+        <f ca="1">IF(ROW($G82) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3586.6730112826549</v>
       </c>
     </row>
@@ -3850,21 +4468,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B112" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B112" s="9" t="str" cm="1">
+        <f t="array" ref="B112">IF(ROW($B83)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B83)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C112" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E112" s="7">
+        <f>IF(ROW($A83) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A83)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A83))),
+  WORKDAY(EDATE(fpdate, ROW($A83)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A83)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46630</v>
       </c>
       <c r="F112" s="9">
+        <f>IF(ROW($C83)&lt;=SecondMonthsCounter,IF(ROW($C83)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>5000</v>
       </c>
       <c r="G112" s="9">
+        <f ca="1">IF(ROW($G83) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>3571.4171579936001</v>
       </c>
     </row>
@@ -3877,21 +4502,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B113" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B113" s="9" t="str" cm="1">
+        <f t="array" ref="B113">IF(ROW($B84)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B84)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C113" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="E113" s="7">
+        <f>IF(ROW($A84) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A84)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A84))),
+  WORKDAY(EDATE(fpdate, ROW($A84)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A84)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
         <v>46660</v>
       </c>
       <c r="F113" s="9">
+        <f>IF(ROW($C84)&lt;=SecondMonthsCounter,IF(ROW($C84)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
         <v>1000000</v>
       </c>
       <c r="G113" s="9">
+        <f ca="1">IF(ROW($G84) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
         <v>711434.74690641719</v>
       </c>
     </row>
@@ -3904,22 +4536,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B114" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B114" s="9" t="str" cm="1">
+        <f t="array" ref="B114">IF(ROW($B85)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B85)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C114" s="9" t="str">
-        <f t="shared" ref="C114:C149" ca="1" si="6">IF(ROW($C85) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
-        <v/>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ref="C114:C149" ca="1" si="3">IF(ROW($C85) &lt;= MonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
+      </c>
+      <c r="E114" s="7" t="str">
+        <f>IF(ROW($A85) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A85)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A85))),
+  WORKDAY(EDATE(fpdate, ROW($A85)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A85)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F114" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G114" s="9" t="s">
-        <v>18</v>
+      <c r="G114" s="9" t="str">
+        <f ca="1">IF(ROW($G85) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -3931,22 +4569,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B115" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B115" s="9" t="str" cm="1">
+        <f t="array" ref="B115">IF(ROW($B86)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B86)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C115" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E115" s="7" t="str">
+        <f>IF(ROW($A86) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A86)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A86))),
+  WORKDAY(EDATE(fpdate, ROW($A86)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A86)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F115" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G115" s="9" t="s">
-        <v>18</v>
+      <c r="G115" s="9" t="str">
+        <f ca="1">IF(ROW($G86) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -3958,22 +4602,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B116" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B116" s="9" t="str" cm="1">
+        <f t="array" ref="B116">IF(ROW($B87)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B87)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C116" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E116" s="7" t="str">
+        <f>IF(ROW($A87) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A87)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A87))),
+  WORKDAY(EDATE(fpdate, ROW($A87)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A87)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F116" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G116" s="9" t="s">
-        <v>18</v>
+      <c r="G116" s="9" t="str">
+        <f ca="1">IF(ROW($G87) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -3985,22 +4635,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B117" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B117" s="9" t="str" cm="1">
+        <f t="array" ref="B117">IF(ROW($B88)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B88)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C117" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E117" s="7" t="str">
+        <f>IF(ROW($A88) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A88)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A88))),
+  WORKDAY(EDATE(fpdate, ROW($A88)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A88)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F117" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G117" s="9" t="s">
-        <v>18</v>
+      <c r="G117" s="9" t="str">
+        <f ca="1">IF(ROW($G88) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -4012,22 +4668,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B118" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B118" s="9" t="str" cm="1">
+        <f t="array" ref="B118">IF(ROW($B89)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B89)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C118" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E118" s="7" t="str">
+        <f>IF(ROW($A89) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A89)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A89))),
+  WORKDAY(EDATE(fpdate, ROW($A89)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A89)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F118" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G118" s="9" t="s">
-        <v>18</v>
+      <c r="G118" s="9" t="str">
+        <f ca="1">IF(ROW($G89) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -4039,22 +4701,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B119" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B119" s="9" t="str" cm="1">
+        <f t="array" ref="B119">IF(ROW($B90)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B90)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C119" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E119" s="7" t="str">
+        <f>IF(ROW($A90) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A90)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A90))),
+  WORKDAY(EDATE(fpdate, ROW($A90)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A90)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F119" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G119" s="9" t="s">
-        <v>18</v>
+      <c r="G119" s="9" t="str">
+        <f ca="1">IF(ROW($G90) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -4066,22 +4734,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B120" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B120" s="9" t="str" cm="1">
+        <f t="array" ref="B120">IF(ROW($B91)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B91)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C120" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E120" s="7" t="str">
+        <f>IF(ROW($A91) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A91)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A91))),
+  WORKDAY(EDATE(fpdate, ROW($A91)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A91)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F120" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G120" s="9" t="s">
-        <v>18</v>
+      <c r="G120" s="9" t="str">
+        <f ca="1">IF(ROW($G91) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -4093,22 +4767,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B121" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B121" s="9" t="str" cm="1">
+        <f t="array" ref="B121">IF(ROW($B92)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B92)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C121" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E121" s="7" t="str">
+        <f>IF(ROW($A92) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A92)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A92))),
+  WORKDAY(EDATE(fpdate, ROW($A92)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A92)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F121" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G121" s="9" t="s">
-        <v>18</v>
+      <c r="G121" s="9" t="str">
+        <f ca="1">IF(ROW($G92) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -4120,22 +4800,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B122" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B122" s="9" t="str" cm="1">
+        <f t="array" ref="B122">IF(ROW($B93)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B93)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C122" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E122" s="7" t="str">
+        <f>IF(ROW($A93) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A93)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A93))),
+  WORKDAY(EDATE(fpdate, ROW($A93)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A93)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F122" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G122" s="9" t="s">
-        <v>18</v>
+      <c r="G122" s="9" t="str">
+        <f ca="1">IF(ROW($G93) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -4147,22 +4833,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B123" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B123" s="9" t="str" cm="1">
+        <f t="array" ref="B123">IF(ROW($B94)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B94)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C123" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E123" s="7" t="str">
+        <f>IF(ROW($A94) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A94)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A94))),
+  WORKDAY(EDATE(fpdate, ROW($A94)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A94)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F123" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G123" s="9" t="s">
-        <v>18</v>
+      <c r="G123" s="9" t="str">
+        <f ca="1">IF(ROW($G94) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -4174,22 +4866,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B124" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B124" s="9" t="str" cm="1">
+        <f t="array" ref="B124">IF(ROW($B95)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B95)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C124" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E124" s="7" t="str">
+        <f>IF(ROW($A95) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A95)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A95))),
+  WORKDAY(EDATE(fpdate, ROW($A95)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A95)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F124" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G124" s="9" t="s">
-        <v>18</v>
+      <c r="G124" s="9" t="str">
+        <f ca="1">IF(ROW($G95) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -4201,22 +4899,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B125" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="B125" s="9" t="str" cm="1">
+        <f t="array" ref="B125">IF(ROW($B96)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B96)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C125" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E125" s="7" t="str">
+        <f>IF(ROW($A96) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A96)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A96))),
+  WORKDAY(EDATE(fpdate, ROW($A96)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A96)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F125" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G125" s="9" t="s">
-        <v>18</v>
+      <c r="G125" s="9" t="str">
+        <f ca="1">IF(ROW($G96) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -4228,22 +4932,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B126" s="9" t="str">
-        <f t="shared" ref="B126:B157" si="7">IF(ROW($B97) &lt;= MonthsCounter, Monthly1, "")</f>
+      <c r="B126" s="9" t="str" cm="1">
+        <f t="array" ref="B126">IF(ROW($B97)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B97)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C126" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E126" s="7" t="str">
+        <f>IF(ROW($A97) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A97)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A97))),
+  WORKDAY(EDATE(fpdate, ROW($A97)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A97)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F126" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G126" s="9" t="s">
-        <v>18</v>
+      <c r="G126" s="9" t="str">
+        <f ca="1">IF(ROW($G97) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -4255,22 +4965,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B127" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B127" s="9" t="str" cm="1">
+        <f t="array" ref="B127">IF(ROW($B98)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B98)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C127" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E127" s="7" t="str">
+        <f>IF(ROW($A98) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A98)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A98))),
+  WORKDAY(EDATE(fpdate, ROW($A98)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A98)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F127" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G127" s="9" t="s">
-        <v>18</v>
+      <c r="G127" s="9" t="str">
+        <f ca="1">IF(ROW($G98) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -4282,22 +4998,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B128" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B128" s="9" t="str" cm="1">
+        <f t="array" ref="B128">IF(ROW($B99)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B99)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C128" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E128" s="7" t="str">
+        <f>IF(ROW($A99) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A99)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A99))),
+  WORKDAY(EDATE(fpdate, ROW($A99)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A99)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F128" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G128" s="9" t="s">
-        <v>18</v>
+      <c r="G128" s="9" t="str">
+        <f ca="1">IF(ROW($G99) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -4309,22 +5031,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B129" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B129" s="9" t="str" cm="1">
+        <f t="array" ref="B129">IF(ROW($B100)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B100)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C129" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E129" s="7" t="str">
+        <f>IF(ROW($A100) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A100)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A100))),
+  WORKDAY(EDATE(fpdate, ROW($A100)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A100)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F129" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G129" s="9" t="s">
-        <v>18</v>
+      <c r="G129" s="9" t="str">
+        <f ca="1">IF(ROW($G100) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -4336,22 +5064,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B130" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B130" s="9" t="str" cm="1">
+        <f t="array" ref="B130">IF(ROW($B101)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B101)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C130" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E130" s="7" t="str">
+        <f>IF(ROW($A101) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A101)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A101))),
+  WORKDAY(EDATE(fpdate, ROW($A101)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A101)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F130" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G130" s="9" t="s">
-        <v>18</v>
+      <c r="G130" s="9" t="str">
+        <f ca="1">IF(ROW($G101) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -4363,22 +5097,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B131" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B131" s="9" t="str" cm="1">
+        <f t="array" ref="B131">IF(ROW($B102)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B102)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C131" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E131" s="7" t="str">
+        <f>IF(ROW($A102) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A102)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A102))),
+  WORKDAY(EDATE(fpdate, ROW($A102)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A102)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F131" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G131" s="9" t="s">
-        <v>18</v>
+      <c r="G131" s="9" t="str">
+        <f ca="1">IF(ROW($G102) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -4390,22 +5130,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B132" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B132" s="9" t="str" cm="1">
+        <f t="array" ref="B132">IF(ROW($B103)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B103)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C132" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E132" s="7" t="str">
+        <f>IF(ROW($A103) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A103)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A103))),
+  WORKDAY(EDATE(fpdate, ROW($A103)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A103)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F132" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G132" s="9" t="s">
-        <v>18</v>
+      <c r="G132" s="9" t="str">
+        <f ca="1">IF(ROW($G103) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -4417,22 +5163,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B133" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B133" s="9" t="str" cm="1">
+        <f t="array" ref="B133">IF(ROW($B104)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B104)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C133" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E133" s="7" t="str">
+        <f>IF(ROW($A104) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A104)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A104))),
+  WORKDAY(EDATE(fpdate, ROW($A104)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A104)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F133" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G133" s="9" t="s">
-        <v>18</v>
+      <c r="G133" s="9" t="str">
+        <f ca="1">IF(ROW($G104) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -4444,22 +5196,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B134" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B134" s="9" t="str" cm="1">
+        <f t="array" ref="B134">IF(ROW($B105)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B105)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C134" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E134" s="7" t="str">
+        <f>IF(ROW($A105) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A105)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A105))),
+  WORKDAY(EDATE(fpdate, ROW($A105)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A105)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F134" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G134" s="9" t="s">
-        <v>18</v>
+      <c r="G134" s="9" t="str">
+        <f ca="1">IF(ROW($G105) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -4471,22 +5229,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B135" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B135" s="9" t="str" cm="1">
+        <f t="array" ref="B135">IF(ROW($B106)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B106)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C135" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E135" s="7" t="str">
+        <f>IF(ROW($A106) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A106)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A106))),
+  WORKDAY(EDATE(fpdate, ROW($A106)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A106)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F135" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G135" s="9" t="s">
-        <v>18</v>
+      <c r="G135" s="9" t="str">
+        <f ca="1">IF(ROW($G106) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -4498,22 +5262,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B136" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B136" s="9" t="str" cm="1">
+        <f t="array" ref="B136">IF(ROW($B107)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B107)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C136" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E136" s="7" t="str">
+        <f>IF(ROW($A107) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A107)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A107))),
+  WORKDAY(EDATE(fpdate, ROW($A107)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A107)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F136" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G136" s="9" t="s">
-        <v>18</v>
+      <c r="G136" s="9" t="str">
+        <f ca="1">IF(ROW($G107) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -4525,22 +5295,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B137" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B137" s="9" t="str" cm="1">
+        <f t="array" ref="B137">IF(ROW($B108)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B108)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C137" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E137" s="7" t="str">
+        <f>IF(ROW($A108) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A108)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A108))),
+  WORKDAY(EDATE(fpdate, ROW($A108)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A108)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F137" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G137" s="9" t="s">
-        <v>18</v>
+      <c r="G137" s="9" t="str">
+        <f ca="1">IF(ROW($G108) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -4552,22 +5328,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B138" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B138" s="9" t="str" cm="1">
+        <f t="array" ref="B138">IF(ROW($B109)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B109)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C138" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E138" s="7" t="str">
+        <f>IF(ROW($A109) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A109)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A109))),
+  WORKDAY(EDATE(fpdate, ROW($A109)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A109)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F138" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G138" s="9" t="s">
-        <v>18</v>
+      <c r="G138" s="9" t="str">
+        <f ca="1">IF(ROW($G109) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -4579,22 +5361,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B139" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B139" s="9" t="str" cm="1">
+        <f t="array" ref="B139">IF(ROW($B110)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B110)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C139" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E139" s="7" t="str">
+        <f>IF(ROW($A110) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A110)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A110))),
+  WORKDAY(EDATE(fpdate, ROW($A110)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A110)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F139" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G139" s="9" t="s">
-        <v>18</v>
+      <c r="G139" s="9" t="str">
+        <f ca="1">IF(ROW($G110) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -4606,22 +5394,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B140" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B140" s="9" t="str" cm="1">
+        <f t="array" ref="B140">IF(ROW($B111)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B111)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C140" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E140" s="7" t="str">
+        <f>IF(ROW($A111) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A111)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A111))),
+  WORKDAY(EDATE(fpdate, ROW($A111)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A111)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F140" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G140" s="9" t="s">
-        <v>18</v>
+      <c r="G140" s="9" t="str">
+        <f ca="1">IF(ROW($G111) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -4633,22 +5427,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B141" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B141" s="9" t="str" cm="1">
+        <f t="array" ref="B141">IF(ROW($B112)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B112)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C141" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E141" s="7" t="str">
+        <f>IF(ROW($A112) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A112)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A112))),
+  WORKDAY(EDATE(fpdate, ROW($A112)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A112)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F141" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G141" s="9" t="s">
-        <v>18</v>
+      <c r="G141" s="9" t="str">
+        <f ca="1">IF(ROW($G112) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -4660,22 +5460,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B142" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B142" s="9" t="str" cm="1">
+        <f t="array" ref="B142">IF(ROW($B113)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B113)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C142" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E142" s="7" t="str">
+        <f>IF(ROW($A113) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A113)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A113))),
+  WORKDAY(EDATE(fpdate, ROW($A113)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A113)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F142" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G142" s="9" t="s">
-        <v>18</v>
+      <c r="G142" s="9" t="str">
+        <f ca="1">IF(ROW($G113) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -4687,22 +5493,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B143" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B143" s="9" t="str" cm="1">
+        <f t="array" ref="B143">IF(ROW($B114)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B114)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C143" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E143" s="7" t="str">
+        <f>IF(ROW($A114) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A114)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A114))),
+  WORKDAY(EDATE(fpdate, ROW($A114)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A114)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F143" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G143" s="9" t="s">
-        <v>18</v>
+      <c r="G143" s="9" t="str">
+        <f ca="1">IF(ROW($G114) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -4714,22 +5526,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B144" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B144" s="9" t="str" cm="1">
+        <f t="array" ref="B144">IF(ROW($B115)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B115)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C144" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E144" s="7" t="str">
+        <f>IF(ROW($A115) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A115)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A115))),
+  WORKDAY(EDATE(fpdate, ROW($A115)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A115)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F144" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G144" s="9" t="s">
-        <v>18</v>
+      <c r="G144" s="9" t="str">
+        <f ca="1">IF(ROW($G115) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -4741,22 +5559,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B145" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B145" s="9" t="str" cm="1">
+        <f t="array" ref="B145">IF(ROW($B116)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B116)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C145" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E145" s="7" t="str">
+        <f>IF(ROW($A116) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A116)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A116))),
+  WORKDAY(EDATE(fpdate, ROW($A116)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A116)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F145" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G145" s="9" t="s">
-        <v>18</v>
+      <c r="G145" s="9" t="str">
+        <f ca="1">IF(ROW($G116) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -4768,22 +5592,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B146" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B146" s="9" t="str" cm="1">
+        <f t="array" ref="B146">IF(ROW($B117)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B117)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C146" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E146" s="7" t="str">
+        <f>IF(ROW($A117) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A117)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A117))),
+  WORKDAY(EDATE(fpdate, ROW($A117)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A117)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F146" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G146" s="9" t="s">
-        <v>18</v>
+      <c r="G146" s="9" t="str">
+        <f ca="1">IF(ROW($G117) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -4795,22 +5625,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B147" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B147" s="9" t="str" cm="1">
+        <f t="array" ref="B147">IF(ROW($B118)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B118)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C147" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E147" s="7" t="str">
+        <f>IF(ROW($A118) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A118)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A118))),
+  WORKDAY(EDATE(fpdate, ROW($A118)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A118)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F147" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G147" s="9" t="s">
-        <v>18</v>
+      <c r="G147" s="9" t="str">
+        <f ca="1">IF(ROW($G118) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -4822,22 +5658,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B148" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B148" s="9" t="str" cm="1">
+        <f t="array" ref="B148">IF(ROW($B119)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B119)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C148" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E148" s="7" t="str">
+        <f>IF(ROW($A119) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A119)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A119))),
+  WORKDAY(EDATE(fpdate, ROW($A119)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A119)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F148" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G148" s="9" t="s">
-        <v>18</v>
+      <c r="G148" s="9" t="str">
+        <f ca="1">IF(ROW($G119) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -4849,22 +5691,28 @@
 "")</f>
         <v/>
       </c>
-      <c r="B149" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="B149" s="9" t="str" cm="1">
+        <f t="array" ref="B149">IF(ROW($B120)&lt;=_xlfn.SINGLE(MonthsCounter),IF(ROW($B120)=MonthsCounter,LastMonthly1,Monthly1),"")</f>
         <v/>
       </c>
       <c r="C149" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E149" s="7" t="str">
+        <f>IF(ROW($A120) &lt;= SecondMonthsCounter,
+  IF(MONTH(WORKDAY(EDATE(fpdate, ROW($A120)), 1, Holiday!$A$1:$A$197)) = MONTH(EDATE(fpdate, ROW($A120))),
+  WORKDAY(EDATE(fpdate, ROW($A120)), 1, Holiday!$A$1:$A$197),
+  WORKDAY(EDATE(fpdate, ROW($A120)) + 1, -1, Holiday!$A$1:$A$197)),
+"")</f>
+        <v/>
       </c>
       <c r="F149" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G149" s="9" t="s">
-        <v>18</v>
+      <c r="G149" s="9" t="str">
+        <f ca="1">IF(ROW($G120) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">

--- a/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
+++ b/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C5D95-79B5-4C40-A135-F6733D93AF53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A25B5EA-BA21-D844-84CC-7DCE8F6A64FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="-1740" windowWidth="33540" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-1740" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investment" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Payout Amount</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>NPV1 - NPV2</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Other Grading Criteria: Payout Amount [10 points]; PV [10 points]; Display [10 points]</t>
@@ -565,50 +562,1413 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>NPVs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of investment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Investment!$J$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPV1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Investment!$I$27:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Investment!$J$27:$J$62</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193927.86938671139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187908.33866143064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181940.81520699663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>176024.71446540649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170159.45981047861</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164344.48242281238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>158579.22116697649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>152863.12247089134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>147195.64020735538</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141576.23557768366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136004.3769974045</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130479.53998397873</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>125001.20704650669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119568.86757737421</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>114182.01774580544</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108840.160393283</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103542.80493080406</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98289.467237923294</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>93079.669563569129</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87912.940428571543</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82788.814529896015</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>77706.832646529423</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72666.541546997614</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67667.493898478104</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62709.248177479021</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>57791.368582051946</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52913.424945514882</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48074.992651649867</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43275.652551348321</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38514.990880681667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33792.59918036242</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29108.074216575711</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24461.017903155065</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19851.037225064822</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15277.744163188851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54DF-1249-BFA4-C89C5F3085ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Investment!$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPV2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Investment!$I$27:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Investment!$K$27:$K$62</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>415000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>398217.30830456223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>381687.09724572627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>365404.9947186464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>349366.71344400477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>333568.0491516809</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>318004.87880690349</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>302673.15887779277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>287568.92364326259</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>272688.28354025143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>258027.42354929773</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>243582.60161749762</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>229350.1471178988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>215326.45934443153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>201508.00604147511</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>187891.32196720643</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>174473.00748988288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>161249.72721624677</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>148218.20865125232</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135375.240888339</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>122717.67332949885</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110242.41443440551</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>97946.430497882422</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85826.744455023902</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73880.434713285184</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62104.63401088235</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50496.528300863458</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39053.355660220608</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27772.405223438749</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16651.016139884247</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5686.5765544563765</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5123.4773890585639</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-15781.662522480125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-26290.449606106151</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-36652.264260489494</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-46869.487877615262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54DF-1249-BFA4-C89C5F3085ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="825849903"/>
+        <c:axId val="826232735"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="825849903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="826232735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="826232735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825849903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>294639</xdr:colOff>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>129858</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>617979</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>118682</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3823FCC5-2B33-49F8-BC09-3028601CE490}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BD98B7-E6E6-5F4F-AECC-5E518CB6BDB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16753839" y="5646738"/>
-          <a:ext cx="5017260" cy="3666744"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -937,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -957,7 +2317,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>9</v>
@@ -968,7 +2328,7 @@
     </row>
     <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -981,7 +2341,7 @@
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -994,7 +2354,7 @@
     </row>
     <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -1007,7 +2367,7 @@
     </row>
     <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -1020,7 +2380,7 @@
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -1046,7 +2406,7 @@
     </row>
     <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -1056,15 +2416,15 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -1074,15 +2434,15 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -1092,15 +2452,15 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -1110,15 +2470,15 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -1127,11 +2487,16 @@
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="I12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -1144,7 +2509,7 @@
     </row>
     <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -4552,8 +5917,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F114" s="9" t="s">
-        <v>18</v>
+      <c r="F114" s="9" t="str">
+        <f>IF(ROW($C85)&lt;=SecondMonthsCounter,IF(ROW($C85)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G114" s="9" t="str">
         <f ca="1">IF(ROW($G85) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -4585,8 +5951,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F115" s="9" t="s">
-        <v>18</v>
+      <c r="F115" s="9" t="str">
+        <f>IF(ROW($C86)&lt;=SecondMonthsCounter,IF(ROW($C86)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G115" s="9" t="str">
         <f ca="1">IF(ROW($G86) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -4618,8 +5985,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F116" s="9" t="s">
-        <v>18</v>
+      <c r="F116" s="9" t="str">
+        <f>IF(ROW($C87)&lt;=SecondMonthsCounter,IF(ROW($C87)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G116" s="9" t="str">
         <f ca="1">IF(ROW($G87) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -4651,8 +6019,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F117" s="9" t="s">
-        <v>18</v>
+      <c r="F117" s="9" t="str">
+        <f>IF(ROW($C88)&lt;=SecondMonthsCounter,IF(ROW($C88)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G117" s="9" t="str">
         <f ca="1">IF(ROW($G88) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -4684,8 +6053,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F118" s="9" t="s">
-        <v>18</v>
+      <c r="F118" s="9" t="str">
+        <f>IF(ROW($C89)&lt;=SecondMonthsCounter,IF(ROW($C89)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G118" s="9" t="str">
         <f ca="1">IF(ROW($G89) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -4717,8 +6087,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F119" s="9" t="s">
-        <v>18</v>
+      <c r="F119" s="9" t="str">
+        <f>IF(ROW($C90)&lt;=SecondMonthsCounter,IF(ROW($C90)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G119" s="9" t="str">
         <f ca="1">IF(ROW($G90) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -4750,8 +6121,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F120" s="9" t="s">
-        <v>18</v>
+      <c r="F120" s="9" t="str">
+        <f>IF(ROW($C91)&lt;=SecondMonthsCounter,IF(ROW($C91)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G120" s="9" t="str">
         <f ca="1">IF(ROW($G91) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -4783,8 +6155,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F121" s="9" t="s">
-        <v>18</v>
+      <c r="F121" s="9" t="str">
+        <f>IF(ROW($C92)&lt;=SecondMonthsCounter,IF(ROW($C92)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G121" s="9" t="str">
         <f ca="1">IF(ROW($G92) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -4816,8 +6189,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F122" s="9" t="s">
-        <v>18</v>
+      <c r="F122" s="9" t="str">
+        <f>IF(ROW($C93)&lt;=SecondMonthsCounter,IF(ROW($C93)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G122" s="9" t="str">
         <f ca="1">IF(ROW($G93) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -4849,8 +6223,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F123" s="9" t="s">
-        <v>18</v>
+      <c r="F123" s="9" t="str">
+        <f>IF(ROW($C94)&lt;=SecondMonthsCounter,IF(ROW($C94)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G123" s="9" t="str">
         <f ca="1">IF(ROW($G94) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -4882,8 +6257,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F124" s="9" t="s">
-        <v>18</v>
+      <c r="F124" s="9" t="str">
+        <f>IF(ROW($C95)&lt;=SecondMonthsCounter,IF(ROW($C95)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G124" s="9" t="str">
         <f ca="1">IF(ROW($G95) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -4915,8 +6291,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F125" s="9" t="s">
-        <v>18</v>
+      <c r="F125" s="9" t="str">
+        <f>IF(ROW($C96)&lt;=SecondMonthsCounter,IF(ROW($C96)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G125" s="9" t="str">
         <f ca="1">IF(ROW($G96) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -4948,8 +6325,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F126" s="9" t="s">
-        <v>18</v>
+      <c r="F126" s="9" t="str">
+        <f>IF(ROW($C97)&lt;=SecondMonthsCounter,IF(ROW($C97)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G126" s="9" t="str">
         <f ca="1">IF(ROW($G97) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -4981,8 +6359,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F127" s="9" t="s">
-        <v>18</v>
+      <c r="F127" s="9" t="str">
+        <f>IF(ROW($C98)&lt;=SecondMonthsCounter,IF(ROW($C98)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G127" s="9" t="str">
         <f ca="1">IF(ROW($G98) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5014,8 +6393,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F128" s="9" t="s">
-        <v>18</v>
+      <c r="F128" s="9" t="str">
+        <f>IF(ROW($C99)&lt;=SecondMonthsCounter,IF(ROW($C99)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G128" s="9" t="str">
         <f ca="1">IF(ROW($G99) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5047,8 +6427,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F129" s="9" t="s">
-        <v>18</v>
+      <c r="F129" s="9" t="str">
+        <f>IF(ROW($C100)&lt;=SecondMonthsCounter,IF(ROW($C100)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G129" s="9" t="str">
         <f ca="1">IF(ROW($G100) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5080,8 +6461,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F130" s="9" t="s">
-        <v>18</v>
+      <c r="F130" s="9" t="str">
+        <f>IF(ROW($C101)&lt;=SecondMonthsCounter,IF(ROW($C101)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G130" s="9" t="str">
         <f ca="1">IF(ROW($G101) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5113,8 +6495,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F131" s="9" t="s">
-        <v>18</v>
+      <c r="F131" s="9" t="str">
+        <f>IF(ROW($C102)&lt;=SecondMonthsCounter,IF(ROW($C102)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G131" s="9" t="str">
         <f ca="1">IF(ROW($G102) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5146,8 +6529,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F132" s="9" t="s">
-        <v>18</v>
+      <c r="F132" s="9" t="str">
+        <f>IF(ROW($C103)&lt;=SecondMonthsCounter,IF(ROW($C103)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G132" s="9" t="str">
         <f ca="1">IF(ROW($G103) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5179,8 +6563,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F133" s="9" t="s">
-        <v>18</v>
+      <c r="F133" s="9" t="str">
+        <f>IF(ROW($C104)&lt;=SecondMonthsCounter,IF(ROW($C104)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G133" s="9" t="str">
         <f ca="1">IF(ROW($G104) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5212,8 +6597,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F134" s="9" t="s">
-        <v>18</v>
+      <c r="F134" s="9" t="str">
+        <f>IF(ROW($C105)&lt;=SecondMonthsCounter,IF(ROW($C105)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G134" s="9" t="str">
         <f ca="1">IF(ROW($G105) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5245,8 +6631,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F135" s="9" t="s">
-        <v>18</v>
+      <c r="F135" s="9" t="str">
+        <f>IF(ROW($C106)&lt;=SecondMonthsCounter,IF(ROW($C106)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G135" s="9" t="str">
         <f ca="1">IF(ROW($G106) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5278,8 +6665,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F136" s="9" t="s">
-        <v>18</v>
+      <c r="F136" s="9" t="str">
+        <f>IF(ROW($C107)&lt;=SecondMonthsCounter,IF(ROW($C107)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G136" s="9" t="str">
         <f ca="1">IF(ROW($G107) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5311,8 +6699,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F137" s="9" t="s">
-        <v>18</v>
+      <c r="F137" s="9" t="str">
+        <f>IF(ROW($C108)&lt;=SecondMonthsCounter,IF(ROW($C108)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G137" s="9" t="str">
         <f ca="1">IF(ROW($G108) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5344,8 +6733,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F138" s="9" t="s">
-        <v>18</v>
+      <c r="F138" s="9" t="str">
+        <f>IF(ROW($C109)&lt;=SecondMonthsCounter,IF(ROW($C109)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G138" s="9" t="str">
         <f ca="1">IF(ROW($G109) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5377,8 +6767,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F139" s="9" t="s">
-        <v>18</v>
+      <c r="F139" s="9" t="str">
+        <f>IF(ROW($C110)&lt;=SecondMonthsCounter,IF(ROW($C110)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G139" s="9" t="str">
         <f ca="1">IF(ROW($G110) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5410,8 +6801,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F140" s="9" t="s">
-        <v>18</v>
+      <c r="F140" s="9" t="str">
+        <f>IF(ROW($C111)&lt;=SecondMonthsCounter,IF(ROW($C111)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G140" s="9" t="str">
         <f ca="1">IF(ROW($G111) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5443,8 +6835,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F141" s="9" t="s">
-        <v>18</v>
+      <c r="F141" s="9" t="str">
+        <f>IF(ROW($C112)&lt;=SecondMonthsCounter,IF(ROW($C112)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G141" s="9" t="str">
         <f ca="1">IF(ROW($G112) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5476,8 +6869,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F142" s="9" t="s">
-        <v>18</v>
+      <c r="F142" s="9" t="str">
+        <f>IF(ROW($C113)&lt;=SecondMonthsCounter,IF(ROW($C113)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G142" s="9" t="str">
         <f ca="1">IF(ROW($G113) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5509,8 +6903,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F143" s="9" t="s">
-        <v>18</v>
+      <c r="F143" s="9" t="str">
+        <f>IF(ROW($C114)&lt;=SecondMonthsCounter,IF(ROW($C114)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G143" s="9" t="str">
         <f ca="1">IF(ROW($G114) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5542,8 +6937,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F144" s="9" t="s">
-        <v>18</v>
+      <c r="F144" s="9" t="str">
+        <f>IF(ROW($C115)&lt;=SecondMonthsCounter,IF(ROW($C115)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G144" s="9" t="str">
         <f ca="1">IF(ROW($G115) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5575,8 +6971,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F145" s="9" t="s">
-        <v>18</v>
+      <c r="F145" s="9" t="str">
+        <f>IF(ROW($C116)&lt;=SecondMonthsCounter,IF(ROW($C116)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G145" s="9" t="str">
         <f ca="1">IF(ROW($G116) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5608,8 +7005,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F146" s="9" t="s">
-        <v>18</v>
+      <c r="F146" s="9" t="str">
+        <f>IF(ROW($C117)&lt;=SecondMonthsCounter,IF(ROW($C117)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G146" s="9" t="str">
         <f ca="1">IF(ROW($G117) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5641,8 +7039,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F147" s="9" t="s">
-        <v>18</v>
+      <c r="F147" s="9" t="str">
+        <f>IF(ROW($C118)&lt;=SecondMonthsCounter,IF(ROW($C118)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G147" s="9" t="str">
         <f ca="1">IF(ROW($G118) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5674,8 +7073,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F148" s="9" t="s">
-        <v>18</v>
+      <c r="F148" s="9" t="str">
+        <f>IF(ROW($C119)&lt;=SecondMonthsCounter,IF(ROW($C119)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G148" s="9" t="str">
         <f ca="1">IF(ROW($G119) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>
@@ -5707,8 +7107,9 @@
 "")</f>
         <v/>
       </c>
-      <c r="F149" s="9" t="s">
-        <v>18</v>
+      <c r="F149" s="9" t="str">
+        <f>IF(ROW($C120)&lt;=SecondMonthsCounter,IF(ROW($C120)=SecondMonthsCounter,LastMonthly2,Monthly2),"")</f>
+        <v/>
       </c>
       <c r="G149" s="9" t="str">
         <f ca="1">IF(ROW($G120) &lt;= SecondMonthsCounter,  INDIRECT("RC[-1]",0) / (POWER( (1 + $D$23), (INDIRECT("RC[-2]",0) - $B$16) / 365)), "")</f>

--- a/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
+++ b/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A25B5EA-BA21-D844-84CC-7DCE8F6A64FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACF35E5-2E4A-D247-80BE-35D6E457207D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-1740" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <definedName name="PayOutPeriod2">Investment!$F$21</definedName>
     <definedName name="rate">Investment!$D$23</definedName>
     <definedName name="SecondMonthsCounter">(Investment!$F$21)*12</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Investment!$D$23</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -39,6 +40,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Investment!$D$24</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -48,9 +50,9 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2298,7 +2300,7 @@
   <dimension ref="A1:K277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
+++ b/semester01/COMP7802B Introduction to financial computing/Assignment 1/Darasirikul_Varis_2020_Assignment 1_Question.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACF35E5-2E4A-D247-80BE-35D6E457207D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54338834-4380-E944-89A2-99D3167D658B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-1740" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2300,7 +2300,7 @@
   <dimension ref="A1:K277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
